--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DADBD7-9BF5-8144-A480-4F809D717B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19068" windowHeight="7716"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -57,31 +58,32 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Member 4</t>
+    <t>Beh Wei Chen</t>
   </si>
   <si>
-    <t>Member 5</t>
+    <t>Tan Shermin</t>
   </si>
   <si>
-    <t>Week: &lt;starting date&gt; to &lt;ending date&gt;</t>
+    <t>Lim Jia Yu</t>
+  </si>
+  <si>
+    <t>Wong Wei Ling</t>
+  </si>
+  <si>
+    <t>Geralyn 
+Goo Soo Chi</t>
+  </si>
+  <si>
+    <t>Week: 16 Sep to 22 Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -144,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -173,6 +175,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -458,33 +463,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="32" style="6" customWidth="1"/>
     <col min="5" max="5" width="31" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="6" customWidth="1"/>
-    <col min="7" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="6" customWidth="1"/>
+    <col min="7" max="9" width="29.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -514,7 +519,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="7" t="s">
@@ -556,9 +561,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -569,10 +574,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -580,7 +585,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -591,7 +596,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -604,7 +609,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -615,7 +620,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -626,9 +631,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -639,7 +644,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -650,7 +655,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -661,7 +666,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -674,7 +679,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -685,7 +690,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -696,8 +701,8 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -709,7 +714,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -720,7 +725,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -731,3939 +736,3939 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="B1001" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DADBD7-9BF5-8144-A480-4F809D717B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD86AEA-4C89-9340-B90E-53159C5A0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -79,12 +87,33 @@
   <si>
     <t>Week: 16 Sep to 22 Sep</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Plan Tuesday meeting/pair programming with Wei Ling</t>
+  </si>
+  <si>
+    <t>Plan Tuesday meeting/pair programming with Geralyn</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Chen (SQL scripts and DAO files)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin (SQL scripts and DAO files)</t>
+  </si>
+  <si>
+    <t>Login function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,16 +129,23 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -146,18 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -183,6 +216,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,38 +508,38 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:A17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="6" customWidth="1"/>
-    <col min="7" max="9" width="29.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="29.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -520,27 +559,27 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="1"/>
@@ -562,237 +601,297 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD86AEA-4C89-9340-B90E-53159C5A0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86719797-7272-7947-8E36-7DDF09D2C25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <t>Pair Programme with Shermin (SQL scripts and DAO files)</t>
   </si>
   <si>
-    <t>Login function</t>
+    <t>Not a working day</t>
   </si>
 </sst>
 </file>
@@ -198,6 +198,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -216,12 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +508,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -525,21 +525,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -559,8 +559,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -601,239 +601,239 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86719797-7272-7947-8E36-7DDF09D2C25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AE976-4DE4-1440-97A2-750593A8330A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Not a working day</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Ling (login.php and index.php)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn (login.php and index.php)</t>
+  </si>
+  <si>
+    <t>Allocate files and functions to be programmed by the pairs</t>
   </si>
 </sst>
 </file>
@@ -508,9 +517,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -610,7 +619,9 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -625,7 +636,9 @@
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -640,7 +653,9 @@
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -657,7 +672,9 @@
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -672,7 +689,9 @@
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -687,7 +706,9 @@
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -704,7 +725,9 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -719,7 +742,9 @@
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -734,7 +759,9 @@
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -751,7 +778,9 @@
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -766,7 +795,9 @@
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -781,7 +812,9 @@
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -798,7 +831,9 @@
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -813,7 +848,9 @@
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -828,7 +865,9 @@
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AE976-4DE4-1440-97A2-750593A8330A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B8CB7-04EF-3C48-A972-A1933E80C0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -109,13 +109,25 @@
     <t>Not a working day</t>
   </si>
   <si>
-    <t>Pair Programme with Wei Ling (login.php and index.php)</t>
+    <t>Allocate files and functions to be programmed by the pairs</t>
   </si>
   <si>
-    <t>Pair Programme with Geralyn (login.php and index.php)</t>
+    <t>Pair Programme with Wei Ling (login.php and style.css)</t>
   </si>
   <si>
-    <t>Allocate files and functions to be programmed by the pairs</t>
+    <t>Pair Programme with Shermin (SQL scripts, StudentDAO, Student &amp; ConnectionMgr files)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Chen (SQL scripts, StudentDAO, Student &amp; ConnectionMgr files)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn (login.php and style.css)</t>
+  </si>
+  <si>
+    <t>Brainstorm implementation of bid section function</t>
+  </si>
+  <si>
+    <t>Yes, keeping track of bidding round number</t>
   </si>
 </sst>
 </file>
@@ -519,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -620,9 +632,11 @@
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -639,7 +653,9 @@
       <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -656,7 +672,9 @@
       <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
@@ -672,10 +690,12 @@
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
@@ -692,7 +712,9 @@
       <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
@@ -709,7 +731,9 @@
       <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
@@ -728,7 +752,9 @@
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -743,9 +769,11 @@
         <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -762,7 +790,9 @@
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -781,7 +811,9 @@
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -796,9 +828,11 @@
         <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
@@ -815,7 +849,9 @@
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -834,8 +870,9 @@
       <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -849,9 +886,11 @@
         <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
@@ -868,7 +907,9 @@
       <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B8CB7-04EF-3C48-A972-A1933E80C0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6718CD66-E8DD-3B4E-A8A1-C62CCF19BCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -100,12 +100,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Pair Programme with Wei Chen (SQL scripts and DAO files)</t>
-  </si>
-  <si>
-    <t>Pair Programme with Shermin (SQL scripts and DAO files)</t>
-  </si>
-  <si>
     <t>Not a working day</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>Pair Programme with Wei Ling (login.php and style.css)</t>
   </si>
   <si>
-    <t>Pair Programme with Shermin (SQL scripts, StudentDAO, Student &amp; ConnectionMgr files)</t>
-  </si>
-  <si>
-    <t>Pair Programme with Wei Chen (SQL scripts, StudentDAO, Student &amp; ConnectionMgr files)</t>
-  </si>
-  <si>
     <t>Pair Programme with Geralyn (login.php and style.css)</t>
   </si>
   <si>
@@ -128,6 +116,24 @@
   </si>
   <si>
     <t>Yes, keeping track of bidding round number</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Chen (SQL scripts and DAOs)</t>
+  </si>
+  <si>
+    <t>Brainstorm implementation of bid section function (use sql table to track bidding round)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin (SQL scripts and DAOs)</t>
+  </si>
+  <si>
+    <t>Plan which elements to display for each webpage </t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Chen (SQL scripts, StudentDAO, Student &amp; ConnectionMgr files)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn (complete DAOs and classes)</t>
   </si>
 </sst>
 </file>
@@ -144,14 +150,17 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -529,9 +538,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -628,16 +637,18 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -648,15 +659,17 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -666,16 +679,18 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -687,16 +702,18 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -706,16 +723,18 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -725,16 +744,18 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -746,16 +767,18 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -765,16 +788,18 @@
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -784,16 +809,18 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -805,16 +832,18 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -824,16 +853,18 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -843,16 +874,18 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -864,14 +897,17 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
@@ -882,16 +918,18 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -901,16 +939,18 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6718CD66-E8DD-3B4E-A8A1-C62CCF19BCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE08751-1C44-8349-AD32-45026B29063F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Week: 16 Sep to 22 Sep</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Plan Tuesday meeting/pair programming with Wei Ling</t>
   </si>
   <si>
@@ -135,12 +132,18 @@
   <si>
     <t>Pair Programme with Geralyn (complete DAOs and classes)</t>
   </si>
+  <si>
+    <t>Pair Programme with Wei Chen (Student and Admin index.php)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin (Student and Admin index.php)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,11 +167,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -212,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,9 +227,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -538,9 +533,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -555,21 +550,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -589,8 +584,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -631,329 +626,359 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE08751-1C44-8349-AD32-45026B29063F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC259E-8661-8F4E-82B2-E56693FD6698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -138,12 +138,18 @@
   <si>
     <t>Pair Programme with Shermin (Student and Admin index.php)</t>
   </si>
+  <si>
+    <t>Pair Programme with Wei Ling (complete DAOs and classes)</t>
+  </si>
+  <si>
+    <t>Identify critical path of schedule and update google sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -533,12 +539,12 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
@@ -549,7 +555,7 @@
     <col min="7" max="9" width="29.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -583,7 +589,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="17">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="6" t="s">
@@ -625,7 +631,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="47.25" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -647,10 +653,12 @@
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="63" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -670,10 +678,12 @@
       <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -693,10 +703,12 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="62.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,10 +730,12 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -741,10 +755,12 @@
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -764,10 +780,12 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -789,10 +807,12 @@
       <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -812,10 +832,12 @@
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -835,10 +857,12 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -858,12 +882,14 @@
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -883,10 +909,12 @@
       <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -906,10 +934,12 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -929,12 +959,14 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -949,15 +981,17 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -977,3942 +1011,3944 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="16">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="16">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="16">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="16">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="16">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="16">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="16">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="16">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="16">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="16">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="16">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="16">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="16">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="16">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="16">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="16">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="16">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="16">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="16">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="16">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="16">
       <c r="A53" s="1"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="16">
       <c r="A54" s="1"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="16">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="16">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="16">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="16">
       <c r="A58" s="1"/>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="16">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="16">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="16">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="16">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="16">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="16">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="16">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="16">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="16">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="16">
       <c r="A68" s="1"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="16">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="16">
       <c r="A70" s="1"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="16">
       <c r="A71" s="1"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="16">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="16">
       <c r="A73" s="1"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="16">
       <c r="A74" s="1"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="16">
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="16">
       <c r="A76" s="1"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="16">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="16">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="16">
       <c r="A79" s="1"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="16">
       <c r="A80" s="1"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="16">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="16">
       <c r="A82" s="1"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="16">
       <c r="A83" s="1"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="16">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="16">
       <c r="A85" s="1"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="16">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="16">
       <c r="A87" s="1"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="16">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="16">
       <c r="A89" s="1"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="16">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="16">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="16">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="16">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="16">
       <c r="A94" s="1"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="16">
       <c r="A95" s="1"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="16">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="16">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="16">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="16">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="16">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="16">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="16">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="16">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="16">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="16">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="16">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="16">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="16">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="16">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="16">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="16">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="16">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="16">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="16">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="16">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="16">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="16">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="16">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="16">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="16">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="16">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="16">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="16">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="16">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="16">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="16">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="16">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="16">
       <c r="A128" s="1"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="16">
       <c r="A129" s="1"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="16">
       <c r="A130" s="1"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="16">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="16">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="16">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="16">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="16">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="16">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="16">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="16">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="16">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="16">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="16">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="16">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="16">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="16">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="16">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="16">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="16">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="16">
       <c r="A148" s="1"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="16">
       <c r="A149" s="1"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="16">
       <c r="A150" s="1"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="16">
       <c r="A151" s="1"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="16">
       <c r="A152" s="1"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="16">
       <c r="A153" s="1"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="16">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="16">
       <c r="A155" s="1"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="16">
       <c r="A156" s="1"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="16">
       <c r="A157" s="1"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="16">
       <c r="A158" s="1"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="16">
       <c r="A159" s="1"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="16">
       <c r="A160" s="1"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="16">
       <c r="A161" s="1"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="16">
       <c r="A162" s="1"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="16">
       <c r="A163" s="1"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="16">
       <c r="A164" s="1"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="16">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="16">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="16">
       <c r="A167" s="1"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="16">
       <c r="A168" s="1"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="16">
       <c r="A169" s="1"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="16">
       <c r="A170" s="1"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="16">
       <c r="A171" s="1"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="16">
       <c r="A172" s="1"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="16">
       <c r="A173" s="1"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="16">
       <c r="A174" s="1"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="16">
       <c r="A175" s="1"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="16">
       <c r="A176" s="1"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="16">
       <c r="A177" s="1"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="16">
       <c r="A178" s="1"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="16">
       <c r="A179" s="1"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="16">
       <c r="A180" s="1"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="16">
       <c r="A181" s="1"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="16">
       <c r="A182" s="1"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="16">
       <c r="A183" s="1"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="16">
       <c r="A184" s="1"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="16">
       <c r="A185" s="1"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="16">
       <c r="A186" s="1"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="16">
       <c r="A187" s="1"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="16">
       <c r="A188" s="1"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="16">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="16">
       <c r="A190" s="1"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="16">
       <c r="A191" s="1"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="16">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="16">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="16">
       <c r="A194" s="1"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="16">
       <c r="A195" s="1"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="16">
       <c r="A196" s="1"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="16">
       <c r="A197" s="1"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="16">
       <c r="A198" s="1"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="16">
       <c r="A199" s="1"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="16">
       <c r="A200" s="1"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="16">
       <c r="A201" s="1"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="16">
       <c r="A202" s="1"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="16">
       <c r="A203" s="1"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="16">
       <c r="A204" s="1"/>
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="16">
       <c r="A205" s="1"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="16">
       <c r="A206" s="1"/>
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="16">
       <c r="A207" s="1"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="16">
       <c r="A208" s="1"/>
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="16">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="16">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="16">
       <c r="A211" s="1"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="16">
       <c r="A212" s="1"/>
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="16">
       <c r="A213" s="1"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="16">
       <c r="A214" s="1"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="16">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="16">
       <c r="A216" s="1"/>
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="16">
       <c r="A217" s="1"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="16">
       <c r="A218" s="1"/>
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="16">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="16">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="16">
       <c r="A221" s="1"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="16">
       <c r="A222" s="1"/>
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="16">
       <c r="A223" s="1"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="16">
       <c r="A224" s="1"/>
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="16">
       <c r="A225" s="1"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="16">
       <c r="A226" s="1"/>
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="16">
       <c r="A227" s="1"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="16">
       <c r="A228" s="1"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="16">
       <c r="A229" s="1"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="16">
       <c r="A230" s="1"/>
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="16">
       <c r="A231" s="1"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="16">
       <c r="A232" s="1"/>
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="16">
       <c r="A233" s="1"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="16">
       <c r="A234" s="1"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="16">
       <c r="A235" s="1"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="16">
       <c r="A236" s="1"/>
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="16">
       <c r="A237" s="1"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="16">
       <c r="A238" s="1"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="16">
       <c r="A239" s="1"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="16">
       <c r="A240" s="1"/>
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="16">
       <c r="A241" s="1"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="16">
       <c r="A242" s="1"/>
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="16">
       <c r="A243" s="1"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="16">
       <c r="A244" s="1"/>
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="16">
       <c r="A245" s="1"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="16">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="16">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="16">
       <c r="A248" s="1"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="16">
       <c r="A249" s="1"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="16">
       <c r="A250" s="1"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="16">
       <c r="A251" s="1"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="16">
       <c r="A252" s="1"/>
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="16">
       <c r="A253" s="1"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="16">
       <c r="A254" s="1"/>
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="16">
       <c r="A255" s="1"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="16">
       <c r="A256" s="1"/>
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="16">
       <c r="A257" s="1"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="16">
       <c r="A258" s="1"/>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="16">
       <c r="A259" s="1"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="16">
       <c r="A260" s="1"/>
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="16">
       <c r="A261" s="1"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="16">
       <c r="A262" s="1"/>
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="16">
       <c r="A263" s="1"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="16">
       <c r="A264" s="1"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="16">
       <c r="A265" s="1"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="16">
       <c r="A266" s="1"/>
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="16">
       <c r="A267" s="1"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="16">
       <c r="A268" s="1"/>
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="16">
       <c r="A269" s="1"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="16">
       <c r="A270" s="1"/>
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="16">
       <c r="A271" s="1"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="16">
       <c r="A272" s="1"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="16">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="16">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="16">
       <c r="A275" s="1"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="16">
       <c r="A276" s="1"/>
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="16">
       <c r="A277" s="1"/>
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="16">
       <c r="A278" s="1"/>
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="16">
       <c r="A279" s="1"/>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="16">
       <c r="A280" s="1"/>
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="16">
       <c r="A281" s="1"/>
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="16">
       <c r="A282" s="1"/>
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="16">
       <c r="A283" s="1"/>
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="16">
       <c r="A284" s="1"/>
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="16">
       <c r="A285" s="1"/>
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="16">
       <c r="A286" s="1"/>
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="16">
       <c r="A287" s="1"/>
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="16">
       <c r="A288" s="1"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="16">
       <c r="A289" s="1"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="16">
       <c r="A290" s="1"/>
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="16">
       <c r="A291" s="1"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="16">
       <c r="A292" s="1"/>
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="16">
       <c r="A293" s="1"/>
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="16">
       <c r="A294" s="1"/>
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="16">
       <c r="A295" s="1"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="16">
       <c r="A296" s="1"/>
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="16">
       <c r="A297" s="1"/>
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="16">
       <c r="A298" s="1"/>
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="16">
       <c r="A299" s="1"/>
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="16">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="16">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="16">
       <c r="A302" s="1"/>
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="16">
       <c r="A303" s="1"/>
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="16">
       <c r="A304" s="1"/>
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="16">
       <c r="A305" s="1"/>
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="16">
       <c r="A306" s="1"/>
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="16">
       <c r="A307" s="1"/>
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="16">
       <c r="A308" s="1"/>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="16">
       <c r="A309" s="1"/>
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="16">
       <c r="A310" s="1"/>
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="16">
       <c r="A311" s="1"/>
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="16">
       <c r="A312" s="1"/>
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="16">
       <c r="A313" s="1"/>
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="16">
       <c r="A314" s="1"/>
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="16">
       <c r="A315" s="1"/>
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="16">
       <c r="A316" s="1"/>
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="16">
       <c r="A317" s="1"/>
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="16">
       <c r="A318" s="1"/>
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="16">
       <c r="A319" s="1"/>
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="16">
       <c r="A320" s="1"/>
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="16">
       <c r="A321" s="1"/>
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="16">
       <c r="A322" s="1"/>
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="16">
       <c r="A323" s="1"/>
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="16">
       <c r="A324" s="1"/>
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="16">
       <c r="A325" s="1"/>
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="16">
       <c r="A326" s="1"/>
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="16">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="16">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="16">
       <c r="A329" s="1"/>
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="16">
       <c r="A330" s="1"/>
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="16">
       <c r="A331" s="1"/>
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="16">
       <c r="A332" s="1"/>
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="16">
       <c r="A333" s="1"/>
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="16">
       <c r="A334" s="1"/>
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="16">
       <c r="A335" s="1"/>
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="16">
       <c r="A336" s="1"/>
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="16">
       <c r="A337" s="1"/>
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="16">
       <c r="A338" s="1"/>
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="16">
       <c r="A339" s="1"/>
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="16">
       <c r="A340" s="1"/>
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="16">
       <c r="A341" s="1"/>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="16">
       <c r="A342" s="1"/>
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="16">
       <c r="A343" s="1"/>
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="16">
       <c r="A344" s="1"/>
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="16">
       <c r="A345" s="1"/>
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="16">
       <c r="A346" s="1"/>
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="16">
       <c r="A347" s="1"/>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="16">
       <c r="A348" s="1"/>
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="16">
       <c r="A349" s="1"/>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="16">
       <c r="A350" s="1"/>
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="16">
       <c r="A351" s="1"/>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="16">
       <c r="A352" s="1"/>
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="16">
       <c r="A353" s="1"/>
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="16">
       <c r="A354" s="1"/>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="16">
       <c r="A355" s="1"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="16">
       <c r="A356" s="1"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="16">
       <c r="A357" s="1"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="16">
       <c r="A358" s="1"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="16">
       <c r="A359" s="1"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="16">
       <c r="A360" s="1"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="16">
       <c r="A361" s="1"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="16">
       <c r="A362" s="1"/>
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="16">
       <c r="A363" s="1"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="16">
       <c r="A364" s="1"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="16">
       <c r="A365" s="1"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="16">
       <c r="A366" s="1"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="16">
       <c r="A367" s="1"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="16">
       <c r="A368" s="1"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="16">
       <c r="A369" s="1"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="16">
       <c r="A370" s="1"/>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="16">
       <c r="A371" s="1"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="16">
       <c r="A372" s="1"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="16">
       <c r="A373" s="1"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="16">
       <c r="A374" s="1"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="16">
       <c r="A375" s="1"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="16">
       <c r="A376" s="1"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="16">
       <c r="A377" s="1"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="16">
       <c r="A378" s="1"/>
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="16">
       <c r="A379" s="1"/>
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="16">
       <c r="A380" s="1"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="16">
       <c r="A381" s="1"/>
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="16">
       <c r="A382" s="1"/>
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="16">
       <c r="A383" s="1"/>
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="16">
       <c r="A384" s="1"/>
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="16">
       <c r="A385" s="1"/>
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="16">
       <c r="A386" s="1"/>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="16">
       <c r="A387" s="1"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="16">
       <c r="A388" s="1"/>
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="16">
       <c r="A389" s="1"/>
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="16">
       <c r="A390" s="1"/>
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="16">
       <c r="A391" s="1"/>
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="16">
       <c r="A392" s="1"/>
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="16">
       <c r="A393" s="1"/>
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="16">
       <c r="A394" s="1"/>
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="16">
       <c r="A395" s="1"/>
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="16">
       <c r="A396" s="1"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="16">
       <c r="A397" s="1"/>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="16">
       <c r="A398" s="1"/>
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="16">
       <c r="A399" s="1"/>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="16">
       <c r="A400" s="1"/>
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="16">
       <c r="A401" s="1"/>
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="16">
       <c r="A402" s="1"/>
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="16">
       <c r="A403" s="1"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="16">
       <c r="A404" s="1"/>
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="16">
       <c r="A405" s="1"/>
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="16">
       <c r="A406" s="1"/>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="16">
       <c r="A407" s="1"/>
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="16">
       <c r="A408" s="1"/>
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="16">
       <c r="A409" s="1"/>
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="16">
       <c r="A410" s="1"/>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="16">
       <c r="A411" s="1"/>
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="16">
       <c r="A412" s="1"/>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="16">
       <c r="A413" s="1"/>
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="16">
       <c r="A414" s="1"/>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="16">
       <c r="A415" s="1"/>
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="16">
       <c r="A416" s="1"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="16">
       <c r="A417" s="1"/>
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="16">
       <c r="A418" s="1"/>
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" ht="16">
       <c r="A419" s="1"/>
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="16">
       <c r="A420" s="1"/>
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="16">
       <c r="A421" s="1"/>
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="16">
       <c r="A422" s="1"/>
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="16">
       <c r="A423" s="1"/>
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="16">
       <c r="A424" s="1"/>
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="16">
       <c r="A425" s="1"/>
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="16">
       <c r="A426" s="1"/>
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="16">
       <c r="A427" s="1"/>
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="16">
       <c r="A428" s="1"/>
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="16">
       <c r="A429" s="1"/>
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="16">
       <c r="A430" s="1"/>
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" ht="16">
       <c r="A431" s="1"/>
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" ht="16">
       <c r="A432" s="1"/>
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="16">
       <c r="A433" s="1"/>
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="16">
       <c r="A434" s="1"/>
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="16">
       <c r="A435" s="1"/>
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="16">
       <c r="A436" s="1"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="16">
       <c r="A437" s="1"/>
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="16">
       <c r="A438" s="1"/>
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="16">
       <c r="A439" s="1"/>
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="16">
       <c r="A440" s="1"/>
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="16">
       <c r="A441" s="1"/>
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="16">
       <c r="A442" s="1"/>
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="16">
       <c r="A443" s="1"/>
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="16">
       <c r="A444" s="1"/>
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="16">
       <c r="A445" s="1"/>
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="16">
       <c r="A446" s="1"/>
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="16">
       <c r="A447" s="1"/>
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="16">
       <c r="A448" s="1"/>
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="16">
       <c r="A449" s="1"/>
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="16">
       <c r="A450" s="1"/>
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="16">
       <c r="A451" s="1"/>
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="16">
       <c r="A452" s="1"/>
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="16">
       <c r="A453" s="1"/>
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="16">
       <c r="A454" s="1"/>
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="16">
       <c r="A455" s="1"/>
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="16">
       <c r="A456" s="1"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="16">
       <c r="A457" s="1"/>
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="16">
       <c r="A458" s="1"/>
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="16">
       <c r="A459" s="1"/>
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="16">
       <c r="A460" s="1"/>
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="16">
       <c r="A461" s="1"/>
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="16">
       <c r="A462" s="1"/>
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="16">
       <c r="A463" s="1"/>
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="16">
       <c r="A464" s="1"/>
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="16">
       <c r="A465" s="1"/>
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="16">
       <c r="A466" s="1"/>
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="16">
       <c r="A467" s="1"/>
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="16">
       <c r="A468" s="1"/>
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="16">
       <c r="A469" s="1"/>
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="16">
       <c r="A470" s="1"/>
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="16">
       <c r="A471" s="1"/>
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="16">
       <c r="A472" s="1"/>
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="16">
       <c r="A473" s="1"/>
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="16">
       <c r="A474" s="1"/>
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="16">
       <c r="A475" s="1"/>
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="16">
       <c r="A476" s="1"/>
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="16">
       <c r="A477" s="1"/>
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="16">
       <c r="A478" s="1"/>
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="16">
       <c r="A479" s="1"/>
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="16">
       <c r="A480" s="1"/>
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" ht="16">
       <c r="A481" s="1"/>
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="16">
       <c r="A482" s="1"/>
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="16">
       <c r="A483" s="1"/>
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" ht="16">
       <c r="A484" s="1"/>
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="16">
       <c r="A485" s="1"/>
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="16">
       <c r="A486" s="1"/>
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="16">
       <c r="A487" s="1"/>
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" ht="16">
       <c r="A488" s="1"/>
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="16">
       <c r="A489" s="1"/>
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="16">
       <c r="A490" s="1"/>
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="16">
       <c r="A491" s="1"/>
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="16">
       <c r="A492" s="1"/>
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="16">
       <c r="A493" s="1"/>
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="16">
       <c r="A494" s="1"/>
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="16">
       <c r="A495" s="1"/>
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="16">
       <c r="A496" s="1"/>
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="16">
       <c r="A497" s="1"/>
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="16">
       <c r="A498" s="1"/>
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="16">
       <c r="A499" s="1"/>
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="16">
       <c r="A500" s="1"/>
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="16">
       <c r="A501" s="1"/>
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="16">
       <c r="A502" s="1"/>
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="16">
       <c r="A503" s="1"/>
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="16">
       <c r="A504" s="1"/>
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="16">
       <c r="A505" s="1"/>
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="16">
       <c r="A506" s="1"/>
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="16">
       <c r="A507" s="1"/>
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="16">
       <c r="A508" s="1"/>
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="16">
       <c r="A509" s="1"/>
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="16">
       <c r="A510" s="1"/>
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="16">
       <c r="A511" s="1"/>
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" ht="16">
       <c r="A512" s="1"/>
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="16">
       <c r="A513" s="1"/>
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="16">
       <c r="A514" s="1"/>
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="16">
       <c r="A515" s="1"/>
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="16">
       <c r="A516" s="1"/>
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="16">
       <c r="A517" s="1"/>
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="16">
       <c r="A518" s="1"/>
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="16">
       <c r="A519" s="1"/>
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="16">
       <c r="A520" s="1"/>
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="16">
       <c r="A521" s="1"/>
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="16">
       <c r="A522" s="1"/>
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="16">
       <c r="A523" s="1"/>
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="16">
       <c r="A524" s="1"/>
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="16">
       <c r="A525" s="1"/>
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="16">
       <c r="A526" s="1"/>
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="16">
       <c r="A527" s="1"/>
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="16">
       <c r="A528" s="1"/>
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="16">
       <c r="A529" s="1"/>
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" ht="16">
       <c r="A530" s="1"/>
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" ht="16">
       <c r="A531" s="1"/>
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" ht="16">
       <c r="A532" s="1"/>
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" ht="16">
       <c r="A533" s="1"/>
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" ht="16">
       <c r="A534" s="1"/>
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" ht="16">
       <c r="A535" s="1"/>
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" ht="16">
       <c r="A536" s="1"/>
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" ht="16">
       <c r="A537" s="1"/>
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" ht="16">
       <c r="A538" s="1"/>
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" ht="16">
       <c r="A539" s="1"/>
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" ht="16">
       <c r="A540" s="1"/>
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" ht="16">
       <c r="A541" s="1"/>
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="16">
       <c r="A542" s="1"/>
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="16">
       <c r="A543" s="1"/>
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" ht="16">
       <c r="A544" s="1"/>
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="16">
       <c r="A545" s="1"/>
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="16">
       <c r="A546" s="1"/>
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="16">
       <c r="A547" s="1"/>
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="16">
       <c r="A548" s="1"/>
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="16">
       <c r="A549" s="1"/>
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="16">
       <c r="A550" s="1"/>
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="16">
       <c r="A551" s="1"/>
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="16">
       <c r="A552" s="1"/>
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="16">
       <c r="A553" s="1"/>
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="16">
       <c r="A554" s="1"/>
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="16">
       <c r="A555" s="1"/>
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="16">
       <c r="A556" s="1"/>
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="16">
       <c r="A557" s="1"/>
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="16">
       <c r="A558" s="1"/>
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="16">
       <c r="A559" s="1"/>
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="16">
       <c r="A560" s="1"/>
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="16">
       <c r="A561" s="1"/>
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="16">
       <c r="A562" s="1"/>
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="16">
       <c r="A563" s="1"/>
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="16">
       <c r="A564" s="1"/>
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="16">
       <c r="A565" s="1"/>
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="16">
       <c r="A566" s="1"/>
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="16">
       <c r="A567" s="1"/>
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="16">
       <c r="A568" s="1"/>
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="16">
       <c r="A569" s="1"/>
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="16">
       <c r="A570" s="1"/>
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="16">
       <c r="A571" s="1"/>
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="16">
       <c r="A572" s="1"/>
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="16">
       <c r="A573" s="1"/>
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="16">
       <c r="A574" s="1"/>
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="16">
       <c r="A575" s="1"/>
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="16">
       <c r="A576" s="1"/>
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="16">
       <c r="A577" s="1"/>
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="16">
       <c r="A578" s="1"/>
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="16">
       <c r="A579" s="1"/>
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="16">
       <c r="A580" s="1"/>
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="16">
       <c r="A581" s="1"/>
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="16">
       <c r="A582" s="1"/>
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="16">
       <c r="A583" s="1"/>
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="16">
       <c r="A584" s="1"/>
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="16">
       <c r="A585" s="1"/>
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="16">
       <c r="A586" s="1"/>
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="16">
       <c r="A587" s="1"/>
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="16">
       <c r="A588" s="1"/>
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="16">
       <c r="A589" s="1"/>
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="16">
       <c r="A590" s="1"/>
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="16">
       <c r="A591" s="1"/>
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="16">
       <c r="A592" s="1"/>
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="16">
       <c r="A593" s="1"/>
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="16">
       <c r="A594" s="1"/>
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" ht="16">
       <c r="A595" s="1"/>
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="16">
       <c r="A596" s="1"/>
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="16">
       <c r="A597" s="1"/>
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="16">
       <c r="A598" s="1"/>
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="16">
       <c r="A599" s="1"/>
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="16">
       <c r="A600" s="1"/>
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="16">
       <c r="A601" s="1"/>
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="16">
       <c r="A602" s="1"/>
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="16">
       <c r="A603" s="1"/>
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="16">
       <c r="A604" s="1"/>
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="16">
       <c r="A605" s="1"/>
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="16">
       <c r="A606" s="1"/>
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="16">
       <c r="A607" s="1"/>
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="16">
       <c r="A608" s="1"/>
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="16">
       <c r="A609" s="1"/>
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="16">
       <c r="A610" s="1"/>
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="16">
       <c r="A611" s="1"/>
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="16">
       <c r="A612" s="1"/>
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="16">
       <c r="A613" s="1"/>
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" ht="16">
       <c r="A614" s="1"/>
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="16">
       <c r="A615" s="1"/>
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="16">
       <c r="A616" s="1"/>
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="16">
       <c r="A617" s="1"/>
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="16">
       <c r="A618" s="1"/>
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="16">
       <c r="A619" s="1"/>
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" ht="16">
       <c r="A620" s="1"/>
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" ht="16">
       <c r="A621" s="1"/>
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="16">
       <c r="A622" s="1"/>
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="16">
       <c r="A623" s="1"/>
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="16">
       <c r="A624" s="1"/>
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="16">
       <c r="A625" s="1"/>
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="16">
       <c r="A626" s="1"/>
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="16">
       <c r="A627" s="1"/>
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="16">
       <c r="A628" s="1"/>
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="16">
       <c r="A629" s="1"/>
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="16">
       <c r="A630" s="1"/>
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="16">
       <c r="A631" s="1"/>
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="16">
       <c r="A632" s="1"/>
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="16">
       <c r="A633" s="1"/>
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="16">
       <c r="A634" s="1"/>
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="16">
       <c r="A635" s="1"/>
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="16">
       <c r="A636" s="1"/>
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="16">
       <c r="A637" s="1"/>
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="16">
       <c r="A638" s="1"/>
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="16">
       <c r="A639" s="1"/>
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="16">
       <c r="A640" s="1"/>
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" ht="16">
       <c r="A641" s="1"/>
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" ht="16">
       <c r="A642" s="1"/>
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="16">
       <c r="A643" s="1"/>
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="16">
       <c r="A644" s="1"/>
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="16">
       <c r="A645" s="1"/>
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="16">
       <c r="A646" s="1"/>
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="16">
       <c r="A647" s="1"/>
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="16">
       <c r="A648" s="1"/>
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="16">
       <c r="A649" s="1"/>
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="16">
       <c r="A650" s="1"/>
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="16">
       <c r="A651" s="1"/>
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="16">
       <c r="A652" s="1"/>
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="16">
       <c r="A653" s="1"/>
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="16">
       <c r="A654" s="1"/>
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="16">
       <c r="A655" s="1"/>
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="16">
       <c r="A656" s="1"/>
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="16">
       <c r="A657" s="1"/>
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="16">
       <c r="A658" s="1"/>
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="16">
       <c r="A659" s="1"/>
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="16">
       <c r="A660" s="1"/>
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="16">
       <c r="A661" s="1"/>
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" ht="16">
       <c r="A662" s="1"/>
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="16">
       <c r="A663" s="1"/>
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="16">
       <c r="A664" s="1"/>
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="16">
       <c r="A665" s="1"/>
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="16">
       <c r="A666" s="1"/>
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="16">
       <c r="A667" s="1"/>
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="16">
       <c r="A668" s="1"/>
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="16">
       <c r="A669" s="1"/>
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="16">
       <c r="A670" s="1"/>
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="16">
       <c r="A671" s="1"/>
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="16">
       <c r="A672" s="1"/>
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" ht="16">
       <c r="A673" s="1"/>
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="16">
       <c r="A674" s="1"/>
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="16">
       <c r="A675" s="1"/>
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="16">
       <c r="A676" s="1"/>
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="16">
       <c r="A677" s="1"/>
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="16">
       <c r="A678" s="1"/>
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" ht="16">
       <c r="A679" s="1"/>
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" ht="16">
       <c r="A680" s="1"/>
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" ht="16">
       <c r="A681" s="1"/>
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" ht="16">
       <c r="A682" s="1"/>
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" ht="16">
       <c r="A683" s="1"/>
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" ht="16">
       <c r="A684" s="1"/>
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="16">
       <c r="A685" s="1"/>
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" ht="16">
       <c r="A686" s="1"/>
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="16">
       <c r="A687" s="1"/>
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="16">
       <c r="A688" s="1"/>
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="16">
       <c r="A689" s="1"/>
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="16">
       <c r="A690" s="1"/>
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="16">
       <c r="A691" s="1"/>
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="16">
       <c r="A692" s="1"/>
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="16">
       <c r="A693" s="1"/>
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="16">
       <c r="A694" s="1"/>
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="16">
       <c r="A695" s="1"/>
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" ht="16">
       <c r="A696" s="1"/>
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="16">
       <c r="A697" s="1"/>
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="16">
       <c r="A698" s="1"/>
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="16">
       <c r="A699" s="1"/>
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="16">
       <c r="A700" s="1"/>
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="16">
       <c r="A701" s="1"/>
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="16">
       <c r="A702" s="1"/>
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="16">
       <c r="A703" s="1"/>
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="16">
       <c r="A704" s="1"/>
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="16">
       <c r="A705" s="1"/>
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="16">
       <c r="A706" s="1"/>
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="16">
       <c r="A707" s="1"/>
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="16">
       <c r="A708" s="1"/>
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" ht="16">
       <c r="A709" s="1"/>
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="16">
       <c r="A710" s="1"/>
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" ht="16">
       <c r="A711" s="1"/>
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" ht="16">
       <c r="A712" s="1"/>
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="16">
       <c r="A713" s="1"/>
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" ht="16">
       <c r="A714" s="1"/>
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="16">
       <c r="A715" s="1"/>
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="16">
       <c r="A716" s="1"/>
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" ht="16">
       <c r="A717" s="1"/>
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" ht="16">
       <c r="A718" s="1"/>
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="16">
       <c r="A719" s="1"/>
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="16">
       <c r="A720" s="1"/>
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="16">
       <c r="A721" s="1"/>
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" ht="16">
       <c r="A722" s="1"/>
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="16">
       <c r="A723" s="1"/>
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="16">
       <c r="A724" s="1"/>
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="16">
       <c r="A725" s="1"/>
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="16">
       <c r="A726" s="1"/>
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="16">
       <c r="A727" s="1"/>
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="16">
       <c r="A728" s="1"/>
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="16">
       <c r="A729" s="1"/>
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" ht="16">
       <c r="A730" s="1"/>
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="16">
       <c r="A731" s="1"/>
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" ht="16">
       <c r="A732" s="1"/>
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="16">
       <c r="A733" s="1"/>
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="16">
       <c r="A734" s="1"/>
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="16">
       <c r="A735" s="1"/>
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" ht="16">
       <c r="A736" s="1"/>
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" ht="16">
       <c r="A737" s="1"/>
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="16">
       <c r="A738" s="1"/>
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" ht="16">
       <c r="A739" s="1"/>
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="16">
       <c r="A740" s="1"/>
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="16">
       <c r="A741" s="1"/>
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="16">
       <c r="A742" s="1"/>
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="16">
       <c r="A743" s="1"/>
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="16">
       <c r="A744" s="1"/>
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="16">
       <c r="A745" s="1"/>
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" ht="16">
       <c r="A746" s="1"/>
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="16">
       <c r="A747" s="1"/>
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" ht="16">
       <c r="A748" s="1"/>
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" ht="16">
       <c r="A749" s="1"/>
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="16">
       <c r="A750" s="1"/>
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" ht="16">
       <c r="A751" s="1"/>
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="16">
       <c r="A752" s="1"/>
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" ht="16">
       <c r="A753" s="1"/>
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" ht="16">
       <c r="A754" s="1"/>
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" ht="16">
       <c r="A755" s="1"/>
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" ht="16">
       <c r="A756" s="1"/>
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" ht="16">
       <c r="A757" s="1"/>
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" ht="16">
       <c r="A758" s="1"/>
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" ht="16">
       <c r="A759" s="1"/>
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" ht="16">
       <c r="A760" s="1"/>
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" ht="16">
       <c r="A761" s="1"/>
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" ht="16">
       <c r="A762" s="1"/>
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" ht="16">
       <c r="A763" s="1"/>
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" ht="16">
       <c r="A764" s="1"/>
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" ht="16">
       <c r="A765" s="1"/>
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" ht="16">
       <c r="A766" s="1"/>
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="16">
       <c r="A767" s="1"/>
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" ht="16">
       <c r="A768" s="1"/>
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" ht="16">
       <c r="A769" s="1"/>
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" ht="16">
       <c r="A770" s="1"/>
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" ht="16">
       <c r="A771" s="1"/>
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="16">
       <c r="A772" s="1"/>
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" ht="16">
       <c r="A773" s="1"/>
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" ht="16">
       <c r="A774" s="1"/>
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" ht="16">
       <c r="A775" s="1"/>
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" ht="16">
       <c r="A776" s="1"/>
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" ht="16">
       <c r="A777" s="1"/>
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" ht="16">
       <c r="A778" s="1"/>
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" ht="16">
       <c r="A779" s="1"/>
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" ht="16">
       <c r="A780" s="1"/>
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="16">
       <c r="A781" s="1"/>
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" ht="16">
       <c r="A782" s="1"/>
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" ht="16">
       <c r="A783" s="1"/>
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="16">
       <c r="A784" s="1"/>
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" ht="16">
       <c r="A785" s="1"/>
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" ht="16">
       <c r="A786" s="1"/>
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="16">
       <c r="A787" s="1"/>
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="16">
       <c r="A788" s="1"/>
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="16">
       <c r="A789" s="1"/>
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="16">
       <c r="A790" s="1"/>
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="16">
       <c r="A791" s="1"/>
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" ht="16">
       <c r="A792" s="1"/>
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" ht="16">
       <c r="A793" s="1"/>
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" ht="16">
       <c r="A794" s="1"/>
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" ht="16">
       <c r="A795" s="1"/>
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" ht="16">
       <c r="A796" s="1"/>
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" ht="16">
       <c r="A797" s="1"/>
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" ht="16">
       <c r="A798" s="1"/>
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" ht="16">
       <c r="A799" s="1"/>
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" ht="16">
       <c r="A800" s="1"/>
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" ht="16">
       <c r="A801" s="1"/>
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" ht="16">
       <c r="A802" s="1"/>
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" ht="16">
       <c r="A803" s="1"/>
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" ht="16">
       <c r="A804" s="1"/>
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" ht="16">
       <c r="A805" s="1"/>
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" ht="16">
       <c r="A806" s="1"/>
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" ht="16">
       <c r="A807" s="1"/>
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="16">
       <c r="A808" s="1"/>
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="16">
       <c r="A809" s="1"/>
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="16">
       <c r="A810" s="1"/>
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="16">
       <c r="A811" s="1"/>
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" ht="16">
       <c r="A812" s="1"/>
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="16">
       <c r="A813" s="1"/>
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" ht="16">
       <c r="A814" s="1"/>
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="16">
       <c r="A815" s="1"/>
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="16">
       <c r="A816" s="1"/>
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" ht="16">
       <c r="A817" s="1"/>
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" ht="16">
       <c r="A818" s="1"/>
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" ht="16">
       <c r="A819" s="1"/>
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" ht="16">
       <c r="A820" s="1"/>
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="16">
       <c r="A821" s="1"/>
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" ht="16">
       <c r="A822" s="1"/>
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" ht="16">
       <c r="A823" s="1"/>
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" ht="16">
       <c r="A824" s="1"/>
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" ht="16">
       <c r="A825" s="1"/>
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" ht="16">
       <c r="A826" s="1"/>
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" ht="16">
       <c r="A827" s="1"/>
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" ht="16">
       <c r="A828" s="1"/>
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" ht="16">
       <c r="A829" s="1"/>
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" ht="16">
       <c r="A830" s="1"/>
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" ht="16">
       <c r="A831" s="1"/>
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" ht="16">
       <c r="A832" s="1"/>
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" ht="16">
       <c r="A833" s="1"/>
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" ht="16">
       <c r="A834" s="1"/>
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" ht="16">
       <c r="A835" s="1"/>
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" ht="16">
       <c r="A836" s="1"/>
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" ht="16">
       <c r="A837" s="1"/>
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" ht="16">
       <c r="A838" s="1"/>
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" ht="16">
       <c r="A839" s="1"/>
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" ht="16">
       <c r="A840" s="1"/>
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:2" ht="16">
       <c r="A841" s="1"/>
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" ht="16">
       <c r="A842" s="1"/>
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="16">
       <c r="A843" s="1"/>
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" ht="16">
       <c r="A844" s="1"/>
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" ht="16">
       <c r="A845" s="1"/>
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" ht="16">
       <c r="A846" s="1"/>
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" ht="16">
       <c r="A847" s="1"/>
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" ht="16">
       <c r="A848" s="1"/>
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" ht="16">
       <c r="A849" s="1"/>
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" ht="16">
       <c r="A850" s="1"/>
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" ht="16">
       <c r="A851" s="1"/>
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" ht="16">
       <c r="A852" s="1"/>
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" ht="16">
       <c r="A853" s="1"/>
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" ht="16">
       <c r="A854" s="1"/>
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" ht="16">
       <c r="A855" s="1"/>
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" ht="16">
       <c r="A856" s="1"/>
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" ht="16">
       <c r="A857" s="1"/>
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" ht="16">
       <c r="A858" s="1"/>
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" ht="16">
       <c r="A859" s="1"/>
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" ht="16">
       <c r="A860" s="1"/>
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" ht="16">
       <c r="A861" s="1"/>
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" ht="16">
       <c r="A862" s="1"/>
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" ht="16">
       <c r="A863" s="1"/>
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" ht="16">
       <c r="A864" s="1"/>
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" ht="16">
       <c r="A865" s="1"/>
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" ht="16">
       <c r="A866" s="1"/>
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" ht="16">
       <c r="A867" s="1"/>
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" ht="16">
       <c r="A868" s="1"/>
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" ht="16">
       <c r="A869" s="1"/>
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" ht="16">
       <c r="A870" s="1"/>
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" ht="16">
       <c r="A871" s="1"/>
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" ht="16">
       <c r="A872" s="1"/>
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" ht="16">
       <c r="A873" s="1"/>
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" ht="16">
       <c r="A874" s="1"/>
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" ht="16">
       <c r="A875" s="1"/>
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" ht="16">
       <c r="A876" s="1"/>
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" ht="16">
       <c r="A877" s="1"/>
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" ht="16">
       <c r="A878" s="1"/>
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" ht="16">
       <c r="A879" s="1"/>
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" ht="16">
       <c r="A880" s="1"/>
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" ht="16">
       <c r="A881" s="1"/>
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" ht="16">
       <c r="A882" s="1"/>
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" ht="16">
       <c r="A883" s="1"/>
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" ht="16">
       <c r="A884" s="1"/>
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" ht="16">
       <c r="A885" s="1"/>
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" ht="16">
       <c r="A886" s="1"/>
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" ht="16">
       <c r="A887" s="1"/>
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" ht="16">
       <c r="A888" s="1"/>
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" ht="16">
       <c r="A889" s="1"/>
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" ht="16">
       <c r="A890" s="1"/>
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" ht="16">
       <c r="A891" s="1"/>
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" ht="16">
       <c r="A892" s="1"/>
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" ht="16">
       <c r="A893" s="1"/>
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" ht="16">
       <c r="A894" s="1"/>
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" ht="16">
       <c r="A895" s="1"/>
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" ht="16">
       <c r="A896" s="1"/>
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" ht="16">
       <c r="A897" s="1"/>
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" ht="16">
       <c r="A898" s="1"/>
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" ht="16">
       <c r="A899" s="1"/>
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" ht="16">
       <c r="A900" s="1"/>
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" ht="16">
       <c r="A901" s="1"/>
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" ht="16">
       <c r="A902" s="1"/>
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:2" ht="16">
       <c r="A903" s="1"/>
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" ht="16">
       <c r="A904" s="1"/>
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" ht="16">
       <c r="A905" s="1"/>
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" ht="16">
       <c r="A906" s="1"/>
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" ht="16">
       <c r="A907" s="1"/>
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" ht="16">
       <c r="A908" s="1"/>
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" ht="16">
       <c r="A909" s="1"/>
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" ht="16">
       <c r="A910" s="1"/>
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" ht="16">
       <c r="A911" s="1"/>
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" ht="16">
       <c r="A912" s="1"/>
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" ht="16">
       <c r="A913" s="1"/>
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:2" ht="16">
       <c r="A914" s="1"/>
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="16">
       <c r="A915" s="1"/>
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="16">
       <c r="A916" s="1"/>
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="16">
       <c r="A917" s="1"/>
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="16">
       <c r="A918" s="1"/>
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="16">
       <c r="A919" s="1"/>
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="16">
       <c r="A920" s="1"/>
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="16">
       <c r="A921" s="1"/>
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="16">
       <c r="A922" s="1"/>
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="16">
       <c r="A923" s="1"/>
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="16">
       <c r="A924" s="1"/>
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" ht="16">
       <c r="A925" s="1"/>
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" ht="16">
       <c r="A926" s="1"/>
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" ht="16">
       <c r="A927" s="1"/>
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" ht="16">
       <c r="A928" s="1"/>
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:2" ht="16">
       <c r="A929" s="1"/>
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:2" ht="16">
       <c r="A930" s="1"/>
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:2" ht="16">
       <c r="A931" s="1"/>
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:2" ht="16">
       <c r="A932" s="1"/>
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:2" ht="16">
       <c r="A933" s="1"/>
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" ht="16">
       <c r="A934" s="1"/>
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" ht="16">
       <c r="A935" s="1"/>
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" ht="16">
       <c r="A936" s="1"/>
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" ht="16">
       <c r="A937" s="1"/>
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" ht="16">
       <c r="A938" s="1"/>
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" ht="16">
       <c r="A939" s="1"/>
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" ht="16">
       <c r="A940" s="1"/>
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" ht="16">
       <c r="A941" s="1"/>
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" ht="16">
       <c r="A942" s="1"/>
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" ht="16">
       <c r="A943" s="1"/>
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" ht="16">
       <c r="A944" s="1"/>
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="16">
       <c r="A945" s="1"/>
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" ht="16">
       <c r="A946" s="1"/>
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="16">
       <c r="A947" s="1"/>
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" ht="16">
       <c r="A948" s="1"/>
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" ht="16">
       <c r="A949" s="1"/>
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" ht="16">
       <c r="A950" s="1"/>
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" ht="16">
       <c r="A951" s="1"/>
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" ht="16">
       <c r="A952" s="1"/>
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" ht="16">
       <c r="A953" s="1"/>
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" ht="16">
       <c r="A954" s="1"/>
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:2" ht="16">
       <c r="A955" s="1"/>
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" ht="16">
       <c r="A956" s="1"/>
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="16">
       <c r="A957" s="1"/>
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:2" ht="16">
       <c r="A958" s="1"/>
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:2" ht="16">
       <c r="A959" s="1"/>
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:2" ht="16">
       <c r="A960" s="1"/>
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:2" ht="16">
       <c r="A961" s="1"/>
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:2" ht="16">
       <c r="A962" s="1"/>
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" ht="16">
       <c r="A963" s="1"/>
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:2" ht="16">
       <c r="A964" s="1"/>
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:2" ht="16">
       <c r="A965" s="1"/>
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:2" ht="16">
       <c r="A966" s="1"/>
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:2" ht="16">
       <c r="A967" s="1"/>
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:2" ht="16">
       <c r="A968" s="1"/>
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:2" ht="16">
       <c r="A969" s="1"/>
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:2" ht="16">
       <c r="A970" s="1"/>
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:2" ht="16">
       <c r="A971" s="1"/>
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:2" ht="16">
       <c r="A972" s="1"/>
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:2" ht="16">
       <c r="A973" s="1"/>
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:2" ht="16">
       <c r="A974" s="1"/>
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:2" ht="16">
       <c r="A975" s="1"/>
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:2" ht="16">
       <c r="A976" s="1"/>
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:2" ht="16">
       <c r="A977" s="1"/>
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:2" ht="16">
       <c r="A978" s="1"/>
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:2" ht="16">
       <c r="A979" s="1"/>
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:2" ht="16">
       <c r="A980" s="1"/>
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:2" ht="16">
       <c r="A981" s="1"/>
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:2" ht="16">
       <c r="A982" s="1"/>
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:2" ht="16">
       <c r="A983" s="1"/>
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:2" ht="16">
       <c r="A984" s="1"/>
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:2" ht="16">
       <c r="A985" s="1"/>
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:2" ht="16">
       <c r="A986" s="1"/>
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:2" ht="16">
       <c r="A987" s="1"/>
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:2" ht="16">
       <c r="A988" s="1"/>
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:2" ht="16">
       <c r="A989" s="1"/>
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:2" ht="16">
       <c r="A990" s="1"/>
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:2" ht="16">
       <c r="A991" s="1"/>
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:2" ht="16">
       <c r="A992" s="1"/>
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:2" ht="16">
       <c r="A993" s="1"/>
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:2" ht="16">
       <c r="A994" s="1"/>
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:2" ht="16">
       <c r="A995" s="1"/>
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:2" ht="16">
       <c r="A996" s="1"/>
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:2" ht="16">
       <c r="A997" s="1"/>
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:2" ht="16">
       <c r="A998" s="1"/>
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:2" ht="16">
       <c r="A999" s="1"/>
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:2" ht="16">
       <c r="A1000" s="1"/>
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:2" ht="16">
       <c r="A1001" s="1"/>
       <c r="B1001" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/project-g5t7/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC259E-8661-8F4E-82B2-E56693FD6698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3950D-2596-6341-8490-EDD84843F573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Identify critical path of schedule and update google sheet</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn (Work on Student.csv validation and Course.csv validation)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Ling (Work on Student.csv validation and Course.csv validation)</t>
+  </si>
+  <si>
+    <t>Uncertain as to how to validate date and time format</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -656,7 +665,9 @@
       <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1">
       <c r="A4" s="11"/>
@@ -681,7 +692,9 @@
       <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="11"/>
@@ -706,7 +719,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1">
       <c r="A6" s="10" t="s">
@@ -733,7 +748,9 @@
       <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="11"/>
@@ -758,7 +775,9 @@
       <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="11"/>
@@ -783,7 +802,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -810,7 +831,9 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="11"/>
@@ -835,7 +858,9 @@
       <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="11"/>
@@ -860,7 +885,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -887,7 +914,9 @@
       <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="11"/>
@@ -912,7 +941,9 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -937,7 +968,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="12" t="s">
@@ -964,7 +997,9 @@
       <c r="H15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="11"/>
@@ -989,7 +1024,9 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="11"/>
@@ -1014,7 +1051,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/project-g5t7/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3950D-2596-6341-8490-EDD84843F573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC259E-8661-8F4E-82B2-E56693FD6698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t>Identify critical path of schedule and update google sheet</t>
-  </si>
-  <si>
-    <t>Pair Programme with Geralyn (Work on Student.csv validation and Course.csv validation)</t>
-  </si>
-  <si>
-    <t>Pair Programme with Wei Ling (Work on Student.csv validation and Course.csv validation)</t>
-  </si>
-  <si>
-    <t>Uncertain as to how to validate date and time format</t>
   </si>
 </sst>
 </file>
@@ -550,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -665,9 +656,7 @@
       <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1">
       <c r="A4" s="11"/>
@@ -692,9 +681,7 @@
       <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="11"/>
@@ -719,9 +706,7 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1">
       <c r="A6" s="10" t="s">
@@ -748,9 +733,7 @@
       <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="11"/>
@@ -775,9 +758,7 @@
       <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="11"/>
@@ -802,9 +783,7 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -831,9 +810,7 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="11"/>
@@ -858,9 +835,7 @@
       <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="11"/>
@@ -885,9 +860,7 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -914,9 +887,7 @@
       <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="11"/>
@@ -941,9 +912,7 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -968,9 +937,7 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="12" t="s">
@@ -997,9 +964,7 @@
       <c r="H15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="11"/>
@@ -1024,9 +989,7 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="11"/>
@@ -1051,9 +1014,7 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limjiayu/Documents/GitHub/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC259E-8661-8F4E-82B2-E56693FD6698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC442FD5-263F-E14A-BB67-6A979FB3CC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -144,12 +144,24 @@
   <si>
     <t>Identify critical path of schedule and update google sheet</t>
   </si>
+  <si>
+    <t>Pair Programme with Geralyn (Work on Student.csv validation and Course.csv validation)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Ling (Work on Student.csv validation and Course.csv validation)</t>
+  </si>
+  <si>
+    <t>Uncertain as to how to validate date and time format</t>
+  </si>
+  <si>
+    <t>Week: 23 Sep to 29 Sep</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -541,10 +553,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
@@ -553,9 +565,10 @@
     <col min="5" max="5" width="31" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" style="5" customWidth="1"/>
     <col min="7" max="9" width="29.1640625" style="5" customWidth="1"/>
+    <col min="10" max="67" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -571,13 +584,15 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -589,7 +604,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="6" t="s">
@@ -613,13 +628,27 @@
       <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -631,7 +660,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1">
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -656,9 +685,18 @@
       <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1">
+      <c r="I3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -681,9 +719,18 @@
       <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -706,9 +753,18 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1">
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -733,9 +789,18 @@
       <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -758,9 +823,18 @@
       <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -783,9 +857,18 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1">
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -810,9 +893,18 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -835,9 +927,18 @@
       <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -860,9 +961,18 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1">
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -887,9 +997,18 @@
       <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -912,9 +1031,18 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -937,9 +1065,18 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1">
+      <c r="I14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -964,9 +1101,18 @@
       <c r="H15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1">
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -989,9 +1135,18 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1">
+      <c r="I16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1014,3946 +1169,3956 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16">
+      <c r="I17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16">
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="16">
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="16">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="16">
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="16">
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="16">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="16">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="16">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="16">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="16">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" ht="16">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" ht="16">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" ht="16">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" ht="16">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" ht="16">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" ht="16">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" ht="16">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" ht="16">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" ht="16">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" ht="16">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" ht="16">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="16">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" ht="16">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" ht="16">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" ht="16">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" ht="16">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="16">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="16">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" ht="16">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" ht="16">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" ht="16">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" ht="16">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" ht="16">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" ht="16">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" ht="16">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" ht="16">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" ht="16">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="16">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" ht="16">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="16">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" ht="16">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" ht="16">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" ht="16">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" ht="16">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" ht="16">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" ht="16">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" ht="16">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" ht="16">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" ht="16">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" ht="16">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" ht="16">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" ht="16">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" ht="16">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" ht="16">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" ht="16">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" ht="16">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" ht="16">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" ht="16">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" ht="16">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" ht="16">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" ht="16">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" ht="16">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" ht="16">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" ht="16">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="16">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="16">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" ht="16">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" ht="16">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" ht="16">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" ht="16">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" ht="16">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" ht="16">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" ht="16">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" ht="16">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" ht="16">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="16">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" ht="16">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" ht="16">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" ht="16">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" ht="16">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" ht="16">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" ht="16">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" ht="16">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" ht="16">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" ht="16">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" ht="16">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" ht="16">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" ht="16">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" ht="16">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" ht="16">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:2" ht="16">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:2" ht="16">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:2" ht="16">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:2" ht="16">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" ht="16">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:2" ht="16">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:2" ht="16">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:2" ht="16">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:2" ht="16">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" ht="16">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:2" ht="16">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="1:2" ht="16">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:2" ht="16">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:2" ht="16">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="1:2" ht="16">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" ht="16">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="1:2" ht="16">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="1:2" ht="16">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="1:2" ht="16">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="1:2" ht="16">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:2" ht="16">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" ht="16">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="1:2" ht="16">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="1:2" ht="16">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="1:2" ht="16">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="1:2" ht="16">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:2" ht="16">
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:2" ht="16">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="1:2" ht="16">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="1:2" ht="16">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" ht="16">
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:2" ht="16">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:2" ht="16">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:2" ht="16">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="1:2" ht="16">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="1:2" ht="16">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:2" ht="16">
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:2" ht="16">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" ht="16">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" ht="16">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:2" ht="16">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" ht="16">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" ht="16">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" ht="16">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" ht="16">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" ht="16">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" ht="16">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" ht="16">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" ht="16">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" ht="16">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" ht="16">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" ht="16">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" ht="16">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" ht="16">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" ht="16">
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" ht="16">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" ht="16">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" ht="16">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" ht="16">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" ht="16">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" ht="16">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" ht="16">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" ht="16">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" ht="16">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" ht="16">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" ht="16">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" ht="16">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2" ht="16">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="1:2" ht="16">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2" ht="16">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="1:2" ht="16">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2" ht="16">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:2" ht="16">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2" ht="16">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:2" ht="16">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2" ht="16">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="1:2" ht="16">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2" ht="16">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="1:2" ht="16">
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" ht="16">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2" ht="16">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2" ht="16">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:2" ht="16">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" ht="16">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="1:2" ht="16">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="1:2" ht="16">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="1:2" ht="16">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="1:2" ht="16">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:2" ht="16">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" ht="16">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:2" ht="16">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="1:2" ht="16">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="1:2" ht="16">
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="1:2" ht="16">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="1:2" ht="16">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="1:2" ht="16">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="1:2" ht="16">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:2" ht="16">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:2" ht="16">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="1:2" ht="16">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="1:2" ht="16">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="1:2" ht="16">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="1:2" ht="16">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:2" ht="16">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="1:2" ht="16">
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:2" ht="16">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:2" ht="16">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="1:2" ht="16">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="1:2" ht="16">
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="1:2" ht="16">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="1:2" ht="16">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2" ht="16">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="1:2" ht="16">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="1:2" ht="16">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:2" ht="16">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2" ht="16">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="1:2" ht="16">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="1:2" ht="16">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:2" ht="16">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:2" ht="16">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="1:2" ht="16">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="1:2" ht="16">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:2" ht="16">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:2" ht="16">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="1:2" ht="16">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2" ht="16">
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="1:2" ht="16">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="1:2" ht="16">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="1:2" ht="16">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="1:2" ht="16">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:2" ht="16">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2" ht="16">
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="1:2" ht="16">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2" ht="16">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:2" ht="16">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:2" ht="16">
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="1:2" ht="16">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2" ht="16">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="1:2" ht="16">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:2" ht="16">
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="1:2" ht="16">
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:2" ht="16">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="1:2" ht="16">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="1:2" ht="16">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="1:2" ht="16">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="1:2" ht="16">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="1:2" ht="16">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:2" ht="16">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="1:2" ht="16">
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:2" ht="16">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:2" ht="16">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2" ht="16">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="1:2" ht="16">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="1:2" ht="16">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="1:2" ht="16">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:2" ht="16">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:2" ht="16">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="1:2" ht="16">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="1:2" ht="16">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="1:2" ht="16">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="1:2" ht="16">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="1:2" ht="16">
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="1:2" ht="16">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:2" ht="16">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="1:2" ht="16">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:2" ht="16">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="1:2" ht="16">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="1:2" ht="16">
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="1:2" ht="16">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="1:2" ht="16">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="1:2" ht="16">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="1:2" ht="16">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:2" ht="16">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="1:2" ht="16">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="1:2" ht="16">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="1:2" ht="16">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="1:2" ht="16">
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="1:2" ht="16">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="1:2" ht="16">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="1:2" ht="16">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:2" ht="16">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="1:2" ht="16">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="1:2" ht="16">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="1:2" ht="16">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="1:2" ht="16">
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="1:2" ht="16">
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="1:2" ht="16">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="1:2" ht="16">
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:2" ht="16">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2" ht="16">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="1:2" ht="16">
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="1:2" ht="16">
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="1:2" ht="16">
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="1:2" ht="16">
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="1:2" ht="16">
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="1:2" ht="16">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="1:2" ht="16">
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="1:2" ht="16">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="1:2" ht="16">
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="1:2" ht="16">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="4"/>
     </row>
-    <row r="315" spans="1:2" ht="16">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="4"/>
     </row>
-    <row r="316" spans="1:2" ht="16">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="4"/>
     </row>
-    <row r="317" spans="1:2" ht="16">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="4"/>
     </row>
-    <row r="318" spans="1:2" ht="16">
+    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="1:2" ht="16">
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="1:2" ht="16">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="4"/>
     </row>
-    <row r="321" spans="1:2" ht="16">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="4"/>
     </row>
-    <row r="322" spans="1:2" ht="16">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="4"/>
     </row>
-    <row r="323" spans="1:2" ht="16">
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="4"/>
     </row>
-    <row r="324" spans="1:2" ht="16">
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="4"/>
     </row>
-    <row r="325" spans="1:2" ht="16">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="4"/>
     </row>
-    <row r="326" spans="1:2" ht="16">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="4"/>
     </row>
-    <row r="327" spans="1:2" ht="16">
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
     </row>
-    <row r="328" spans="1:2" ht="16">
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
     </row>
-    <row r="329" spans="1:2" ht="16">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="4"/>
     </row>
-    <row r="330" spans="1:2" ht="16">
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="4"/>
     </row>
-    <row r="331" spans="1:2" ht="16">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="4"/>
     </row>
-    <row r="332" spans="1:2" ht="16">
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="4"/>
     </row>
-    <row r="333" spans="1:2" ht="16">
+    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="4"/>
     </row>
-    <row r="334" spans="1:2" ht="16">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="1:2" ht="16">
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="1:2" ht="16">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="4"/>
     </row>
-    <row r="337" spans="1:2" ht="16">
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="1:2" ht="16">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="4"/>
     </row>
-    <row r="339" spans="1:2" ht="16">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="4"/>
     </row>
-    <row r="340" spans="1:2" ht="16">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="4"/>
     </row>
-    <row r="341" spans="1:2" ht="16">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="1:2" ht="16">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="4"/>
     </row>
-    <row r="343" spans="1:2" ht="16">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="4"/>
     </row>
-    <row r="344" spans="1:2" ht="16">
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="1:2" ht="16">
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="4"/>
     </row>
-    <row r="346" spans="1:2" ht="16">
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="1:2" ht="16">
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="1:2" ht="16">
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="1:2" ht="16">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="1:2" ht="16">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="1:2" ht="16">
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:2" ht="16">
+    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="1:2" ht="16">
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="1:2" ht="16">
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="1:2" ht="16">
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="1:2" ht="16">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:2" ht="16">
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:2" ht="16">
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="1:2" ht="16">
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:2" ht="16">
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="1:2" ht="16">
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="1:2" ht="16">
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="1:2" ht="16">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="1:2" ht="16">
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="1:2" ht="16">
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="1:2" ht="16">
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="1:2" ht="16">
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="1:2" ht="16">
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="1:2" ht="16">
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:2" ht="16">
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="1:2" ht="16">
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:2" ht="16">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:2" ht="16">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="1:2" ht="16">
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:2" ht="16">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:2" ht="16">
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:2" ht="16">
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:2" ht="16">
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="1:2" ht="16">
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="1:2" ht="16">
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:2" ht="16">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="1:2" ht="16">
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="1:2" ht="16">
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="1:2" ht="16">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="1:2" ht="16">
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="1:2" ht="16">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="1:2" ht="16">
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="1:2" ht="16">
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="1:2" ht="16">
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="1:2" ht="16">
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="1:2" ht="16">
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="1:2" ht="16">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="1:2" ht="16">
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="1:2" ht="16">
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="1:2" ht="16">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="1:2" ht="16">
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:2" ht="16">
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:2" ht="16">
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:2" ht="16">
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:2" ht="16">
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:2" ht="16">
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:2" ht="16">
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:2" ht="16">
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:2" ht="16">
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:2" ht="16">
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="1:2" ht="16">
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="1:2" ht="16">
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="1:2" ht="16">
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="1:2" ht="16">
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="1:2" ht="16">
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="1:2" ht="16">
+    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="1:2" ht="16">
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="1:2" ht="16">
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="1:2" ht="16">
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="1:2" ht="16">
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="4"/>
     </row>
-    <row r="416" spans="1:2" ht="16">
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" ht="16">
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="16">
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" ht="16">
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" ht="16">
+    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" ht="16">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" ht="16">
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" ht="16">
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" ht="16">
+    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" ht="16">
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="4"/>
     </row>
-    <row r="426" spans="1:2" ht="16">
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="4"/>
     </row>
-    <row r="427" spans="1:2" ht="16">
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="1:2" ht="16">
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="4"/>
     </row>
-    <row r="429" spans="1:2" ht="16">
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="1:2" ht="16">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="4"/>
     </row>
-    <row r="431" spans="1:2" ht="16">
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="4"/>
     </row>
-    <row r="432" spans="1:2" ht="16">
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="4"/>
     </row>
-    <row r="433" spans="1:2" ht="16">
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="1:2" ht="16">
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="4"/>
     </row>
-    <row r="435" spans="1:2" ht="16">
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="4"/>
     </row>
-    <row r="436" spans="1:2" ht="16">
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:2" ht="16">
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:2" ht="16">
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:2" ht="16">
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:2" ht="16">
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:2" ht="16">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:2" ht="16">
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:2" ht="16">
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:2" ht="16">
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:2" ht="16">
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="1:2" ht="16">
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="4"/>
     </row>
-    <row r="447" spans="1:2" ht="16">
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="4"/>
     </row>
-    <row r="448" spans="1:2" ht="16">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="4"/>
     </row>
-    <row r="449" spans="1:2" ht="16">
+    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="1:2" ht="16">
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="4"/>
     </row>
-    <row r="451" spans="1:2" ht="16">
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="4"/>
     </row>
-    <row r="452" spans="1:2" ht="16">
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="4"/>
     </row>
-    <row r="453" spans="1:2" ht="16">
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="4"/>
     </row>
-    <row r="454" spans="1:2" ht="16">
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="4"/>
     </row>
-    <row r="455" spans="1:2" ht="16">
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="4"/>
     </row>
-    <row r="456" spans="1:2" ht="16">
+    <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:2" ht="16">
+    <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:2" ht="16">
+    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:2" ht="16">
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:2" ht="16">
+    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:2" ht="16">
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:2" ht="16">
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:2" ht="16">
+    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="4"/>
     </row>
-    <row r="464" spans="1:2" ht="16">
+    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="4"/>
     </row>
-    <row r="465" spans="1:2" ht="16">
+    <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="4"/>
     </row>
-    <row r="466" spans="1:2" ht="16">
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="4"/>
     </row>
-    <row r="467" spans="1:2" ht="16">
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="4"/>
     </row>
-    <row r="468" spans="1:2" ht="16">
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="4"/>
     </row>
-    <row r="469" spans="1:2" ht="16">
+    <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="4"/>
     </row>
-    <row r="470" spans="1:2" ht="16">
+    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="4"/>
     </row>
-    <row r="471" spans="1:2" ht="16">
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="4"/>
     </row>
-    <row r="472" spans="1:2" ht="16">
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="1:2" ht="16">
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="4"/>
     </row>
-    <row r="474" spans="1:2" ht="16">
+    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="4"/>
     </row>
-    <row r="475" spans="1:2" ht="16">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="4"/>
     </row>
-    <row r="476" spans="1:2" ht="16">
+    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="4"/>
     </row>
-    <row r="477" spans="1:2" ht="16">
+    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="4"/>
     </row>
-    <row r="478" spans="1:2" ht="16">
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="4"/>
     </row>
-    <row r="479" spans="1:2" ht="16">
+    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="1:2" ht="16">
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="4"/>
     </row>
-    <row r="481" spans="1:2" ht="16">
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="4"/>
     </row>
-    <row r="482" spans="1:2" ht="16">
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="4"/>
     </row>
-    <row r="483" spans="1:2" ht="16">
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="4"/>
     </row>
-    <row r="484" spans="1:2" ht="16">
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="4"/>
     </row>
-    <row r="485" spans="1:2" ht="16">
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="4"/>
     </row>
-    <row r="486" spans="1:2" ht="16">
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="4"/>
     </row>
-    <row r="487" spans="1:2" ht="16">
+    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="4"/>
     </row>
-    <row r="488" spans="1:2" ht="16">
+    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="4"/>
     </row>
-    <row r="489" spans="1:2" ht="16">
+    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="4"/>
     </row>
-    <row r="490" spans="1:2" ht="16">
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="4"/>
     </row>
-    <row r="491" spans="1:2" ht="16">
+    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="4"/>
     </row>
-    <row r="492" spans="1:2" ht="16">
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="4"/>
     </row>
-    <row r="493" spans="1:2" ht="16">
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="4"/>
     </row>
-    <row r="494" spans="1:2" ht="16">
+    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="4"/>
     </row>
-    <row r="495" spans="1:2" ht="16">
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="4"/>
     </row>
-    <row r="496" spans="1:2" ht="16">
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="4"/>
     </row>
-    <row r="497" spans="1:2" ht="16">
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="4"/>
     </row>
-    <row r="498" spans="1:2" ht="16">
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="4"/>
     </row>
-    <row r="499" spans="1:2" ht="16">
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="4"/>
     </row>
-    <row r="500" spans="1:2" ht="16">
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="4"/>
     </row>
-    <row r="501" spans="1:2" ht="16">
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="1:2" ht="16">
+    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="4"/>
     </row>
-    <row r="503" spans="1:2" ht="16">
+    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="4"/>
     </row>
-    <row r="504" spans="1:2" ht="16">
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="4"/>
     </row>
-    <row r="505" spans="1:2" ht="16">
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="4"/>
     </row>
-    <row r="506" spans="1:2" ht="16">
+    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="4"/>
     </row>
-    <row r="507" spans="1:2" ht="16">
+    <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="4"/>
     </row>
-    <row r="508" spans="1:2" ht="16">
+    <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="1:2" ht="16">
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="4"/>
     </row>
-    <row r="510" spans="1:2" ht="16">
+    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="4"/>
     </row>
-    <row r="511" spans="1:2" ht="16">
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="4"/>
     </row>
-    <row r="512" spans="1:2" ht="16">
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="4"/>
     </row>
-    <row r="513" spans="1:2" ht="16">
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="4"/>
     </row>
-    <row r="514" spans="1:2" ht="16">
+    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="4"/>
     </row>
-    <row r="515" spans="1:2" ht="16">
+    <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="1:2" ht="16">
+    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="1:2" ht="16">
+    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="1:2" ht="16">
+    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="1:2" ht="16">
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="1:2" ht="16">
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="1:2" ht="16">
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="1:2" ht="16">
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="4"/>
     </row>
-    <row r="523" spans="1:2" ht="16">
+    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="4"/>
     </row>
-    <row r="524" spans="1:2" ht="16">
+    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="4"/>
     </row>
-    <row r="525" spans="1:2" ht="16">
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="1:2" ht="16">
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="4"/>
     </row>
-    <row r="527" spans="1:2" ht="16">
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="4"/>
     </row>
-    <row r="528" spans="1:2" ht="16">
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="4"/>
     </row>
-    <row r="529" spans="1:2" ht="16">
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="4"/>
     </row>
-    <row r="530" spans="1:2" ht="16">
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="4"/>
     </row>
-    <row r="531" spans="1:2" ht="16">
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="4"/>
     </row>
-    <row r="532" spans="1:2" ht="16">
+    <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="4"/>
     </row>
-    <row r="533" spans="1:2" ht="16">
+    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="4"/>
     </row>
-    <row r="534" spans="1:2" ht="16">
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="4"/>
     </row>
-    <row r="535" spans="1:2" ht="16">
+    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="4"/>
     </row>
-    <row r="536" spans="1:2" ht="16">
+    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="4"/>
     </row>
-    <row r="537" spans="1:2" ht="16">
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="4"/>
     </row>
-    <row r="538" spans="1:2" ht="16">
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="4"/>
     </row>
-    <row r="539" spans="1:2" ht="16">
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="4"/>
     </row>
-    <row r="540" spans="1:2" ht="16">
+    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="4"/>
     </row>
-    <row r="541" spans="1:2" ht="16">
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="4"/>
     </row>
-    <row r="542" spans="1:2" ht="16">
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="4"/>
     </row>
-    <row r="543" spans="1:2" ht="16">
+    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="4"/>
     </row>
-    <row r="544" spans="1:2" ht="16">
+    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="4"/>
     </row>
-    <row r="545" spans="1:2" ht="16">
+    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="4"/>
     </row>
-    <row r="546" spans="1:2" ht="16">
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="4"/>
     </row>
-    <row r="547" spans="1:2" ht="16">
+    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="4"/>
     </row>
-    <row r="548" spans="1:2" ht="16">
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="4"/>
     </row>
-    <row r="549" spans="1:2" ht="16">
+    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="4"/>
     </row>
-    <row r="550" spans="1:2" ht="16">
+    <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="4"/>
     </row>
-    <row r="551" spans="1:2" ht="16">
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="4"/>
     </row>
-    <row r="552" spans="1:2" ht="16">
+    <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="4"/>
     </row>
-    <row r="553" spans="1:2" ht="16">
+    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="4"/>
     </row>
-    <row r="554" spans="1:2" ht="16">
+    <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="4"/>
     </row>
-    <row r="555" spans="1:2" ht="16">
+    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="4"/>
     </row>
-    <row r="556" spans="1:2" ht="16">
+    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="4"/>
     </row>
-    <row r="557" spans="1:2" ht="16">
+    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="4"/>
     </row>
-    <row r="558" spans="1:2" ht="16">
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="4"/>
     </row>
-    <row r="559" spans="1:2" ht="16">
+    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="4"/>
     </row>
-    <row r="560" spans="1:2" ht="16">
+    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="16">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="4"/>
     </row>
-    <row r="562" spans="1:2" ht="16">
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="4"/>
     </row>
-    <row r="563" spans="1:2" ht="16">
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="4"/>
     </row>
-    <row r="564" spans="1:2" ht="16">
+    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="4"/>
     </row>
-    <row r="565" spans="1:2" ht="16">
+    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="4"/>
     </row>
-    <row r="566" spans="1:2" ht="16">
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="4"/>
     </row>
-    <row r="567" spans="1:2" ht="16">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="4"/>
     </row>
-    <row r="568" spans="1:2" ht="16">
+    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="4"/>
     </row>
-    <row r="569" spans="1:2" ht="16">
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="4"/>
     </row>
-    <row r="570" spans="1:2" ht="16">
+    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="4"/>
     </row>
-    <row r="571" spans="1:2" ht="16">
+    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="4"/>
     </row>
-    <row r="572" spans="1:2" ht="16">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="4"/>
     </row>
-    <row r="573" spans="1:2" ht="16">
+    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="4"/>
     </row>
-    <row r="574" spans="1:2" ht="16">
+    <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="4"/>
     </row>
-    <row r="575" spans="1:2" ht="16">
+    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="4"/>
     </row>
-    <row r="576" spans="1:2" ht="16">
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="4"/>
     </row>
-    <row r="577" spans="1:2" ht="16">
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="4"/>
     </row>
-    <row r="578" spans="1:2" ht="16">
+    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="4"/>
     </row>
-    <row r="579" spans="1:2" ht="16">
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="4"/>
     </row>
-    <row r="580" spans="1:2" ht="16">
+    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="4"/>
     </row>
-    <row r="581" spans="1:2" ht="16">
+    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="4"/>
     </row>
-    <row r="582" spans="1:2" ht="16">
+    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="4"/>
     </row>
-    <row r="583" spans="1:2" ht="16">
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="4"/>
     </row>
-    <row r="584" spans="1:2" ht="16">
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="4"/>
     </row>
-    <row r="585" spans="1:2" ht="16">
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="4"/>
     </row>
-    <row r="586" spans="1:2" ht="16">
+    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="4"/>
     </row>
-    <row r="587" spans="1:2" ht="16">
+    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="4"/>
     </row>
-    <row r="588" spans="1:2" ht="16">
+    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="4"/>
     </row>
-    <row r="589" spans="1:2" ht="16">
+    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="4"/>
     </row>
-    <row r="590" spans="1:2" ht="16">
+    <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="4"/>
     </row>
-    <row r="591" spans="1:2" ht="16">
+    <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="4"/>
     </row>
-    <row r="592" spans="1:2" ht="16">
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="4"/>
     </row>
-    <row r="593" spans="1:2" ht="16">
+    <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="4"/>
     </row>
-    <row r="594" spans="1:2" ht="16">
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="4"/>
     </row>
-    <row r="595" spans="1:2" ht="16">
+    <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="4"/>
     </row>
-    <row r="596" spans="1:2" ht="16">
+    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="4"/>
     </row>
-    <row r="597" spans="1:2" ht="16">
+    <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="4"/>
     </row>
-    <row r="598" spans="1:2" ht="16">
+    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="4"/>
     </row>
-    <row r="599" spans="1:2" ht="16">
+    <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="4"/>
     </row>
-    <row r="600" spans="1:2" ht="16">
+    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="4"/>
     </row>
-    <row r="601" spans="1:2" ht="16">
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="4"/>
     </row>
-    <row r="602" spans="1:2" ht="16">
+    <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="4"/>
     </row>
-    <row r="603" spans="1:2" ht="16">
+    <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="4"/>
     </row>
-    <row r="604" spans="1:2" ht="16">
+    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="4"/>
     </row>
-    <row r="605" spans="1:2" ht="16">
+    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="4"/>
     </row>
-    <row r="606" spans="1:2" ht="16">
+    <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="4"/>
     </row>
-    <row r="607" spans="1:2" ht="16">
+    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="4"/>
     </row>
-    <row r="608" spans="1:2" ht="16">
+    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="4"/>
     </row>
-    <row r="609" spans="1:2" ht="16">
+    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="4"/>
     </row>
-    <row r="610" spans="1:2" ht="16">
+    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="4"/>
     </row>
-    <row r="611" spans="1:2" ht="16">
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="4"/>
     </row>
-    <row r="612" spans="1:2" ht="16">
+    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="1:2" ht="16">
+    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="1:2" ht="16">
+    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="4"/>
     </row>
-    <row r="615" spans="1:2" ht="16">
+    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="4"/>
     </row>
-    <row r="616" spans="1:2" ht="16">
+    <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="4"/>
     </row>
-    <row r="617" spans="1:2" ht="16">
+    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="4"/>
     </row>
-    <row r="618" spans="1:2" ht="16">
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="4"/>
     </row>
-    <row r="619" spans="1:2" ht="16">
+    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="4"/>
     </row>
-    <row r="620" spans="1:2" ht="16">
+    <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="4"/>
     </row>
-    <row r="621" spans="1:2" ht="16">
+    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="4"/>
     </row>
-    <row r="622" spans="1:2" ht="16">
+    <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="4"/>
     </row>
-    <row r="623" spans="1:2" ht="16">
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="4"/>
     </row>
-    <row r="624" spans="1:2" ht="16">
+    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="4"/>
     </row>
-    <row r="625" spans="1:2" ht="16">
+    <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="4"/>
     </row>
-    <row r="626" spans="1:2" ht="16">
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="4"/>
     </row>
-    <row r="627" spans="1:2" ht="16">
+    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="4"/>
     </row>
-    <row r="628" spans="1:2" ht="16">
+    <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="4"/>
     </row>
-    <row r="629" spans="1:2" ht="16">
+    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="4"/>
     </row>
-    <row r="630" spans="1:2" ht="16">
+    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="4"/>
     </row>
-    <row r="631" spans="1:2" ht="16">
+    <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="4"/>
     </row>
-    <row r="632" spans="1:2" ht="16">
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="4"/>
     </row>
-    <row r="633" spans="1:2" ht="16">
+    <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="4"/>
     </row>
-    <row r="634" spans="1:2" ht="16">
+    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="4"/>
     </row>
-    <row r="635" spans="1:2" ht="16">
+    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="4"/>
     </row>
-    <row r="636" spans="1:2" ht="16">
+    <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="4"/>
     </row>
-    <row r="637" spans="1:2" ht="16">
+    <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="4"/>
     </row>
-    <row r="638" spans="1:2" ht="16">
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="4"/>
     </row>
-    <row r="639" spans="1:2" ht="16">
+    <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="4"/>
     </row>
-    <row r="640" spans="1:2" ht="16">
+    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="4"/>
     </row>
-    <row r="641" spans="1:2" ht="16">
+    <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="4"/>
     </row>
-    <row r="642" spans="1:2" ht="16">
+    <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="4"/>
     </row>
-    <row r="643" spans="1:2" ht="16">
+    <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="4"/>
     </row>
-    <row r="644" spans="1:2" ht="16">
+    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="4"/>
     </row>
-    <row r="645" spans="1:2" ht="16">
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="1:2" ht="16">
+    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="4"/>
     </row>
-    <row r="647" spans="1:2" ht="16">
+    <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="4"/>
     </row>
-    <row r="648" spans="1:2" ht="16">
+    <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="4"/>
     </row>
-    <row r="649" spans="1:2" ht="16">
+    <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="4"/>
     </row>
-    <row r="650" spans="1:2" ht="16">
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="4"/>
     </row>
-    <row r="651" spans="1:2" ht="16">
+    <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="4"/>
     </row>
-    <row r="652" spans="1:2" ht="16">
+    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="4"/>
     </row>
-    <row r="653" spans="1:2" ht="16">
+    <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="4"/>
     </row>
-    <row r="654" spans="1:2" ht="16">
+    <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="4"/>
     </row>
-    <row r="655" spans="1:2" ht="16">
+    <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="4"/>
     </row>
-    <row r="656" spans="1:2" ht="16">
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="4"/>
     </row>
-    <row r="657" spans="1:2" ht="16">
+    <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="4"/>
     </row>
-    <row r="658" spans="1:2" ht="16">
+    <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="4"/>
     </row>
-    <row r="659" spans="1:2" ht="16">
+    <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="4"/>
     </row>
-    <row r="660" spans="1:2" ht="16">
+    <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="4"/>
     </row>
-    <row r="661" spans="1:2" ht="16">
+    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="4"/>
     </row>
-    <row r="662" spans="1:2" ht="16">
+    <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="4"/>
     </row>
-    <row r="663" spans="1:2" ht="16">
+    <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="4"/>
     </row>
-    <row r="664" spans="1:2" ht="16">
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="4"/>
     </row>
-    <row r="665" spans="1:2" ht="16">
+    <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="1:2" ht="16">
+    <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="4"/>
     </row>
-    <row r="667" spans="1:2" ht="16">
+    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="4"/>
     </row>
-    <row r="668" spans="1:2" ht="16">
+    <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="4"/>
     </row>
-    <row r="669" spans="1:2" ht="16">
+    <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="4"/>
     </row>
-    <row r="670" spans="1:2" ht="16">
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="4"/>
     </row>
-    <row r="671" spans="1:2" ht="16">
+    <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="4"/>
     </row>
-    <row r="672" spans="1:2" ht="16">
+    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="4"/>
     </row>
-    <row r="673" spans="1:2" ht="16">
+    <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="1:2" ht="16">
+    <row r="674" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="4"/>
     </row>
-    <row r="675" spans="1:2" ht="16">
+    <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="4"/>
     </row>
-    <row r="676" spans="1:2" ht="16">
+    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="4"/>
     </row>
-    <row r="677" spans="1:2" ht="16">
+    <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="4"/>
     </row>
-    <row r="678" spans="1:2" ht="16">
+    <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="4"/>
     </row>
-    <row r="679" spans="1:2" ht="16">
+    <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="4"/>
     </row>
-    <row r="680" spans="1:2" ht="16">
+    <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="4"/>
     </row>
-    <row r="681" spans="1:2" ht="16">
+    <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="4"/>
     </row>
-    <row r="682" spans="1:2" ht="16">
+    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="4"/>
     </row>
-    <row r="683" spans="1:2" ht="16">
+    <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="4"/>
     </row>
-    <row r="684" spans="1:2" ht="16">
+    <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="4"/>
     </row>
-    <row r="685" spans="1:2" ht="16">
+    <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="4"/>
     </row>
-    <row r="686" spans="1:2" ht="16">
+    <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="4"/>
     </row>
-    <row r="687" spans="1:2" ht="16">
+    <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="4"/>
     </row>
-    <row r="688" spans="1:2" ht="16">
+    <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="4"/>
     </row>
-    <row r="689" spans="1:2" ht="16">
+    <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="4"/>
     </row>
-    <row r="690" spans="1:2" ht="16">
+    <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="4"/>
     </row>
-    <row r="691" spans="1:2" ht="16">
+    <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="4"/>
     </row>
-    <row r="692" spans="1:2" ht="16">
+    <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="4"/>
     </row>
-    <row r="693" spans="1:2" ht="16">
+    <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="4"/>
     </row>
-    <row r="694" spans="1:2" ht="16">
+    <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="4"/>
     </row>
-    <row r="695" spans="1:2" ht="16">
+    <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="4"/>
     </row>
-    <row r="696" spans="1:2" ht="16">
+    <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="4"/>
     </row>
-    <row r="697" spans="1:2" ht="16">
+    <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="4"/>
     </row>
-    <row r="698" spans="1:2" ht="16">
+    <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="4"/>
     </row>
-    <row r="699" spans="1:2" ht="16">
+    <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="4"/>
     </row>
-    <row r="700" spans="1:2" ht="16">
+    <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="4"/>
     </row>
-    <row r="701" spans="1:2" ht="16">
+    <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="4"/>
     </row>
-    <row r="702" spans="1:2" ht="16">
+    <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="4"/>
     </row>
-    <row r="703" spans="1:2" ht="16">
+    <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="4"/>
     </row>
-    <row r="704" spans="1:2" ht="16">
+    <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="4"/>
     </row>
-    <row r="705" spans="1:2" ht="16">
+    <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="4"/>
     </row>
-    <row r="706" spans="1:2" ht="16">
+    <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="4"/>
     </row>
-    <row r="707" spans="1:2" ht="16">
+    <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="4"/>
     </row>
-    <row r="708" spans="1:2" ht="16">
+    <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="4"/>
     </row>
-    <row r="709" spans="1:2" ht="16">
+    <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="4"/>
     </row>
-    <row r="710" spans="1:2" ht="16">
+    <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="4"/>
     </row>
-    <row r="711" spans="1:2" ht="16">
+    <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="4"/>
     </row>
-    <row r="712" spans="1:2" ht="16">
+    <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="4"/>
     </row>
-    <row r="713" spans="1:2" ht="16">
+    <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="4"/>
     </row>
-    <row r="714" spans="1:2" ht="16">
+    <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="4"/>
     </row>
-    <row r="715" spans="1:2" ht="16">
+    <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="4"/>
     </row>
-    <row r="716" spans="1:2" ht="16">
+    <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="4"/>
     </row>
-    <row r="717" spans="1:2" ht="16">
+    <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="4"/>
     </row>
-    <row r="718" spans="1:2" ht="16">
+    <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="4"/>
     </row>
-    <row r="719" spans="1:2" ht="16">
+    <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="4"/>
     </row>
-    <row r="720" spans="1:2" ht="16">
+    <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="4"/>
     </row>
-    <row r="721" spans="1:2" ht="16">
+    <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="4"/>
     </row>
-    <row r="722" spans="1:2" ht="16">
+    <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="4"/>
     </row>
-    <row r="723" spans="1:2" ht="16">
+    <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="4"/>
     </row>
-    <row r="724" spans="1:2" ht="16">
+    <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="4"/>
     </row>
-    <row r="725" spans="1:2" ht="16">
+    <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="4"/>
     </row>
-    <row r="726" spans="1:2" ht="16">
+    <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="4"/>
     </row>
-    <row r="727" spans="1:2" ht="16">
+    <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="4"/>
     </row>
-    <row r="728" spans="1:2" ht="16">
+    <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="4"/>
     </row>
-    <row r="729" spans="1:2" ht="16">
+    <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="4"/>
     </row>
-    <row r="730" spans="1:2" ht="16">
+    <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="4"/>
     </row>
-    <row r="731" spans="1:2" ht="16">
+    <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="4"/>
     </row>
-    <row r="732" spans="1:2" ht="16">
+    <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="4"/>
     </row>
-    <row r="733" spans="1:2" ht="16">
+    <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="4"/>
     </row>
-    <row r="734" spans="1:2" ht="16">
+    <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="4"/>
     </row>
-    <row r="735" spans="1:2" ht="16">
+    <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="4"/>
     </row>
-    <row r="736" spans="1:2" ht="16">
+    <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="4"/>
     </row>
-    <row r="737" spans="1:2" ht="16">
+    <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="4"/>
     </row>
-    <row r="738" spans="1:2" ht="16">
+    <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="4"/>
     </row>
-    <row r="739" spans="1:2" ht="16">
+    <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="4"/>
     </row>
-    <row r="740" spans="1:2" ht="16">
+    <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="4"/>
     </row>
-    <row r="741" spans="1:2" ht="16">
+    <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="4"/>
     </row>
-    <row r="742" spans="1:2" ht="16">
+    <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="4"/>
     </row>
-    <row r="743" spans="1:2" ht="16">
+    <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="4"/>
     </row>
-    <row r="744" spans="1:2" ht="16">
+    <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="4"/>
     </row>
-    <row r="745" spans="1:2" ht="16">
+    <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="4"/>
     </row>
-    <row r="746" spans="1:2" ht="16">
+    <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="4"/>
     </row>
-    <row r="747" spans="1:2" ht="16">
+    <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="1:2" ht="16">
+    <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="4"/>
     </row>
-    <row r="749" spans="1:2" ht="16">
+    <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="4"/>
     </row>
-    <row r="750" spans="1:2" ht="16">
+    <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="4"/>
     </row>
-    <row r="751" spans="1:2" ht="16">
+    <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="4"/>
     </row>
-    <row r="752" spans="1:2" ht="16">
+    <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="4"/>
     </row>
-    <row r="753" spans="1:2" ht="16">
+    <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="4"/>
     </row>
-    <row r="754" spans="1:2" ht="16">
+    <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="4"/>
     </row>
-    <row r="755" spans="1:2" ht="16">
+    <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="4"/>
     </row>
-    <row r="756" spans="1:2" ht="16">
+    <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="4"/>
     </row>
-    <row r="757" spans="1:2" ht="16">
+    <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="4"/>
     </row>
-    <row r="758" spans="1:2" ht="16">
+    <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="4"/>
     </row>
-    <row r="759" spans="1:2" ht="16">
+    <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="4"/>
     </row>
-    <row r="760" spans="1:2" ht="16">
+    <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="4"/>
     </row>
-    <row r="761" spans="1:2" ht="16">
+    <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="4"/>
     </row>
-    <row r="762" spans="1:2" ht="16">
+    <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="4"/>
     </row>
-    <row r="763" spans="1:2" ht="16">
+    <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="4"/>
     </row>
-    <row r="764" spans="1:2" ht="16">
+    <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="4"/>
     </row>
-    <row r="765" spans="1:2" ht="16">
+    <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="4"/>
     </row>
-    <row r="766" spans="1:2" ht="16">
+    <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="4"/>
     </row>
-    <row r="767" spans="1:2" ht="16">
+    <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="4"/>
     </row>
-    <row r="768" spans="1:2" ht="16">
+    <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="4"/>
     </row>
-    <row r="769" spans="1:2" ht="16">
+    <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="4"/>
     </row>
-    <row r="770" spans="1:2" ht="16">
+    <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="4"/>
     </row>
-    <row r="771" spans="1:2" ht="16">
+    <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="4"/>
     </row>
-    <row r="772" spans="1:2" ht="16">
+    <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="4"/>
     </row>
-    <row r="773" spans="1:2" ht="16">
+    <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="4"/>
     </row>
-    <row r="774" spans="1:2" ht="16">
+    <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="4"/>
     </row>
-    <row r="775" spans="1:2" ht="16">
+    <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="4"/>
     </row>
-    <row r="776" spans="1:2" ht="16">
+    <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="4"/>
     </row>
-    <row r="777" spans="1:2" ht="16">
+    <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="4"/>
     </row>
-    <row r="778" spans="1:2" ht="16">
+    <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="4"/>
     </row>
-    <row r="779" spans="1:2" ht="16">
+    <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="4"/>
     </row>
-    <row r="780" spans="1:2" ht="16">
+    <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="4"/>
     </row>
-    <row r="781" spans="1:2" ht="16">
+    <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="4"/>
     </row>
-    <row r="782" spans="1:2" ht="16">
+    <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="4"/>
     </row>
-    <row r="783" spans="1:2" ht="16">
+    <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="4"/>
     </row>
-    <row r="784" spans="1:2" ht="16">
+    <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="4"/>
     </row>
-    <row r="785" spans="1:2" ht="16">
+    <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="4"/>
     </row>
-    <row r="786" spans="1:2" ht="16">
+    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="4"/>
     </row>
-    <row r="787" spans="1:2" ht="16">
+    <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="4"/>
     </row>
-    <row r="788" spans="1:2" ht="16">
+    <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="4"/>
     </row>
-    <row r="789" spans="1:2" ht="16">
+    <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="4"/>
     </row>
-    <row r="790" spans="1:2" ht="16">
+    <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="4"/>
     </row>
-    <row r="791" spans="1:2" ht="16">
+    <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="4"/>
     </row>
-    <row r="792" spans="1:2" ht="16">
+    <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="4"/>
     </row>
-    <row r="793" spans="1:2" ht="16">
+    <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="4"/>
     </row>
-    <row r="794" spans="1:2" ht="16">
+    <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="4"/>
     </row>
-    <row r="795" spans="1:2" ht="16">
+    <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="4"/>
     </row>
-    <row r="796" spans="1:2" ht="16">
+    <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="4"/>
     </row>
-    <row r="797" spans="1:2" ht="16">
+    <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="4"/>
     </row>
-    <row r="798" spans="1:2" ht="16">
+    <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="4"/>
     </row>
-    <row r="799" spans="1:2" ht="16">
+    <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="4"/>
     </row>
-    <row r="800" spans="1:2" ht="16">
+    <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="4"/>
     </row>
-    <row r="801" spans="1:2" ht="16">
+    <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="4"/>
     </row>
-    <row r="802" spans="1:2" ht="16">
+    <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="4"/>
     </row>
-    <row r="803" spans="1:2" ht="16">
+    <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="4"/>
     </row>
-    <row r="804" spans="1:2" ht="16">
+    <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="4"/>
     </row>
-    <row r="805" spans="1:2" ht="16">
+    <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="4"/>
     </row>
-    <row r="806" spans="1:2" ht="16">
+    <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="4"/>
     </row>
-    <row r="807" spans="1:2" ht="16">
+    <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="4"/>
     </row>
-    <row r="808" spans="1:2" ht="16">
+    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="4"/>
     </row>
-    <row r="809" spans="1:2" ht="16">
+    <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="4"/>
     </row>
-    <row r="810" spans="1:2" ht="16">
+    <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="4"/>
     </row>
-    <row r="811" spans="1:2" ht="16">
+    <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="4"/>
     </row>
-    <row r="812" spans="1:2" ht="16">
+    <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="4"/>
     </row>
-    <row r="813" spans="1:2" ht="16">
+    <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="4"/>
     </row>
-    <row r="814" spans="1:2" ht="16">
+    <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="4"/>
     </row>
-    <row r="815" spans="1:2" ht="16">
+    <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="4"/>
     </row>
-    <row r="816" spans="1:2" ht="16">
+    <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="4"/>
     </row>
-    <row r="817" spans="1:2" ht="16">
+    <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="4"/>
     </row>
-    <row r="818" spans="1:2" ht="16">
+    <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="4"/>
     </row>
-    <row r="819" spans="1:2" ht="16">
+    <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="4"/>
     </row>
-    <row r="820" spans="1:2" ht="16">
+    <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="4"/>
     </row>
-    <row r="821" spans="1:2" ht="16">
+    <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="4"/>
     </row>
-    <row r="822" spans="1:2" ht="16">
+    <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="4"/>
     </row>
-    <row r="823" spans="1:2" ht="16">
+    <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="4"/>
     </row>
-    <row r="824" spans="1:2" ht="16">
+    <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="4"/>
     </row>
-    <row r="825" spans="1:2" ht="16">
+    <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="4"/>
     </row>
-    <row r="826" spans="1:2" ht="16">
+    <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="4"/>
     </row>
-    <row r="827" spans="1:2" ht="16">
+    <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="4"/>
     </row>
-    <row r="828" spans="1:2" ht="16">
+    <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="4"/>
     </row>
-    <row r="829" spans="1:2" ht="16">
+    <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="4"/>
     </row>
-    <row r="830" spans="1:2" ht="16">
+    <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="4"/>
     </row>
-    <row r="831" spans="1:2" ht="16">
+    <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="4"/>
     </row>
-    <row r="832" spans="1:2" ht="16">
+    <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="4"/>
     </row>
-    <row r="833" spans="1:2" ht="16">
+    <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="4"/>
     </row>
-    <row r="834" spans="1:2" ht="16">
+    <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="4"/>
     </row>
-    <row r="835" spans="1:2" ht="16">
+    <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="4"/>
     </row>
-    <row r="836" spans="1:2" ht="16">
+    <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="1:2" ht="16">
+    <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="4"/>
     </row>
-    <row r="838" spans="1:2" ht="16">
+    <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="4"/>
     </row>
-    <row r="839" spans="1:2" ht="16">
+    <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="4"/>
     </row>
-    <row r="840" spans="1:2" ht="16">
+    <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="4"/>
     </row>
-    <row r="841" spans="1:2" ht="16">
+    <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="4"/>
     </row>
-    <row r="842" spans="1:2" ht="16">
+    <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="4"/>
     </row>
-    <row r="843" spans="1:2" ht="16">
+    <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="4"/>
     </row>
-    <row r="844" spans="1:2" ht="16">
+    <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="4"/>
     </row>
-    <row r="845" spans="1:2" ht="16">
+    <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="4"/>
     </row>
-    <row r="846" spans="1:2" ht="16">
+    <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="4"/>
     </row>
-    <row r="847" spans="1:2" ht="16">
+    <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="4"/>
     </row>
-    <row r="848" spans="1:2" ht="16">
+    <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="4"/>
     </row>
-    <row r="849" spans="1:2" ht="16">
+    <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="4"/>
     </row>
-    <row r="850" spans="1:2" ht="16">
+    <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="4"/>
     </row>
-    <row r="851" spans="1:2" ht="16">
+    <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="4"/>
     </row>
-    <row r="852" spans="1:2" ht="16">
+    <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="4"/>
     </row>
-    <row r="853" spans="1:2" ht="16">
+    <row r="853" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="4"/>
     </row>
-    <row r="854" spans="1:2" ht="16">
+    <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="4"/>
     </row>
-    <row r="855" spans="1:2" ht="16">
+    <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="4"/>
     </row>
-    <row r="856" spans="1:2" ht="16">
+    <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="4"/>
     </row>
-    <row r="857" spans="1:2" ht="16">
+    <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="4"/>
     </row>
-    <row r="858" spans="1:2" ht="16">
+    <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="4"/>
     </row>
-    <row r="859" spans="1:2" ht="16">
+    <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="4"/>
     </row>
-    <row r="860" spans="1:2" ht="16">
+    <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="4"/>
     </row>
-    <row r="861" spans="1:2" ht="16">
+    <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="4"/>
     </row>
-    <row r="862" spans="1:2" ht="16">
+    <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="4"/>
     </row>
-    <row r="863" spans="1:2" ht="16">
+    <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="4"/>
     </row>
-    <row r="864" spans="1:2" ht="16">
+    <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="4"/>
     </row>
-    <row r="865" spans="1:2" ht="16">
+    <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="4"/>
     </row>
-    <row r="866" spans="1:2" ht="16">
+    <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="4"/>
     </row>
-    <row r="867" spans="1:2" ht="16">
+    <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="4"/>
     </row>
-    <row r="868" spans="1:2" ht="16">
+    <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="4"/>
     </row>
-    <row r="869" spans="1:2" ht="16">
+    <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="4"/>
     </row>
-    <row r="870" spans="1:2" ht="16">
+    <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="4"/>
     </row>
-    <row r="871" spans="1:2" ht="16">
+    <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="4"/>
     </row>
-    <row r="872" spans="1:2" ht="16">
+    <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="4"/>
     </row>
-    <row r="873" spans="1:2" ht="16">
+    <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="4"/>
     </row>
-    <row r="874" spans="1:2" ht="16">
+    <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="4"/>
     </row>
-    <row r="875" spans="1:2" ht="16">
+    <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="4"/>
     </row>
-    <row r="876" spans="1:2" ht="16">
+    <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="4"/>
     </row>
-    <row r="877" spans="1:2" ht="16">
+    <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="4"/>
     </row>
-    <row r="878" spans="1:2" ht="16">
+    <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="4"/>
     </row>
-    <row r="879" spans="1:2" ht="16">
+    <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="4"/>
     </row>
-    <row r="880" spans="1:2" ht="16">
+    <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="4"/>
     </row>
-    <row r="881" spans="1:2" ht="16">
+    <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="4"/>
     </row>
-    <row r="882" spans="1:2" ht="16">
+    <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="4"/>
     </row>
-    <row r="883" spans="1:2" ht="16">
+    <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="4"/>
     </row>
-    <row r="884" spans="1:2" ht="16">
+    <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="4"/>
     </row>
-    <row r="885" spans="1:2" ht="16">
+    <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="4"/>
     </row>
-    <row r="886" spans="1:2" ht="16">
+    <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="4"/>
     </row>
-    <row r="887" spans="1:2" ht="16">
+    <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="4"/>
     </row>
-    <row r="888" spans="1:2" ht="16">
+    <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="4"/>
     </row>
-    <row r="889" spans="1:2" ht="16">
+    <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="4"/>
     </row>
-    <row r="890" spans="1:2" ht="16">
+    <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="4"/>
     </row>
-    <row r="891" spans="1:2" ht="16">
+    <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="4"/>
     </row>
-    <row r="892" spans="1:2" ht="16">
+    <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="4"/>
     </row>
-    <row r="893" spans="1:2" ht="16">
+    <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="4"/>
     </row>
-    <row r="894" spans="1:2" ht="16">
+    <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="4"/>
     </row>
-    <row r="895" spans="1:2" ht="16">
+    <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="4"/>
     </row>
-    <row r="896" spans="1:2" ht="16">
+    <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="4"/>
     </row>
-    <row r="897" spans="1:2" ht="16">
+    <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="4"/>
     </row>
-    <row r="898" spans="1:2" ht="16">
+    <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="4"/>
     </row>
-    <row r="899" spans="1:2" ht="16">
+    <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="4"/>
     </row>
-    <row r="900" spans="1:2" ht="16">
+    <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="4"/>
     </row>
-    <row r="901" spans="1:2" ht="16">
+    <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="4"/>
     </row>
-    <row r="902" spans="1:2" ht="16">
+    <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="4"/>
     </row>
-    <row r="903" spans="1:2" ht="16">
+    <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="4"/>
     </row>
-    <row r="904" spans="1:2" ht="16">
+    <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="4"/>
     </row>
-    <row r="905" spans="1:2" ht="16">
+    <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="4"/>
     </row>
-    <row r="906" spans="1:2" ht="16">
+    <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="4"/>
     </row>
-    <row r="907" spans="1:2" ht="16">
+    <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="4"/>
     </row>
-    <row r="908" spans="1:2" ht="16">
+    <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="4"/>
     </row>
-    <row r="909" spans="1:2" ht="16">
+    <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="4"/>
     </row>
-    <row r="910" spans="1:2" ht="16">
+    <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="4"/>
     </row>
-    <row r="911" spans="1:2" ht="16">
+    <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="4"/>
     </row>
-    <row r="912" spans="1:2" ht="16">
+    <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="4"/>
     </row>
-    <row r="913" spans="1:2" ht="16">
+    <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="4"/>
     </row>
-    <row r="914" spans="1:2" ht="16">
+    <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="4"/>
     </row>
-    <row r="915" spans="1:2" ht="16">
+    <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="4"/>
     </row>
-    <row r="916" spans="1:2" ht="16">
+    <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="4"/>
     </row>
-    <row r="917" spans="1:2" ht="16">
+    <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="4"/>
     </row>
-    <row r="918" spans="1:2" ht="16">
+    <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="4"/>
     </row>
-    <row r="919" spans="1:2" ht="16">
+    <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="4"/>
     </row>
-    <row r="920" spans="1:2" ht="16">
+    <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="4"/>
     </row>
-    <row r="921" spans="1:2" ht="16">
+    <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="4"/>
     </row>
-    <row r="922" spans="1:2" ht="16">
+    <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="4"/>
     </row>
-    <row r="923" spans="1:2" ht="16">
+    <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="4"/>
     </row>
-    <row r="924" spans="1:2" ht="16">
+    <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="4"/>
     </row>
-    <row r="925" spans="1:2" ht="16">
+    <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="4"/>
     </row>
-    <row r="926" spans="1:2" ht="16">
+    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="4"/>
     </row>
-    <row r="927" spans="1:2" ht="16">
+    <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="4"/>
     </row>
-    <row r="928" spans="1:2" ht="16">
+    <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="4"/>
     </row>
-    <row r="929" spans="1:2" ht="16">
+    <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="4"/>
     </row>
-    <row r="930" spans="1:2" ht="16">
+    <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="4"/>
     </row>
-    <row r="931" spans="1:2" ht="16">
+    <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="4"/>
     </row>
-    <row r="932" spans="1:2" ht="16">
+    <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="4"/>
     </row>
-    <row r="933" spans="1:2" ht="16">
+    <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="4"/>
     </row>
-    <row r="934" spans="1:2" ht="16">
+    <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="4"/>
     </row>
-    <row r="935" spans="1:2" ht="16">
+    <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="4"/>
     </row>
-    <row r="936" spans="1:2" ht="16">
+    <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="4"/>
     </row>
-    <row r="937" spans="1:2" ht="16">
+    <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="4"/>
     </row>
-    <row r="938" spans="1:2" ht="16">
+    <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="4"/>
     </row>
-    <row r="939" spans="1:2" ht="16">
+    <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="4"/>
     </row>
-    <row r="940" spans="1:2" ht="16">
+    <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="4"/>
     </row>
-    <row r="941" spans="1:2" ht="16">
+    <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="4"/>
     </row>
-    <row r="942" spans="1:2" ht="16">
+    <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="4"/>
     </row>
-    <row r="943" spans="1:2" ht="16">
+    <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="4"/>
     </row>
-    <row r="944" spans="1:2" ht="16">
+    <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="4"/>
     </row>
-    <row r="945" spans="1:2" ht="16">
+    <row r="945" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="4"/>
     </row>
-    <row r="946" spans="1:2" ht="16">
+    <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="4"/>
     </row>
-    <row r="947" spans="1:2" ht="16">
+    <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="4"/>
     </row>
-    <row r="948" spans="1:2" ht="16">
+    <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="4"/>
     </row>
-    <row r="949" spans="1:2" ht="16">
+    <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="4"/>
     </row>
-    <row r="950" spans="1:2" ht="16">
+    <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="4"/>
     </row>
-    <row r="951" spans="1:2" ht="16">
+    <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="4"/>
     </row>
-    <row r="952" spans="1:2" ht="16">
+    <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="4"/>
     </row>
-    <row r="953" spans="1:2" ht="16">
+    <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="4"/>
     </row>
-    <row r="954" spans="1:2" ht="16">
+    <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="4"/>
     </row>
-    <row r="955" spans="1:2" ht="16">
+    <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="4"/>
     </row>
-    <row r="956" spans="1:2" ht="16">
+    <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="4"/>
     </row>
-    <row r="957" spans="1:2" ht="16">
+    <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="4"/>
     </row>
-    <row r="958" spans="1:2" ht="16">
+    <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="4"/>
     </row>
-    <row r="959" spans="1:2" ht="16">
+    <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="4"/>
     </row>
-    <row r="960" spans="1:2" ht="16">
+    <row r="960" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="4"/>
     </row>
-    <row r="961" spans="1:2" ht="16">
+    <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="4"/>
     </row>
-    <row r="962" spans="1:2" ht="16">
+    <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="4"/>
     </row>
-    <row r="963" spans="1:2" ht="16">
+    <row r="963" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="4"/>
     </row>
-    <row r="964" spans="1:2" ht="16">
+    <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="4"/>
     </row>
-    <row r="965" spans="1:2" ht="16">
+    <row r="965" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="4"/>
     </row>
-    <row r="966" spans="1:2" ht="16">
+    <row r="966" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="4"/>
     </row>
-    <row r="967" spans="1:2" ht="16">
+    <row r="967" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="4"/>
     </row>
-    <row r="968" spans="1:2" ht="16">
+    <row r="968" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="4"/>
     </row>
-    <row r="969" spans="1:2" ht="16">
+    <row r="969" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="4"/>
     </row>
-    <row r="970" spans="1:2" ht="16">
+    <row r="970" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="4"/>
     </row>
-    <row r="971" spans="1:2" ht="16">
+    <row r="971" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="4"/>
     </row>
-    <row r="972" spans="1:2" ht="16">
+    <row r="972" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="4"/>
     </row>
-    <row r="973" spans="1:2" ht="16">
+    <row r="973" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="4"/>
     </row>
-    <row r="974" spans="1:2" ht="16">
+    <row r="974" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="4"/>
     </row>
-    <row r="975" spans="1:2" ht="16">
+    <row r="975" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="4"/>
     </row>
-    <row r="976" spans="1:2" ht="16">
+    <row r="976" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="4"/>
     </row>
-    <row r="977" spans="1:2" ht="16">
+    <row r="977" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="4"/>
     </row>
-    <row r="978" spans="1:2" ht="16">
+    <row r="978" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="4"/>
     </row>
-    <row r="979" spans="1:2" ht="16">
+    <row r="979" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="4"/>
     </row>
-    <row r="980" spans="1:2" ht="16">
+    <row r="980" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="4"/>
     </row>
-    <row r="981" spans="1:2" ht="16">
+    <row r="981" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="4"/>
     </row>
-    <row r="982" spans="1:2" ht="16">
+    <row r="982" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="4"/>
     </row>
-    <row r="983" spans="1:2" ht="16">
+    <row r="983" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="4"/>
     </row>
-    <row r="984" spans="1:2" ht="16">
+    <row r="984" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="4"/>
     </row>
-    <row r="985" spans="1:2" ht="16">
+    <row r="985" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="4"/>
     </row>
-    <row r="986" spans="1:2" ht="16">
+    <row r="986" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="4"/>
     </row>
-    <row r="987" spans="1:2" ht="16">
+    <row r="987" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="4"/>
     </row>
-    <row r="988" spans="1:2" ht="16">
+    <row r="988" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="4"/>
     </row>
-    <row r="989" spans="1:2" ht="16">
+    <row r="989" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="4"/>
     </row>
-    <row r="990" spans="1:2" ht="16">
+    <row r="990" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="4"/>
     </row>
-    <row r="991" spans="1:2" ht="16">
+    <row r="991" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="4"/>
     </row>
-    <row r="992" spans="1:2" ht="16">
+    <row r="992" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="4"/>
     </row>
-    <row r="993" spans="1:2" ht="16">
+    <row r="993" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="4"/>
     </row>
-    <row r="994" spans="1:2" ht="16">
+    <row r="994" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="4"/>
     </row>
-    <row r="995" spans="1:2" ht="16">
+    <row r="995" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="4"/>
     </row>
-    <row r="996" spans="1:2" ht="16">
+    <row r="996" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="4"/>
     </row>
-    <row r="997" spans="1:2" ht="16">
+    <row r="997" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="4"/>
     </row>
-    <row r="998" spans="1:2" ht="16">
+    <row r="998" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="4"/>
     </row>
-    <row r="999" spans="1:2" ht="16">
+    <row r="999" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" spans="1:2" ht="16">
+    <row r="1000" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="4"/>
     </row>
-    <row r="1001" spans="1:2" ht="16">
+    <row r="1001" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="B1001" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC442FD5-263F-E14A-BB67-6A979FB3CC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565C4CC-8C4E-304C-A9B2-9B1FF8A45FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -156,6 +156,20 @@
   <si>
     <t>Week: 23 Sep to 29 Sep</t>
   </si>
+  <si>
+    <t>Pair Programme with Wei Chen 
+(section.csv and prerequisite.csv validation)</t>
+  </si>
+  <si>
+    <t>Whether there is an easy way to check for clash in class timetables</t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin 
+(section.csv and prerequisite.csv validation)</t>
+  </si>
+  <si>
+    <t>Come up with test cases for login function</t>
+  </si>
 </sst>
 </file>
 
@@ -247,10 +261,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,8 +566,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R5" sqref="R5"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -575,24 +589,24 @@
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -688,7 +702,9 @@
       <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -722,7 +738,9 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -756,7 +774,9 @@
       <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -792,7 +812,9 @@
       <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -826,7 +848,9 @@
       <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -860,7 +884,9 @@
       <c r="I8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -896,7 +922,9 @@
       <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -930,7 +958,9 @@
       <c r="I10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -964,7 +994,9 @@
       <c r="I11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1000,7 +1032,9 @@
       <c r="I12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1034,7 +1068,9 @@
       <c r="I13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1068,7 +1104,9 @@
       <c r="I14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1104,7 +1142,9 @@
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1138,7 +1178,9 @@
       <c r="I16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1172,7 +1214,9 @@
       <c r="I17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565C4CC-8C4E-304C-A9B2-9B1FF8A45FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB80FD2-CB49-FF4C-B06D-C6954817105F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>Question</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Come up with test cases for login function</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn (course_completed.csv and bid.csv validation)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Ling (course_completed.csv and bid.csv validation)</t>
   </si>
 </sst>
 </file>
@@ -566,8 +572,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,7 +711,9 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -741,7 +749,9 @@
       <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -777,7 +787,9 @@
       <c r="J5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -815,7 +827,9 @@
       <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -851,7 +865,9 @@
       <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -887,7 +903,9 @@
       <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -925,7 +943,9 @@
       <c r="J9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -961,7 +981,9 @@
       <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -997,7 +1019,9 @@
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1035,7 +1059,9 @@
       <c r="J12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1071,7 +1097,9 @@
       <c r="J13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1107,7 +1135,9 @@
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1145,7 +1175,9 @@
       <c r="J15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1181,7 +1213,9 @@
       <c r="J16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1217,7 +1251,9 @@
       <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB80FD2-CB49-FF4C-B06D-C6954817105F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99944357-5A90-7C42-B156-882C24FF00B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
   <si>
     <t>Question</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>Pair Programme with Wei Ling (course_completed.csv and bid.csv validation)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Chen 
+(combine bootstrap function)</t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin 
+(combine bootstrap function)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -714,7 +722,9 @@
       <c r="K3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -752,7 +762,9 @@
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -790,7 +802,9 @@
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -830,7 +844,9 @@
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -868,7 +884,9 @@
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -906,7 +924,9 @@
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -946,7 +966,9 @@
       <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -984,7 +1006,9 @@
       <c r="K10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1022,7 +1046,9 @@
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1062,7 +1088,9 @@
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1100,7 +1128,9 @@
       <c r="K13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1138,7 +1168,9 @@
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1178,7 +1210,9 @@
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1216,7 +1250,9 @@
       <c r="K16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1254,7 +1290,9 @@
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99944357-5A90-7C42-B156-882C24FF00B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50829285-4FF1-8B47-9E04-3E96B15C84CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -184,6 +185,9 @@
     <t>Pair Programme with Shermin 
 (combine bootstrap function)</t>
   </si>
+  <si>
+    <t>Come up with test cases for bootstrap function</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +279,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -579,9 +584,11 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -597,30 +604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -633,8 +631,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -654,27 +652,6 @@
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="1"/>
@@ -689,7 +666,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -716,22 +693,9 @@
       <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -756,22 +720,9 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -796,22 +747,9 @@
       <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -838,22 +776,9 @@
       <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -878,22 +803,9 @@
       <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -918,22 +830,9 @@
       <c r="I8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -960,22 +859,9 @@
       <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1000,22 +886,9 @@
       <c r="I10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1040,22 +913,9 @@
       <c r="I11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1082,22 +942,9 @@
       <c r="I12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1122,22 +969,9 @@
       <c r="I13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1162,22 +996,9 @@
       <c r="I14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1204,22 +1025,9 @@
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1244,22 +1052,9 @@
       <c r="I16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1284,77 +1079,64 @@
       <c r="I17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
@@ -5235,8 +5017,7 @@
       <c r="B1001" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J1:P1"/>
+  <mergeCells count="8">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
@@ -5249,4 +5030,4340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
+  <dimension ref="A1:I1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
+    <col min="3" max="9" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" s="4"/>
+    </row>
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="B211" s="4"/>
+    </row>
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="B213" s="4"/>
+    </row>
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214" s="4"/>
+    </row>
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+      <c r="B236" s="4"/>
+    </row>
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="B237" s="4"/>
+    </row>
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238" s="4"/>
+    </row>
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="B239" s="4"/>
+    </row>
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="B240" s="4"/>
+    </row>
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" s="4"/>
+    </row>
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="4"/>
+    </row>
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+      <c r="B244" s="4"/>
+    </row>
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245" s="4"/>
+    </row>
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246" s="4"/>
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247" s="4"/>
+    </row>
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" s="4"/>
+    </row>
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250" s="4"/>
+    </row>
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" s="4"/>
+    </row>
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252" s="4"/>
+    </row>
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" s="4"/>
+    </row>
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255" s="4"/>
+    </row>
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+      <c r="B256" s="4"/>
+    </row>
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+      <c r="B258" s="4"/>
+    </row>
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+      <c r="B259" s="4"/>
+    </row>
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="4"/>
+    </row>
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+      <c r="B261" s="4"/>
+    </row>
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="4"/>
+    </row>
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="4"/>
+    </row>
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+      <c r="B266" s="4"/>
+    </row>
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+      <c r="B267" s="4"/>
+    </row>
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="4"/>
+    </row>
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="B269" s="4"/>
+    </row>
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="B270" s="4"/>
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" s="4"/>
+    </row>
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="B272" s="4"/>
+    </row>
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="4"/>
+    </row>
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="B274" s="4"/>
+    </row>
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="4"/>
+    </row>
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="B276" s="4"/>
+    </row>
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="B277" s="4"/>
+    </row>
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="B278" s="4"/>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" s="4"/>
+    </row>
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="B281" s="4"/>
+    </row>
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="B282" s="4"/>
+    </row>
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+      <c r="B283" s="4"/>
+    </row>
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+      <c r="B284" s="4"/>
+    </row>
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="B285" s="4"/>
+    </row>
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="B286" s="4"/>
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" s="4"/>
+    </row>
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="B288" s="4"/>
+    </row>
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="B289" s="4"/>
+    </row>
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="B290" s="4"/>
+    </row>
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="4"/>
+    </row>
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="B292" s="4"/>
+    </row>
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="B293" s="4"/>
+    </row>
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="B294" s="4"/>
+    </row>
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+      <c r="B295" s="4"/>
+    </row>
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" s="4"/>
+    </row>
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+      <c r="B297" s="4"/>
+    </row>
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+      <c r="B298" s="4"/>
+    </row>
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+      <c r="B299" s="4"/>
+    </row>
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+      <c r="B300" s="4"/>
+    </row>
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+      <c r="B301" s="4"/>
+    </row>
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+      <c r="B302" s="4"/>
+    </row>
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="B303" s="4"/>
+    </row>
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="B304" s="4"/>
+    </row>
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" s="4"/>
+    </row>
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+      <c r="B306" s="4"/>
+    </row>
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" s="4"/>
+    </row>
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+      <c r="B308" s="4"/>
+    </row>
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+      <c r="B309" s="4"/>
+    </row>
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="B310" s="4"/>
+    </row>
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+      <c r="B311" s="4"/>
+    </row>
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+      <c r="B312" s="4"/>
+    </row>
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+      <c r="B313" s="4"/>
+    </row>
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+      <c r="B314" s="4"/>
+    </row>
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" s="4"/>
+    </row>
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+      <c r="B316" s="4"/>
+    </row>
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" s="4"/>
+    </row>
+    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+      <c r="B318" s="4"/>
+    </row>
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+      <c r="B319" s="4"/>
+    </row>
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+      <c r="B320" s="4"/>
+    </row>
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="4"/>
+    </row>
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+      <c r="B322" s="4"/>
+    </row>
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" s="4"/>
+    </row>
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+      <c r="B324" s="4"/>
+    </row>
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+      <c r="B325" s="4"/>
+    </row>
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="B326" s="4"/>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="B327" s="4"/>
+    </row>
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+      <c r="B328" s="4"/>
+    </row>
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+      <c r="B329" s="4"/>
+    </row>
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+      <c r="B330" s="4"/>
+    </row>
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+      <c r="B331" s="4"/>
+    </row>
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="4"/>
+    </row>
+    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+      <c r="B333" s="4"/>
+    </row>
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+      <c r="B334" s="4"/>
+    </row>
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="B335" s="4"/>
+    </row>
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="B336" s="4"/>
+    </row>
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" s="4"/>
+    </row>
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+      <c r="B338" s="4"/>
+    </row>
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+      <c r="B339" s="4"/>
+    </row>
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" s="4"/>
+    </row>
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+      <c r="B341" s="4"/>
+    </row>
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+      <c r="B342" s="4"/>
+    </row>
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+      <c r="B343" s="4"/>
+    </row>
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+      <c r="B344" s="4"/>
+    </row>
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+      <c r="B345" s="4"/>
+    </row>
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+      <c r="B346" s="4"/>
+    </row>
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+      <c r="B347" s="4"/>
+    </row>
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+      <c r="B348" s="4"/>
+    </row>
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+      <c r="B349" s="4"/>
+    </row>
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+      <c r="B350" s="4"/>
+    </row>
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="4"/>
+    </row>
+    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+      <c r="B352" s="4"/>
+    </row>
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+      <c r="B353" s="4"/>
+    </row>
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+      <c r="B354" s="4"/>
+    </row>
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+      <c r="B355" s="4"/>
+    </row>
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+      <c r="B356" s="4"/>
+    </row>
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+      <c r="B357" s="4"/>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="B358" s="4"/>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="B359" s="4"/>
+    </row>
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+      <c r="B360" s="4"/>
+    </row>
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+      <c r="B361" s="4"/>
+    </row>
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+      <c r="B362" s="4"/>
+    </row>
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" s="4"/>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+      <c r="B364" s="4"/>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+      <c r="B365" s="4"/>
+    </row>
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+      <c r="B366" s="4"/>
+    </row>
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="B367" s="4"/>
+    </row>
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+      <c r="B368" s="4"/>
+    </row>
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="B369" s="4"/>
+    </row>
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+      <c r="B370" s="4"/>
+    </row>
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+      <c r="B371" s="4"/>
+    </row>
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+      <c r="B372" s="4"/>
+    </row>
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+      <c r="B373" s="4"/>
+    </row>
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+      <c r="B374" s="4"/>
+    </row>
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+      <c r="B375" s="4"/>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+      <c r="B376" s="4"/>
+    </row>
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+      <c r="B377" s="4"/>
+    </row>
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+      <c r="B378" s="4"/>
+    </row>
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+      <c r="B379" s="4"/>
+    </row>
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+      <c r="B380" s="4"/>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="B381" s="4"/>
+    </row>
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+      <c r="B382" s="4"/>
+    </row>
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="B383" s="4"/>
+    </row>
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+      <c r="B384" s="4"/>
+    </row>
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+      <c r="B385" s="4"/>
+    </row>
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+      <c r="B386" s="4"/>
+    </row>
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="B387" s="4"/>
+    </row>
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+      <c r="B388" s="4"/>
+    </row>
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="1"/>
+      <c r="B389" s="4"/>
+    </row>
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+      <c r="B390" s="4"/>
+    </row>
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="1"/>
+      <c r="B391" s="4"/>
+    </row>
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+      <c r="B392" s="4"/>
+    </row>
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+      <c r="B393" s="4"/>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+      <c r="B394" s="4"/>
+    </row>
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+      <c r="B395" s="4"/>
+    </row>
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+      <c r="B396" s="4"/>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="B397" s="4"/>
+    </row>
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
+      <c r="B398" s="4"/>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+      <c r="B399" s="4"/>
+    </row>
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+      <c r="B400" s="4"/>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A401" s="1"/>
+      <c r="B401" s="4"/>
+    </row>
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+      <c r="B402" s="4"/>
+    </row>
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A403" s="1"/>
+      <c r="B403" s="4"/>
+    </row>
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+      <c r="B404" s="4"/>
+    </row>
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A405" s="1"/>
+      <c r="B405" s="4"/>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+      <c r="B406" s="4"/>
+    </row>
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+      <c r="B407" s="4"/>
+    </row>
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" s="1"/>
+      <c r="B408" s="4"/>
+    </row>
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+      <c r="B409" s="4"/>
+    </row>
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A410" s="1"/>
+      <c r="B410" s="4"/>
+    </row>
+    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+      <c r="B411" s="4"/>
+    </row>
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+      <c r="B412" s="4"/>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="B413" s="4"/>
+    </row>
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+      <c r="B414" s="4"/>
+    </row>
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+      <c r="B415" s="4"/>
+    </row>
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+      <c r="B416" s="4"/>
+    </row>
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+      <c r="B417" s="4"/>
+    </row>
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+      <c r="B418" s="4"/>
+    </row>
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="1"/>
+      <c r="B419" s="4"/>
+    </row>
+    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+      <c r="B420" s="4"/>
+    </row>
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+      <c r="B421" s="4"/>
+    </row>
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A422" s="1"/>
+      <c r="B422" s="4"/>
+    </row>
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+      <c r="B423" s="4"/>
+    </row>
+    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+      <c r="B424" s="4"/>
+    </row>
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+      <c r="B425" s="4"/>
+    </row>
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+      <c r="B426" s="4"/>
+    </row>
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+      <c r="B427" s="4"/>
+    </row>
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="B428" s="4"/>
+    </row>
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+      <c r="B429" s="4"/>
+    </row>
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+      <c r="B430" s="4"/>
+    </row>
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A431" s="1"/>
+      <c r="B431" s="4"/>
+    </row>
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+      <c r="B432" s="4"/>
+    </row>
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A433" s="1"/>
+      <c r="B433" s="4"/>
+    </row>
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+      <c r="B434" s="4"/>
+    </row>
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+      <c r="B435" s="4"/>
+    </row>
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+      <c r="B436" s="4"/>
+    </row>
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="1"/>
+      <c r="B437" s="4"/>
+    </row>
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A438" s="1"/>
+      <c r="B438" s="4"/>
+    </row>
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+      <c r="B439" s="4"/>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" s="4"/>
+    </row>
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A441" s="1"/>
+      <c r="B441" s="4"/>
+    </row>
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+      <c r="B442" s="4"/>
+    </row>
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" s="4"/>
+    </row>
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A444" s="1"/>
+      <c r="B444" s="4"/>
+    </row>
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A445" s="1"/>
+      <c r="B445" s="4"/>
+    </row>
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+      <c r="B446" s="4"/>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+      <c r="B447" s="4"/>
+    </row>
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="B448" s="4"/>
+    </row>
+    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+      <c r="B449" s="4"/>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+      <c r="B450" s="4"/>
+    </row>
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A451" s="1"/>
+      <c r="B451" s="4"/>
+    </row>
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+      <c r="B452" s="4"/>
+    </row>
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+      <c r="B453" s="4"/>
+    </row>
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+      <c r="B454" s="4"/>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" s="4"/>
+    </row>
+    <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+      <c r="B456" s="4"/>
+    </row>
+    <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+      <c r="B457" s="4"/>
+    </row>
+    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+      <c r="B458" s="4"/>
+    </row>
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+      <c r="B459" s="4"/>
+    </row>
+    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+      <c r="B460" s="4"/>
+    </row>
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A461" s="1"/>
+      <c r="B461" s="4"/>
+    </row>
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+      <c r="B462" s="4"/>
+    </row>
+    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+      <c r="B463" s="4"/>
+    </row>
+    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+      <c r="B464" s="4"/>
+    </row>
+    <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+      <c r="B465" s="4"/>
+    </row>
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+      <c r="B466" s="4"/>
+    </row>
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+      <c r="B467" s="4"/>
+    </row>
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A468" s="1"/>
+      <c r="B468" s="4"/>
+    </row>
+    <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+      <c r="B469" s="4"/>
+    </row>
+    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+      <c r="B470" s="4"/>
+    </row>
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+      <c r="B471" s="4"/>
+    </row>
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+      <c r="B472" s="4"/>
+    </row>
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+      <c r="B473" s="4"/>
+    </row>
+    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+      <c r="B474" s="4"/>
+    </row>
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="B475" s="4"/>
+    </row>
+    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A476" s="1"/>
+      <c r="B476" s="4"/>
+    </row>
+    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A477" s="1"/>
+      <c r="B477" s="4"/>
+    </row>
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+      <c r="B478" s="4"/>
+    </row>
+    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A479" s="1"/>
+      <c r="B479" s="4"/>
+    </row>
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="1"/>
+      <c r="B480" s="4"/>
+    </row>
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="1"/>
+      <c r="B481" s="4"/>
+    </row>
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+      <c r="B482" s="4"/>
+    </row>
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+      <c r="B483" s="4"/>
+    </row>
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="1"/>
+      <c r="B484" s="4"/>
+    </row>
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" s="4"/>
+    </row>
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+      <c r="B486" s="4"/>
+    </row>
+    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A487" s="1"/>
+      <c r="B487" s="4"/>
+    </row>
+    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="B488" s="4"/>
+    </row>
+    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A489" s="1"/>
+      <c r="B489" s="4"/>
+    </row>
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="1"/>
+      <c r="B490" s="4"/>
+    </row>
+    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A491" s="1"/>
+      <c r="B491" s="4"/>
+    </row>
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+      <c r="B492" s="4"/>
+    </row>
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="B493" s="4"/>
+    </row>
+    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A494" s="1"/>
+      <c r="B494" s="4"/>
+    </row>
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+      <c r="B495" s="4"/>
+    </row>
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A496" s="1"/>
+      <c r="B496" s="4"/>
+    </row>
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A497" s="1"/>
+      <c r="B497" s="4"/>
+    </row>
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A498" s="1"/>
+      <c r="B498" s="4"/>
+    </row>
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="1"/>
+      <c r="B499" s="4"/>
+    </row>
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+      <c r="B500" s="4"/>
+    </row>
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A501" s="1"/>
+      <c r="B501" s="4"/>
+    </row>
+    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A502" s="1"/>
+      <c r="B502" s="4"/>
+    </row>
+    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A503" s="1"/>
+      <c r="B503" s="4"/>
+    </row>
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="B504" s="4"/>
+    </row>
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="B505" s="4"/>
+    </row>
+    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A506" s="1"/>
+      <c r="B506" s="4"/>
+    </row>
+    <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A507" s="1"/>
+      <c r="B507" s="4"/>
+    </row>
+    <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="1"/>
+      <c r="B508" s="4"/>
+    </row>
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="1"/>
+      <c r="B509" s="4"/>
+    </row>
+    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A510" s="1"/>
+      <c r="B510" s="4"/>
+    </row>
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="1"/>
+      <c r="B511" s="4"/>
+    </row>
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A512" s="1"/>
+      <c r="B512" s="4"/>
+    </row>
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A513" s="1"/>
+      <c r="B513" s="4"/>
+    </row>
+    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="1"/>
+      <c r="B514" s="4"/>
+    </row>
+    <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A515" s="1"/>
+      <c r="B515" s="4"/>
+    </row>
+    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A516" s="1"/>
+      <c r="B516" s="4"/>
+    </row>
+    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A517" s="1"/>
+      <c r="B517" s="4"/>
+    </row>
+    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A518" s="1"/>
+      <c r="B518" s="4"/>
+    </row>
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A519" s="1"/>
+      <c r="B519" s="4"/>
+    </row>
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+      <c r="B520" s="4"/>
+    </row>
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A521" s="1"/>
+      <c r="B521" s="4"/>
+    </row>
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+      <c r="B522" s="4"/>
+    </row>
+    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A523" s="1"/>
+      <c r="B523" s="4"/>
+    </row>
+    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+      <c r="B524" s="4"/>
+    </row>
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="1"/>
+      <c r="B525" s="4"/>
+    </row>
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A526" s="1"/>
+      <c r="B526" s="4"/>
+    </row>
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+      <c r="B527" s="4"/>
+    </row>
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A528" s="1"/>
+      <c r="B528" s="4"/>
+    </row>
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+      <c r="B529" s="4"/>
+    </row>
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+      <c r="B530" s="4"/>
+    </row>
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A531" s="1"/>
+      <c r="B531" s="4"/>
+    </row>
+    <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A532" s="1"/>
+      <c r="B532" s="4"/>
+    </row>
+    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A533" s="1"/>
+      <c r="B533" s="4"/>
+    </row>
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="4"/>
+    </row>
+    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A535" s="1"/>
+      <c r="B535" s="4"/>
+    </row>
+    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A536" s="1"/>
+      <c r="B536" s="4"/>
+    </row>
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+      <c r="B537" s="4"/>
+    </row>
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A538" s="1"/>
+      <c r="B538" s="4"/>
+    </row>
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A539" s="1"/>
+      <c r="B539" s="4"/>
+    </row>
+    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A540" s="1"/>
+      <c r="B540" s="4"/>
+    </row>
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+      <c r="B541" s="4"/>
+    </row>
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+      <c r="B542" s="4"/>
+    </row>
+    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A543" s="1"/>
+      <c r="B543" s="4"/>
+    </row>
+    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A544" s="1"/>
+      <c r="B544" s="4"/>
+    </row>
+    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A545" s="1"/>
+      <c r="B545" s="4"/>
+    </row>
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+      <c r="B546" s="4"/>
+    </row>
+    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A547" s="1"/>
+      <c r="B547" s="4"/>
+    </row>
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A548" s="1"/>
+      <c r="B548" s="4"/>
+    </row>
+    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A549" s="1"/>
+      <c r="B549" s="4"/>
+    </row>
+    <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+      <c r="B550" s="4"/>
+    </row>
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+      <c r="B551" s="4"/>
+    </row>
+    <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A552" s="1"/>
+      <c r="B552" s="4"/>
+    </row>
+    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+      <c r="B553" s="4"/>
+    </row>
+    <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A554" s="1"/>
+      <c r="B554" s="4"/>
+    </row>
+    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+      <c r="B555" s="4"/>
+    </row>
+    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A556" s="1"/>
+      <c r="B556" s="4"/>
+    </row>
+    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A557" s="1"/>
+      <c r="B557" s="4"/>
+    </row>
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="1"/>
+      <c r="B558" s="4"/>
+    </row>
+    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A559" s="1"/>
+      <c r="B559" s="4"/>
+    </row>
+    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A560" s="1"/>
+      <c r="B560" s="4"/>
+    </row>
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A561" s="1"/>
+      <c r="B561" s="4"/>
+    </row>
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A562" s="1"/>
+      <c r="B562" s="4"/>
+    </row>
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A563" s="1"/>
+      <c r="B563" s="4"/>
+    </row>
+    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A564" s="1"/>
+      <c r="B564" s="4"/>
+    </row>
+    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A565" s="1"/>
+      <c r="B565" s="4"/>
+    </row>
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+      <c r="B566" s="4"/>
+    </row>
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A567" s="1"/>
+      <c r="B567" s="4"/>
+    </row>
+    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A568" s="1"/>
+      <c r="B568" s="4"/>
+    </row>
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+      <c r="B569" s="4"/>
+    </row>
+    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A570" s="1"/>
+      <c r="B570" s="4"/>
+    </row>
+    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A571" s="1"/>
+      <c r="B571" s="4"/>
+    </row>
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A572" s="1"/>
+      <c r="B572" s="4"/>
+    </row>
+    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+      <c r="B573" s="4"/>
+    </row>
+    <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A574" s="1"/>
+      <c r="B574" s="4"/>
+    </row>
+    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A575" s="1"/>
+      <c r="B575" s="4"/>
+    </row>
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+      <c r="B576" s="4"/>
+    </row>
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="1"/>
+      <c r="B577" s="4"/>
+    </row>
+    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A578" s="1"/>
+      <c r="B578" s="4"/>
+    </row>
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="B579" s="4"/>
+    </row>
+    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A580" s="1"/>
+      <c r="B580" s="4"/>
+    </row>
+    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A581" s="1"/>
+      <c r="B581" s="4"/>
+    </row>
+    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A582" s="1"/>
+      <c r="B582" s="4"/>
+    </row>
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="1"/>
+      <c r="B583" s="4"/>
+    </row>
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A584" s="1"/>
+      <c r="B584" s="4"/>
+    </row>
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+      <c r="B585" s="4"/>
+    </row>
+    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A586" s="1"/>
+      <c r="B586" s="4"/>
+    </row>
+    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A587" s="1"/>
+      <c r="B587" s="4"/>
+    </row>
+    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A588" s="1"/>
+      <c r="B588" s="4"/>
+    </row>
+    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A589" s="1"/>
+      <c r="B589" s="4"/>
+    </row>
+    <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+      <c r="B590" s="4"/>
+    </row>
+    <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A591" s="1"/>
+      <c r="B591" s="4"/>
+    </row>
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="B592" s="4"/>
+    </row>
+    <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A593" s="1"/>
+      <c r="B593" s="4"/>
+    </row>
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A594" s="1"/>
+      <c r="B594" s="4"/>
+    </row>
+    <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A595" s="1"/>
+      <c r="B595" s="4"/>
+    </row>
+    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
+      <c r="B596" s="4"/>
+    </row>
+    <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A597" s="1"/>
+      <c r="B597" s="4"/>
+    </row>
+    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A598" s="1"/>
+      <c r="B598" s="4"/>
+    </row>
+    <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+      <c r="B599" s="4"/>
+    </row>
+    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A600" s="1"/>
+      <c r="B600" s="4"/>
+    </row>
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A601" s="1"/>
+      <c r="B601" s="4"/>
+    </row>
+    <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A602" s="1"/>
+      <c r="B602" s="4"/>
+    </row>
+    <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A603" s="1"/>
+      <c r="B603" s="4"/>
+    </row>
+    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A604" s="1"/>
+      <c r="B604" s="4"/>
+    </row>
+    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A605" s="1"/>
+      <c r="B605" s="4"/>
+    </row>
+    <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A606" s="1"/>
+      <c r="B606" s="4"/>
+    </row>
+    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A607" s="1"/>
+      <c r="B607" s="4"/>
+    </row>
+    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A608" s="1"/>
+      <c r="B608" s="4"/>
+    </row>
+    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A609" s="1"/>
+      <c r="B609" s="4"/>
+    </row>
+    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A610" s="1"/>
+      <c r="B610" s="4"/>
+    </row>
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+      <c r="B611" s="4"/>
+    </row>
+    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A612" s="1"/>
+      <c r="B612" s="4"/>
+    </row>
+    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A613" s="1"/>
+      <c r="B613" s="4"/>
+    </row>
+    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A614" s="1"/>
+      <c r="B614" s="4"/>
+    </row>
+    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A615" s="1"/>
+      <c r="B615" s="4"/>
+    </row>
+    <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A616" s="1"/>
+      <c r="B616" s="4"/>
+    </row>
+    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A617" s="1"/>
+      <c r="B617" s="4"/>
+    </row>
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+      <c r="B618" s="4"/>
+    </row>
+    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A619" s="1"/>
+      <c r="B619" s="4"/>
+    </row>
+    <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A620" s="1"/>
+      <c r="B620" s="4"/>
+    </row>
+    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A621" s="1"/>
+      <c r="B621" s="4"/>
+    </row>
+    <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A622" s="1"/>
+      <c r="B622" s="4"/>
+    </row>
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="1"/>
+      <c r="B623" s="4"/>
+    </row>
+    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A624" s="1"/>
+      <c r="B624" s="4"/>
+    </row>
+    <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A625" s="1"/>
+      <c r="B625" s="4"/>
+    </row>
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="B626" s="4"/>
+    </row>
+    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A627" s="1"/>
+      <c r="B627" s="4"/>
+    </row>
+    <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A628" s="1"/>
+      <c r="B628" s="4"/>
+    </row>
+    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A629" s="1"/>
+      <c r="B629" s="4"/>
+    </row>
+    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
+      <c r="B630" s="4"/>
+    </row>
+    <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A631" s="1"/>
+      <c r="B631" s="4"/>
+    </row>
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+      <c r="B632" s="4"/>
+    </row>
+    <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+      <c r="B633" s="4"/>
+    </row>
+    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+      <c r="B634" s="4"/>
+    </row>
+    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A635" s="1"/>
+      <c r="B635" s="4"/>
+    </row>
+    <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A636" s="1"/>
+      <c r="B636" s="4"/>
+    </row>
+    <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A637" s="1"/>
+      <c r="B637" s="4"/>
+    </row>
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="B638" s="4"/>
+    </row>
+    <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A639" s="1"/>
+      <c r="B639" s="4"/>
+    </row>
+    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A640" s="1"/>
+      <c r="B640" s="4"/>
+    </row>
+    <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A641" s="1"/>
+      <c r="B641" s="4"/>
+    </row>
+    <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A642" s="1"/>
+      <c r="B642" s="4"/>
+    </row>
+    <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A643" s="1"/>
+      <c r="B643" s="4"/>
+    </row>
+    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+      <c r="B644" s="4"/>
+    </row>
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A645" s="1"/>
+      <c r="B645" s="4"/>
+    </row>
+    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
+      <c r="B646" s="4"/>
+    </row>
+    <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A647" s="1"/>
+      <c r="B647" s="4"/>
+    </row>
+    <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A648" s="1"/>
+      <c r="B648" s="4"/>
+    </row>
+    <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A649" s="1"/>
+      <c r="B649" s="4"/>
+    </row>
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+      <c r="B650" s="4"/>
+    </row>
+    <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A651" s="1"/>
+      <c r="B651" s="4"/>
+    </row>
+    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A652" s="1"/>
+      <c r="B652" s="4"/>
+    </row>
+    <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A653" s="1"/>
+      <c r="B653" s="4"/>
+    </row>
+    <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A654" s="1"/>
+      <c r="B654" s="4"/>
+    </row>
+    <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A655" s="1"/>
+      <c r="B655" s="4"/>
+    </row>
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+      <c r="B656" s="4"/>
+    </row>
+    <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A657" s="1"/>
+      <c r="B657" s="4"/>
+    </row>
+    <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A658" s="1"/>
+      <c r="B658" s="4"/>
+    </row>
+    <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A659" s="1"/>
+      <c r="B659" s="4"/>
+    </row>
+    <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A660" s="1"/>
+      <c r="B660" s="4"/>
+    </row>
+    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A661" s="1"/>
+      <c r="B661" s="4"/>
+    </row>
+    <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A662" s="1"/>
+      <c r="B662" s="4"/>
+    </row>
+    <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A663" s="1"/>
+      <c r="B663" s="4"/>
+    </row>
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+      <c r="B664" s="4"/>
+    </row>
+    <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A665" s="1"/>
+      <c r="B665" s="4"/>
+    </row>
+    <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A666" s="1"/>
+      <c r="B666" s="4"/>
+    </row>
+    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A667" s="1"/>
+      <c r="B667" s="4"/>
+    </row>
+    <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A668" s="1"/>
+      <c r="B668" s="4"/>
+    </row>
+    <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A669" s="1"/>
+      <c r="B669" s="4"/>
+    </row>
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
+      <c r="B670" s="4"/>
+    </row>
+    <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A671" s="1"/>
+      <c r="B671" s="4"/>
+    </row>
+    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A672" s="1"/>
+      <c r="B672" s="4"/>
+    </row>
+    <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A673" s="1"/>
+      <c r="B673" s="4"/>
+    </row>
+    <row r="674" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A674" s="1"/>
+      <c r="B674" s="4"/>
+    </row>
+    <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A675" s="1"/>
+      <c r="B675" s="4"/>
+    </row>
+    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A676" s="1"/>
+      <c r="B676" s="4"/>
+    </row>
+    <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A677" s="1"/>
+      <c r="B677" s="4"/>
+    </row>
+    <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A678" s="1"/>
+      <c r="B678" s="4"/>
+    </row>
+    <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A679" s="1"/>
+      <c r="B679" s="4"/>
+    </row>
+    <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A680" s="1"/>
+      <c r="B680" s="4"/>
+    </row>
+    <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A681" s="1"/>
+      <c r="B681" s="4"/>
+    </row>
+    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A682" s="1"/>
+      <c r="B682" s="4"/>
+    </row>
+    <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A683" s="1"/>
+      <c r="B683" s="4"/>
+    </row>
+    <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A684" s="1"/>
+      <c r="B684" s="4"/>
+    </row>
+    <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A685" s="1"/>
+      <c r="B685" s="4"/>
+    </row>
+    <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A686" s="1"/>
+      <c r="B686" s="4"/>
+    </row>
+    <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A687" s="1"/>
+      <c r="B687" s="4"/>
+    </row>
+    <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A688" s="1"/>
+      <c r="B688" s="4"/>
+    </row>
+    <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A689" s="1"/>
+      <c r="B689" s="4"/>
+    </row>
+    <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A690" s="1"/>
+      <c r="B690" s="4"/>
+    </row>
+    <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A691" s="1"/>
+      <c r="B691" s="4"/>
+    </row>
+    <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A692" s="1"/>
+      <c r="B692" s="4"/>
+    </row>
+    <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A693" s="1"/>
+      <c r="B693" s="4"/>
+    </row>
+    <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A694" s="1"/>
+      <c r="B694" s="4"/>
+    </row>
+    <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A695" s="1"/>
+      <c r="B695" s="4"/>
+    </row>
+    <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A696" s="1"/>
+      <c r="B696" s="4"/>
+    </row>
+    <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A697" s="1"/>
+      <c r="B697" s="4"/>
+    </row>
+    <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A698" s="1"/>
+      <c r="B698" s="4"/>
+    </row>
+    <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A699" s="1"/>
+      <c r="B699" s="4"/>
+    </row>
+    <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A700" s="1"/>
+      <c r="B700" s="4"/>
+    </row>
+    <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A701" s="1"/>
+      <c r="B701" s="4"/>
+    </row>
+    <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A702" s="1"/>
+      <c r="B702" s="4"/>
+    </row>
+    <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A703" s="1"/>
+      <c r="B703" s="4"/>
+    </row>
+    <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A704" s="1"/>
+      <c r="B704" s="4"/>
+    </row>
+    <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A705" s="1"/>
+      <c r="B705" s="4"/>
+    </row>
+    <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A706" s="1"/>
+      <c r="B706" s="4"/>
+    </row>
+    <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A707" s="1"/>
+      <c r="B707" s="4"/>
+    </row>
+    <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A708" s="1"/>
+      <c r="B708" s="4"/>
+    </row>
+    <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A709" s="1"/>
+      <c r="B709" s="4"/>
+    </row>
+    <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A710" s="1"/>
+      <c r="B710" s="4"/>
+    </row>
+    <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A711" s="1"/>
+      <c r="B711" s="4"/>
+    </row>
+    <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A712" s="1"/>
+      <c r="B712" s="4"/>
+    </row>
+    <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A713" s="1"/>
+      <c r="B713" s="4"/>
+    </row>
+    <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A714" s="1"/>
+      <c r="B714" s="4"/>
+    </row>
+    <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A715" s="1"/>
+      <c r="B715" s="4"/>
+    </row>
+    <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A716" s="1"/>
+      <c r="B716" s="4"/>
+    </row>
+    <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A717" s="1"/>
+      <c r="B717" s="4"/>
+    </row>
+    <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A718" s="1"/>
+      <c r="B718" s="4"/>
+    </row>
+    <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A719" s="1"/>
+      <c r="B719" s="4"/>
+    </row>
+    <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A720" s="1"/>
+      <c r="B720" s="4"/>
+    </row>
+    <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A721" s="1"/>
+      <c r="B721" s="4"/>
+    </row>
+    <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A722" s="1"/>
+      <c r="B722" s="4"/>
+    </row>
+    <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A723" s="1"/>
+      <c r="B723" s="4"/>
+    </row>
+    <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A724" s="1"/>
+      <c r="B724" s="4"/>
+    </row>
+    <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A725" s="1"/>
+      <c r="B725" s="4"/>
+    </row>
+    <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A726" s="1"/>
+      <c r="B726" s="4"/>
+    </row>
+    <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A727" s="1"/>
+      <c r="B727" s="4"/>
+    </row>
+    <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A728" s="1"/>
+      <c r="B728" s="4"/>
+    </row>
+    <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A729" s="1"/>
+      <c r="B729" s="4"/>
+    </row>
+    <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A730" s="1"/>
+      <c r="B730" s="4"/>
+    </row>
+    <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A731" s="1"/>
+      <c r="B731" s="4"/>
+    </row>
+    <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A732" s="1"/>
+      <c r="B732" s="4"/>
+    </row>
+    <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A733" s="1"/>
+      <c r="B733" s="4"/>
+    </row>
+    <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A734" s="1"/>
+      <c r="B734" s="4"/>
+    </row>
+    <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A735" s="1"/>
+      <c r="B735" s="4"/>
+    </row>
+    <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A736" s="1"/>
+      <c r="B736" s="4"/>
+    </row>
+    <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A737" s="1"/>
+      <c r="B737" s="4"/>
+    </row>
+    <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A738" s="1"/>
+      <c r="B738" s="4"/>
+    </row>
+    <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A739" s="1"/>
+      <c r="B739" s="4"/>
+    </row>
+    <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A740" s="1"/>
+      <c r="B740" s="4"/>
+    </row>
+    <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A741" s="1"/>
+      <c r="B741" s="4"/>
+    </row>
+    <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A742" s="1"/>
+      <c r="B742" s="4"/>
+    </row>
+    <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A743" s="1"/>
+      <c r="B743" s="4"/>
+    </row>
+    <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A744" s="1"/>
+      <c r="B744" s="4"/>
+    </row>
+    <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A745" s="1"/>
+      <c r="B745" s="4"/>
+    </row>
+    <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A746" s="1"/>
+      <c r="B746" s="4"/>
+    </row>
+    <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A747" s="1"/>
+      <c r="B747" s="4"/>
+    </row>
+    <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A748" s="1"/>
+      <c r="B748" s="4"/>
+    </row>
+    <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A749" s="1"/>
+      <c r="B749" s="4"/>
+    </row>
+    <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A750" s="1"/>
+      <c r="B750" s="4"/>
+    </row>
+    <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A751" s="1"/>
+      <c r="B751" s="4"/>
+    </row>
+    <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A752" s="1"/>
+      <c r="B752" s="4"/>
+    </row>
+    <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A753" s="1"/>
+      <c r="B753" s="4"/>
+    </row>
+    <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A754" s="1"/>
+      <c r="B754" s="4"/>
+    </row>
+    <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A755" s="1"/>
+      <c r="B755" s="4"/>
+    </row>
+    <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A756" s="1"/>
+      <c r="B756" s="4"/>
+    </row>
+    <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A757" s="1"/>
+      <c r="B757" s="4"/>
+    </row>
+    <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A758" s="1"/>
+      <c r="B758" s="4"/>
+    </row>
+    <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A759" s="1"/>
+      <c r="B759" s="4"/>
+    </row>
+    <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A760" s="1"/>
+      <c r="B760" s="4"/>
+    </row>
+    <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A761" s="1"/>
+      <c r="B761" s="4"/>
+    </row>
+    <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A762" s="1"/>
+      <c r="B762" s="4"/>
+    </row>
+    <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A763" s="1"/>
+      <c r="B763" s="4"/>
+    </row>
+    <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A764" s="1"/>
+      <c r="B764" s="4"/>
+    </row>
+    <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A765" s="1"/>
+      <c r="B765" s="4"/>
+    </row>
+    <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A766" s="1"/>
+      <c r="B766" s="4"/>
+    </row>
+    <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A767" s="1"/>
+      <c r="B767" s="4"/>
+    </row>
+    <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A768" s="1"/>
+      <c r="B768" s="4"/>
+    </row>
+    <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A769" s="1"/>
+      <c r="B769" s="4"/>
+    </row>
+    <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A770" s="1"/>
+      <c r="B770" s="4"/>
+    </row>
+    <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A771" s="1"/>
+      <c r="B771" s="4"/>
+    </row>
+    <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A772" s="1"/>
+      <c r="B772" s="4"/>
+    </row>
+    <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A773" s="1"/>
+      <c r="B773" s="4"/>
+    </row>
+    <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A774" s="1"/>
+      <c r="B774" s="4"/>
+    </row>
+    <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A775" s="1"/>
+      <c r="B775" s="4"/>
+    </row>
+    <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A776" s="1"/>
+      <c r="B776" s="4"/>
+    </row>
+    <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A777" s="1"/>
+      <c r="B777" s="4"/>
+    </row>
+    <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A778" s="1"/>
+      <c r="B778" s="4"/>
+    </row>
+    <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A779" s="1"/>
+      <c r="B779" s="4"/>
+    </row>
+    <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A780" s="1"/>
+      <c r="B780" s="4"/>
+    </row>
+    <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A781" s="1"/>
+      <c r="B781" s="4"/>
+    </row>
+    <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A782" s="1"/>
+      <c r="B782" s="4"/>
+    </row>
+    <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A783" s="1"/>
+      <c r="B783" s="4"/>
+    </row>
+    <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A784" s="1"/>
+      <c r="B784" s="4"/>
+    </row>
+    <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A785" s="1"/>
+      <c r="B785" s="4"/>
+    </row>
+    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A786" s="1"/>
+      <c r="B786" s="4"/>
+    </row>
+    <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A787" s="1"/>
+      <c r="B787" s="4"/>
+    </row>
+    <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A788" s="1"/>
+      <c r="B788" s="4"/>
+    </row>
+    <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A789" s="1"/>
+      <c r="B789" s="4"/>
+    </row>
+    <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A790" s="1"/>
+      <c r="B790" s="4"/>
+    </row>
+    <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A791" s="1"/>
+      <c r="B791" s="4"/>
+    </row>
+    <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A792" s="1"/>
+      <c r="B792" s="4"/>
+    </row>
+    <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A793" s="1"/>
+      <c r="B793" s="4"/>
+    </row>
+    <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A794" s="1"/>
+      <c r="B794" s="4"/>
+    </row>
+    <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A795" s="1"/>
+      <c r="B795" s="4"/>
+    </row>
+    <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A796" s="1"/>
+      <c r="B796" s="4"/>
+    </row>
+    <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A797" s="1"/>
+      <c r="B797" s="4"/>
+    </row>
+    <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A798" s="1"/>
+      <c r="B798" s="4"/>
+    </row>
+    <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A799" s="1"/>
+      <c r="B799" s="4"/>
+    </row>
+    <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A800" s="1"/>
+      <c r="B800" s="4"/>
+    </row>
+    <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A801" s="1"/>
+      <c r="B801" s="4"/>
+    </row>
+    <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A802" s="1"/>
+      <c r="B802" s="4"/>
+    </row>
+    <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A803" s="1"/>
+      <c r="B803" s="4"/>
+    </row>
+    <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A804" s="1"/>
+      <c r="B804" s="4"/>
+    </row>
+    <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A805" s="1"/>
+      <c r="B805" s="4"/>
+    </row>
+    <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A806" s="1"/>
+      <c r="B806" s="4"/>
+    </row>
+    <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A807" s="1"/>
+      <c r="B807" s="4"/>
+    </row>
+    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A808" s="1"/>
+      <c r="B808" s="4"/>
+    </row>
+    <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A809" s="1"/>
+      <c r="B809" s="4"/>
+    </row>
+    <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A810" s="1"/>
+      <c r="B810" s="4"/>
+    </row>
+    <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A811" s="1"/>
+      <c r="B811" s="4"/>
+    </row>
+    <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A812" s="1"/>
+      <c r="B812" s="4"/>
+    </row>
+    <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A813" s="1"/>
+      <c r="B813" s="4"/>
+    </row>
+    <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A814" s="1"/>
+      <c r="B814" s="4"/>
+    </row>
+    <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A815" s="1"/>
+      <c r="B815" s="4"/>
+    </row>
+    <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A816" s="1"/>
+      <c r="B816" s="4"/>
+    </row>
+    <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A817" s="1"/>
+      <c r="B817" s="4"/>
+    </row>
+    <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A818" s="1"/>
+      <c r="B818" s="4"/>
+    </row>
+    <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A819" s="1"/>
+      <c r="B819" s="4"/>
+    </row>
+    <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A820" s="1"/>
+      <c r="B820" s="4"/>
+    </row>
+    <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A821" s="1"/>
+      <c r="B821" s="4"/>
+    </row>
+    <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A822" s="1"/>
+      <c r="B822" s="4"/>
+    </row>
+    <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A823" s="1"/>
+      <c r="B823" s="4"/>
+    </row>
+    <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A824" s="1"/>
+      <c r="B824" s="4"/>
+    </row>
+    <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A825" s="1"/>
+      <c r="B825" s="4"/>
+    </row>
+    <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A826" s="1"/>
+      <c r="B826" s="4"/>
+    </row>
+    <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A827" s="1"/>
+      <c r="B827" s="4"/>
+    </row>
+    <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A828" s="1"/>
+      <c r="B828" s="4"/>
+    </row>
+    <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A829" s="1"/>
+      <c r="B829" s="4"/>
+    </row>
+    <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A830" s="1"/>
+      <c r="B830" s="4"/>
+    </row>
+    <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A831" s="1"/>
+      <c r="B831" s="4"/>
+    </row>
+    <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A832" s="1"/>
+      <c r="B832" s="4"/>
+    </row>
+    <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A833" s="1"/>
+      <c r="B833" s="4"/>
+    </row>
+    <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A834" s="1"/>
+      <c r="B834" s="4"/>
+    </row>
+    <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A835" s="1"/>
+      <c r="B835" s="4"/>
+    </row>
+    <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A836" s="1"/>
+      <c r="B836" s="4"/>
+    </row>
+    <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A837" s="1"/>
+      <c r="B837" s="4"/>
+    </row>
+    <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A838" s="1"/>
+      <c r="B838" s="4"/>
+    </row>
+    <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A839" s="1"/>
+      <c r="B839" s="4"/>
+    </row>
+    <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A840" s="1"/>
+      <c r="B840" s="4"/>
+    </row>
+    <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A841" s="1"/>
+      <c r="B841" s="4"/>
+    </row>
+    <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A842" s="1"/>
+      <c r="B842" s="4"/>
+    </row>
+    <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A843" s="1"/>
+      <c r="B843" s="4"/>
+    </row>
+    <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A844" s="1"/>
+      <c r="B844" s="4"/>
+    </row>
+    <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A845" s="1"/>
+      <c r="B845" s="4"/>
+    </row>
+    <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A846" s="1"/>
+      <c r="B846" s="4"/>
+    </row>
+    <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A847" s="1"/>
+      <c r="B847" s="4"/>
+    </row>
+    <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A848" s="1"/>
+      <c r="B848" s="4"/>
+    </row>
+    <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A849" s="1"/>
+      <c r="B849" s="4"/>
+    </row>
+    <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A850" s="1"/>
+      <c r="B850" s="4"/>
+    </row>
+    <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A851" s="1"/>
+      <c r="B851" s="4"/>
+    </row>
+    <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A852" s="1"/>
+      <c r="B852" s="4"/>
+    </row>
+    <row r="853" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A853" s="1"/>
+      <c r="B853" s="4"/>
+    </row>
+    <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A854" s="1"/>
+      <c r="B854" s="4"/>
+    </row>
+    <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A855" s="1"/>
+      <c r="B855" s="4"/>
+    </row>
+    <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A856" s="1"/>
+      <c r="B856" s="4"/>
+    </row>
+    <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A857" s="1"/>
+      <c r="B857" s="4"/>
+    </row>
+    <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A858" s="1"/>
+      <c r="B858" s="4"/>
+    </row>
+    <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A859" s="1"/>
+      <c r="B859" s="4"/>
+    </row>
+    <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A860" s="1"/>
+      <c r="B860" s="4"/>
+    </row>
+    <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A861" s="1"/>
+      <c r="B861" s="4"/>
+    </row>
+    <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A862" s="1"/>
+      <c r="B862" s="4"/>
+    </row>
+    <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A863" s="1"/>
+      <c r="B863" s="4"/>
+    </row>
+    <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A864" s="1"/>
+      <c r="B864" s="4"/>
+    </row>
+    <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A865" s="1"/>
+      <c r="B865" s="4"/>
+    </row>
+    <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A866" s="1"/>
+      <c r="B866" s="4"/>
+    </row>
+    <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A867" s="1"/>
+      <c r="B867" s="4"/>
+    </row>
+    <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A868" s="1"/>
+      <c r="B868" s="4"/>
+    </row>
+    <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A869" s="1"/>
+      <c r="B869" s="4"/>
+    </row>
+    <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A870" s="1"/>
+      <c r="B870" s="4"/>
+    </row>
+    <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A871" s="1"/>
+      <c r="B871" s="4"/>
+    </row>
+    <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A872" s="1"/>
+      <c r="B872" s="4"/>
+    </row>
+    <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A873" s="1"/>
+      <c r="B873" s="4"/>
+    </row>
+    <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A874" s="1"/>
+      <c r="B874" s="4"/>
+    </row>
+    <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A875" s="1"/>
+      <c r="B875" s="4"/>
+    </row>
+    <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A876" s="1"/>
+      <c r="B876" s="4"/>
+    </row>
+    <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A877" s="1"/>
+      <c r="B877" s="4"/>
+    </row>
+    <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A878" s="1"/>
+      <c r="B878" s="4"/>
+    </row>
+    <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A879" s="1"/>
+      <c r="B879" s="4"/>
+    </row>
+    <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A880" s="1"/>
+      <c r="B880" s="4"/>
+    </row>
+    <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A881" s="1"/>
+      <c r="B881" s="4"/>
+    </row>
+    <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A882" s="1"/>
+      <c r="B882" s="4"/>
+    </row>
+    <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A883" s="1"/>
+      <c r="B883" s="4"/>
+    </row>
+    <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A884" s="1"/>
+      <c r="B884" s="4"/>
+    </row>
+    <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A885" s="1"/>
+      <c r="B885" s="4"/>
+    </row>
+    <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A886" s="1"/>
+      <c r="B886" s="4"/>
+    </row>
+    <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A887" s="1"/>
+      <c r="B887" s="4"/>
+    </row>
+    <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A888" s="1"/>
+      <c r="B888" s="4"/>
+    </row>
+    <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A889" s="1"/>
+      <c r="B889" s="4"/>
+    </row>
+    <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A890" s="1"/>
+      <c r="B890" s="4"/>
+    </row>
+    <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A891" s="1"/>
+      <c r="B891" s="4"/>
+    </row>
+    <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A892" s="1"/>
+      <c r="B892" s="4"/>
+    </row>
+    <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A893" s="1"/>
+      <c r="B893" s="4"/>
+    </row>
+    <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A894" s="1"/>
+      <c r="B894" s="4"/>
+    </row>
+    <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A895" s="1"/>
+      <c r="B895" s="4"/>
+    </row>
+    <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A896" s="1"/>
+      <c r="B896" s="4"/>
+    </row>
+    <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A897" s="1"/>
+      <c r="B897" s="4"/>
+    </row>
+    <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A898" s="1"/>
+      <c r="B898" s="4"/>
+    </row>
+    <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A899" s="1"/>
+      <c r="B899" s="4"/>
+    </row>
+    <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A900" s="1"/>
+      <c r="B900" s="4"/>
+    </row>
+    <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A901" s="1"/>
+      <c r="B901" s="4"/>
+    </row>
+    <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A902" s="1"/>
+      <c r="B902" s="4"/>
+    </row>
+    <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A903" s="1"/>
+      <c r="B903" s="4"/>
+    </row>
+    <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A904" s="1"/>
+      <c r="B904" s="4"/>
+    </row>
+    <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A905" s="1"/>
+      <c r="B905" s="4"/>
+    </row>
+    <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A906" s="1"/>
+      <c r="B906" s="4"/>
+    </row>
+    <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A907" s="1"/>
+      <c r="B907" s="4"/>
+    </row>
+    <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A908" s="1"/>
+      <c r="B908" s="4"/>
+    </row>
+    <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A909" s="1"/>
+      <c r="B909" s="4"/>
+    </row>
+    <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A910" s="1"/>
+      <c r="B910" s="4"/>
+    </row>
+    <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A911" s="1"/>
+      <c r="B911" s="4"/>
+    </row>
+    <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A912" s="1"/>
+      <c r="B912" s="4"/>
+    </row>
+    <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A913" s="1"/>
+      <c r="B913" s="4"/>
+    </row>
+    <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A914" s="1"/>
+      <c r="B914" s="4"/>
+    </row>
+    <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A915" s="1"/>
+      <c r="B915" s="4"/>
+    </row>
+    <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A916" s="1"/>
+      <c r="B916" s="4"/>
+    </row>
+    <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A917" s="1"/>
+      <c r="B917" s="4"/>
+    </row>
+    <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A918" s="1"/>
+      <c r="B918" s="4"/>
+    </row>
+    <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A919" s="1"/>
+      <c r="B919" s="4"/>
+    </row>
+    <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A920" s="1"/>
+      <c r="B920" s="4"/>
+    </row>
+    <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A921" s="1"/>
+      <c r="B921" s="4"/>
+    </row>
+    <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A922" s="1"/>
+      <c r="B922" s="4"/>
+    </row>
+    <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A923" s="1"/>
+      <c r="B923" s="4"/>
+    </row>
+    <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A924" s="1"/>
+      <c r="B924" s="4"/>
+    </row>
+    <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A925" s="1"/>
+      <c r="B925" s="4"/>
+    </row>
+    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A926" s="1"/>
+      <c r="B926" s="4"/>
+    </row>
+    <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A927" s="1"/>
+      <c r="B927" s="4"/>
+    </row>
+    <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A928" s="1"/>
+      <c r="B928" s="4"/>
+    </row>
+    <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A929" s="1"/>
+      <c r="B929" s="4"/>
+    </row>
+    <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A930" s="1"/>
+      <c r="B930" s="4"/>
+    </row>
+    <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A931" s="1"/>
+      <c r="B931" s="4"/>
+    </row>
+    <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A932" s="1"/>
+      <c r="B932" s="4"/>
+    </row>
+    <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A933" s="1"/>
+      <c r="B933" s="4"/>
+    </row>
+    <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A934" s="1"/>
+      <c r="B934" s="4"/>
+    </row>
+    <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A935" s="1"/>
+      <c r="B935" s="4"/>
+    </row>
+    <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A936" s="1"/>
+      <c r="B936" s="4"/>
+    </row>
+    <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A937" s="1"/>
+      <c r="B937" s="4"/>
+    </row>
+    <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A938" s="1"/>
+      <c r="B938" s="4"/>
+    </row>
+    <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A939" s="1"/>
+      <c r="B939" s="4"/>
+    </row>
+    <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A940" s="1"/>
+      <c r="B940" s="4"/>
+    </row>
+    <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A941" s="1"/>
+      <c r="B941" s="4"/>
+    </row>
+    <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A942" s="1"/>
+      <c r="B942" s="4"/>
+    </row>
+    <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A943" s="1"/>
+      <c r="B943" s="4"/>
+    </row>
+    <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A944" s="1"/>
+      <c r="B944" s="4"/>
+    </row>
+    <row r="945" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A945" s="1"/>
+      <c r="B945" s="4"/>
+    </row>
+    <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A946" s="1"/>
+      <c r="B946" s="4"/>
+    </row>
+    <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A947" s="1"/>
+      <c r="B947" s="4"/>
+    </row>
+    <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A948" s="1"/>
+      <c r="B948" s="4"/>
+    </row>
+    <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A949" s="1"/>
+      <c r="B949" s="4"/>
+    </row>
+    <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A950" s="1"/>
+      <c r="B950" s="4"/>
+    </row>
+    <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A951" s="1"/>
+      <c r="B951" s="4"/>
+    </row>
+    <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A952" s="1"/>
+      <c r="B952" s="4"/>
+    </row>
+    <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A953" s="1"/>
+      <c r="B953" s="4"/>
+    </row>
+    <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A954" s="1"/>
+      <c r="B954" s="4"/>
+    </row>
+    <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A955" s="1"/>
+      <c r="B955" s="4"/>
+    </row>
+    <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A956" s="1"/>
+      <c r="B956" s="4"/>
+    </row>
+    <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A957" s="1"/>
+      <c r="B957" s="4"/>
+    </row>
+    <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A958" s="1"/>
+      <c r="B958" s="4"/>
+    </row>
+    <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A959" s="1"/>
+      <c r="B959" s="4"/>
+    </row>
+    <row r="960" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A960" s="1"/>
+      <c r="B960" s="4"/>
+    </row>
+    <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A961" s="1"/>
+      <c r="B961" s="4"/>
+    </row>
+    <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A962" s="1"/>
+      <c r="B962" s="4"/>
+    </row>
+    <row r="963" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A963" s="1"/>
+      <c r="B963" s="4"/>
+    </row>
+    <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A964" s="1"/>
+      <c r="B964" s="4"/>
+    </row>
+    <row r="965" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A965" s="1"/>
+      <c r="B965" s="4"/>
+    </row>
+    <row r="966" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A966" s="1"/>
+      <c r="B966" s="4"/>
+    </row>
+    <row r="967" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A967" s="1"/>
+      <c r="B967" s="4"/>
+    </row>
+    <row r="968" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A968" s="1"/>
+      <c r="B968" s="4"/>
+    </row>
+    <row r="969" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A969" s="1"/>
+      <c r="B969" s="4"/>
+    </row>
+    <row r="970" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A970" s="1"/>
+      <c r="B970" s="4"/>
+    </row>
+    <row r="971" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A971" s="1"/>
+      <c r="B971" s="4"/>
+    </row>
+    <row r="972" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A972" s="1"/>
+      <c r="B972" s="4"/>
+    </row>
+    <row r="973" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A973" s="1"/>
+      <c r="B973" s="4"/>
+    </row>
+    <row r="974" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A974" s="1"/>
+      <c r="B974" s="4"/>
+    </row>
+    <row r="975" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A975" s="1"/>
+      <c r="B975" s="4"/>
+    </row>
+    <row r="976" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A976" s="1"/>
+      <c r="B976" s="4"/>
+    </row>
+    <row r="977" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A977" s="1"/>
+      <c r="B977" s="4"/>
+    </row>
+    <row r="978" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A978" s="1"/>
+      <c r="B978" s="4"/>
+    </row>
+    <row r="979" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A979" s="1"/>
+      <c r="B979" s="4"/>
+    </row>
+    <row r="980" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A980" s="1"/>
+      <c r="B980" s="4"/>
+    </row>
+    <row r="981" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A981" s="1"/>
+      <c r="B981" s="4"/>
+    </row>
+    <row r="982" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A982" s="1"/>
+      <c r="B982" s="4"/>
+    </row>
+    <row r="983" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A983" s="1"/>
+      <c r="B983" s="4"/>
+    </row>
+    <row r="984" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A984" s="1"/>
+      <c r="B984" s="4"/>
+    </row>
+    <row r="985" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A985" s="1"/>
+      <c r="B985" s="4"/>
+    </row>
+    <row r="986" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A986" s="1"/>
+      <c r="B986" s="4"/>
+    </row>
+    <row r="987" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A987" s="1"/>
+      <c r="B987" s="4"/>
+    </row>
+    <row r="988" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A988" s="1"/>
+      <c r="B988" s="4"/>
+    </row>
+    <row r="989" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A989" s="1"/>
+      <c r="B989" s="4"/>
+    </row>
+    <row r="990" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A990" s="1"/>
+      <c r="B990" s="4"/>
+    </row>
+    <row r="991" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A991" s="1"/>
+      <c r="B991" s="4"/>
+    </row>
+    <row r="992" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A992" s="1"/>
+      <c r="B992" s="4"/>
+    </row>
+    <row r="993" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A993" s="1"/>
+      <c r="B993" s="4"/>
+    </row>
+    <row r="994" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A994" s="1"/>
+      <c r="B994" s="4"/>
+    </row>
+    <row r="995" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A995" s="1"/>
+      <c r="B995" s="4"/>
+    </row>
+    <row r="996" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A996" s="1"/>
+      <c r="B996" s="4"/>
+    </row>
+    <row r="997" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A997" s="1"/>
+      <c r="B997" s="4"/>
+    </row>
+    <row r="998" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A998" s="1"/>
+      <c r="B998" s="4"/>
+    </row>
+    <row r="999" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A999" s="1"/>
+      <c r="B999" s="4"/>
+    </row>
+    <row r="1000" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="4"/>
+    </row>
+    <row r="1001" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50829285-4FF1-8B47-9E04-3E96B15C84CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8B956-AE15-9C4E-8879-D65C5B993AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
     <sheet name="Week 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 6" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -188,6 +189,17 @@
   <si>
     <t>Come up with test cases for bootstrap function</t>
   </si>
+  <si>
+    <t>Pair Programme with Wei Chen
+(amend protect.php to separate student and admin logins) </t>
+  </si>
+  <si>
+    <t>Pair Programme with Shermin 
+(amend protect.php to separate student and admin logins)</t>
+  </si>
+  <si>
+    <t>Week: 30 Sep to 6 Oct</t>
+  </si>
 </sst>
 </file>
 
@@ -280,10 +292,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,15 +622,15 @@
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -5040,7 +5052,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5057,15 +5069,15 @@
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -5111,8 +5123,12 @@
       <c r="F3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5132,8 +5148,12 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,8 +5173,12 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5176,8 +5200,12 @@
       <c r="F6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,8 +5225,12 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5218,8 +5250,12 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5241,8 +5277,12 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5262,8 +5302,12 @@
       <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5283,8 +5327,12 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,8 +5354,12 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5327,8 +5379,12 @@
       <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5348,8 +5404,12 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5371,8 +5431,12 @@
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5392,8 +5456,12 @@
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -5413,8 +5481,12 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -9366,4 +9438,282 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797787E-2DE6-A14C-AD00-A68C9C43AB2B}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8B956-AE15-9C4E-8879-D65C5B993AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110B3F3-7C0A-1D49-8899-6DF32D6D4809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="58">
   <si>
     <t>Question</t>
   </si>
@@ -199,6 +199,20 @@
   </si>
   <si>
     <t>Week: 30 Sep to 6 Oct</t>
+  </si>
+  <si>
+    <t>PM Review Preparation</t>
+  </si>
+  <si>
+    <t>Pair Programme with Geralyn
+(authenticate and bootstrap Json checker) </t>
+  </si>
+  <si>
+    <t>Pair Programme with Wei Ling
+(authenticate and bootstrap Json checker) </t>
+  </si>
+  <si>
+    <t>Run bootstrap and login testcases</t>
   </si>
 </sst>
 </file>
@@ -5048,11 +5062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5129,7 +5143,9 @@
       <c r="H3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -5154,7 +5170,9 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
@@ -5179,7 +5197,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -5206,7 +5226,9 @@
       <c r="H6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
@@ -5231,7 +5253,9 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
@@ -5256,7 +5280,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -5283,7 +5309,9 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -5308,7 +5336,9 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
@@ -5333,7 +5363,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -5360,7 +5392,9 @@
       <c r="H12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -5385,7 +5419,9 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -5410,7 +5446,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -5437,7 +5475,9 @@
       <c r="H15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -5462,7 +5502,9 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -5487,7 +5529,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -9444,11 +9488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797787E-2DE6-A14C-AD00-A68C9C43AB2B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9473,7 +9517,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">
@@ -9505,7 +9549,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -9518,7 +9564,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -9531,7 +9579,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -9546,7 +9596,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -9559,7 +9611,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -9572,7 +9626,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -9587,7 +9643,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -9600,7 +9658,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -9613,7 +9673,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -9628,7 +9690,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -9641,7 +9705,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -9654,7 +9720,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -9669,7 +9737,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -9682,7 +9752,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -9695,7 +9767,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D15B36-9513-C947-86D0-5A8AC753EA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582BE3F-EC5A-104D-A177-B14BB3AAB013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>PM review preparations</t>
+  </si>
+  <si>
+    <t>PM Review</t>
   </si>
 </sst>
 </file>
@@ -9507,10 +9510,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9576,7 +9579,9 @@
       <c r="E3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -9595,7 +9600,9 @@
       <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -9614,7 +9621,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -9635,7 +9644,9 @@
       <c r="E6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -9654,7 +9665,9 @@
       <c r="E7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -9673,7 +9686,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -9694,7 +9709,9 @@
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -9713,7 +9730,9 @@
       <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -9732,7 +9751,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -9753,7 +9774,9 @@
       <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -9772,7 +9795,9 @@
       <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -9791,7 +9816,9 @@
       <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -9812,7 +9839,9 @@
       <c r="E15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -9831,7 +9860,9 @@
       <c r="E16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -9850,7 +9881,9 @@
       <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582BE3F-EC5A-104D-A177-B14BB3AAB013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4000329-7B99-444F-A12D-5F69A34468EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 4" sheetId="1" r:id="rId1"/>
-    <sheet name="Week 5" sheetId="2" r:id="rId2"/>
-    <sheet name="Week 6" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 6" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 7" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 8" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="67">
   <si>
     <t>Question</t>
   </si>
@@ -234,6 +235,13 @@
   </si>
   <si>
     <t>PM Review</t>
+  </si>
+  <si>
+    <t>Team meeting for Iteration 2
+(functions to complete, tasks to do and its allocation)</t>
+  </si>
+  <si>
+    <t>Week: 7 Oct to 13 Oct</t>
   </si>
 </sst>
 </file>
@@ -631,11 +639,11 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -712,7 +720,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -741,7 +749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -768,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -795,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -824,7 +832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -851,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -878,7 +886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -907,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -934,7 +942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -961,7 +969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -990,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -1017,7 +1025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -1044,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -1100,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -5083,11 +5091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="65" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5139,7 +5147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -5195,7 +5203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -5222,7 +5230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -5278,7 +5286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -5305,7 +5313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -5361,7 +5369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -5388,7 +5396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -5444,7 +5452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -5471,7 +5479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -5527,7 +5535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -9509,11 +9517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797787E-2DE6-A14C-AD00-A68C9C43AB2B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9563,7 +9571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -9582,308 +9590,616 @@
       <c r="F3" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="25.83203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4000329-7B99-444F-A12D-5F69A34468EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2EA970-A590-B041-8692-ACC03B266946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>Week: 7 Oct to 13 Oct</t>
+  </si>
+  <si>
+    <t>Drop bid function</t>
+  </si>
+  <si>
+    <t>Work out Iteration 2 critical path</t>
+  </si>
+  <si>
+    <t>Place bid function (check active bidding round, invalid inputs and timetable clashes)</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9517,11 +9526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797787E-2DE6-A14C-AD00-A68C9C43AB2B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9593,7 +9602,9 @@
       <c r="G3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9616,7 +9627,9 @@
       <c r="G4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9639,7 +9652,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9664,7 +9679,9 @@
       <c r="G6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9687,7 +9704,9 @@
       <c r="G7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9710,7 +9729,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9735,7 +9756,9 @@
       <c r="G9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9758,7 +9781,9 @@
       <c r="G10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9781,7 +9806,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9806,7 +9833,9 @@
       <c r="G12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9829,7 +9858,9 @@
       <c r="G13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9852,7 +9883,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9877,7 +9910,9 @@
       <c r="G15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9900,7 +9935,9 @@
       <c r="G16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -9923,7 +9960,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2EA970-A590-B041-8692-ACC03B266946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC3365-5671-0D41-8133-5AB83080C152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="73">
   <si>
     <t>Question</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>Place bid function (check active bidding round, invalid inputs and timetable clashes)</t>
+  </si>
+  <si>
+    <t>Success messages are not displayed in green</t>
+  </si>
+  <si>
+    <t>Complete and combine place bid function</t>
+  </si>
+  <si>
+    <t>Drop section function</t>
   </si>
 </sst>
 </file>
@@ -9527,10 +9536,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9605,7 +9614,9 @@
       <c r="H3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -9630,7 +9641,9 @@
       <c r="H4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
@@ -9655,7 +9668,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -9682,7 +9697,9 @@
       <c r="H6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
@@ -9707,7 +9724,9 @@
       <c r="H7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
@@ -9732,7 +9751,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -9759,7 +9780,9 @@
       <c r="H9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -9784,7 +9807,9 @@
       <c r="H10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
@@ -9809,7 +9834,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -9836,7 +9863,9 @@
       <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -9861,7 +9890,9 @@
       <c r="H13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -9886,7 +9917,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -9913,7 +9946,9 @@
       <c r="H15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -9938,7 +9973,9 @@
       <c r="H16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -9963,7 +10000,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC3365-5671-0D41-8133-5AB83080C152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4DB1B8-02B0-8544-A2C9-FF38A49AA293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="73">
   <si>
     <t>Question</t>
   </si>
@@ -9535,11 +9535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797787E-2DE6-A14C-AD00-A68C9C43AB2B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10023,11 +10023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10084,7 +10084,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -10097,7 +10099,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -10110,7 +10114,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -10125,7 +10131,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -10138,7 +10146,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -10151,7 +10161,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -10166,7 +10178,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -10179,7 +10193,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -10192,7 +10208,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -10207,7 +10225,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -10220,7 +10240,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -10233,7 +10255,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -10248,7 +10272,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -10261,7 +10287,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -10274,7 +10302,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4DB1B8-02B0-8544-A2C9-FF38A49AA293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5FDE65-01D8-784B-A133-A6ECEBEBCCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>Drop section function</t>
+  </si>
+  <si>
+    <t>Bid section and drop bid json checker</t>
+  </si>
+  <si>
+    <t>drop section json checker</t>
+  </si>
+  <si>
+    <t>Begin on testcases for the 3 new functions</t>
   </si>
 </sst>
 </file>
@@ -10027,7 +10036,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10087,7 +10096,9 @@
       <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -10102,7 +10113,9 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10117,7 +10130,9 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10134,7 +10149,9 @@
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10149,7 +10166,9 @@
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10164,7 +10183,9 @@
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10181,7 +10202,9 @@
       <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10196,7 +10219,9 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10211,7 +10236,9 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10228,7 +10255,9 @@
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -10243,7 +10272,9 @@
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -10258,7 +10289,9 @@
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10275,7 +10308,9 @@
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10290,7 +10325,9 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10305,7 +10342,9 @@
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5FDE65-01D8-784B-A133-A6ECEBEBCCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71788195-0E4E-FC48-9F03-30F7F9D285DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -265,10 +265,22 @@
     <t>Bid section and drop bid json checker</t>
   </si>
   <si>
-    <t>drop section json checker</t>
+    <t>Begin on testcases for the 3 new functions</t>
   </si>
   <si>
-    <t>Begin on testcases for the 3 new functions</t>
+    <t>Bid section and drop bid json checker + testcases</t>
+  </si>
+  <si>
+    <t>Continue with testcases for the 3 new functions</t>
+  </si>
+  <si>
+    <t>Drop section json checker</t>
+  </si>
+  <si>
+    <t>Drop section json checker + testcases</t>
+  </si>
+  <si>
+    <t>Run testcases and update BM</t>
   </si>
 </sst>
 </file>
@@ -10032,11 +10044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10099,8 +10111,12 @@
       <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10116,8 +10132,12 @@
       <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -10133,8 +10153,12 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10152,8 +10176,12 @@
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -10167,10 +10195,14 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -10186,8 +10218,12 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -10205,8 +10241,12 @@
       <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -10222,8 +10262,12 @@
       <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -10239,8 +10283,12 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -10258,8 +10306,12 @@
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10273,10 +10325,14 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -10292,8 +10348,12 @@
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10311,8 +10371,12 @@
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -10326,10 +10390,14 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10345,8 +10413,12 @@
       <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71788195-0E4E-FC48-9F03-30F7F9D285DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D4163-4D8B-4A41-9E12-BD8D136B717C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Drop section json checker + testcases</t>
   </si>
   <si>
-    <t>Run testcases and update BM</t>
+    <t>Complete testcases</t>
   </si>
 </sst>
 </file>
@@ -10045,10 +10045,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10117,7 +10117,9 @@
       <c r="F3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -10138,7 +10140,9 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -10159,7 +10163,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -10180,9 +10186,11 @@
         <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -10198,12 +10206,14 @@
         <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -10224,7 +10234,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -10247,7 +10259,9 @@
       <c r="F9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -10268,7 +10282,9 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -10289,7 +10305,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -10312,7 +10330,9 @@
       <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -10333,7 +10353,9 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -10354,7 +10376,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -10377,7 +10401,9 @@
       <c r="F15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -10398,7 +10424,9 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -10419,7 +10447,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D4163-4D8B-4A41-9E12-BD8D136B717C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962205B-FE2C-B443-B095-DD6B1070BCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
     <sheet name="Week 6" sheetId="2" r:id="rId2"/>
     <sheet name="Week 7" sheetId="3" r:id="rId3"/>
     <sheet name="Week 8" sheetId="4" r:id="rId4"/>
+    <sheet name="Week 9" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -281,6 +282,15 @@
   </si>
   <si>
     <t>Complete testcases</t>
+  </si>
+  <si>
+    <t>Complete testcases + start round function</t>
+  </si>
+  <si>
+    <t>Complete testcases + clear round 1 function</t>
+  </si>
+  <si>
+    <t>Week: 14 Oct to 21 Oct</t>
   </si>
 </sst>
 </file>
@@ -10044,11 +10054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10120,7 +10130,9 @@
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10143,7 +10155,9 @@
       <c r="G4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10166,7 +10180,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10191,7 +10207,9 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10214,7 +10232,9 @@
       <c r="G7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10237,7 +10257,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10262,7 +10284,9 @@
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10285,7 +10309,9 @@
       <c r="G10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10308,7 +10334,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10333,7 +10361,9 @@
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10356,7 +10386,9 @@
       <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10379,7 +10411,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10404,7 +10438,9 @@
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10427,7 +10463,9 @@
       <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -10450,6 +10488,286 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A70D3C-0BC5-2A46-9E56-0CDA371EBA40}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962205B-FE2C-B443-B095-DD6B1070BCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFAB29-CEDB-244C-B2ED-7CC134D61215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="86">
   <si>
     <t>Question</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>Week: 14 Oct to 21 Oct</t>
+  </si>
+  <si>
+    <t>Clear round 2 function and combine it</t>
+  </si>
+  <si>
+    <t>Debug after running of testcase</t>
+  </si>
+  <si>
+    <t>Prepare bug metrics</t>
   </si>
 </sst>
 </file>
@@ -10054,11 +10063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B17"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10133,7 +10142,9 @@
       <c r="H3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -10158,7 +10169,9 @@
       <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -10183,7 +10196,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -10210,7 +10225,9 @@
       <c r="H6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -10235,7 +10252,9 @@
       <c r="H7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -10260,7 +10279,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -10287,7 +10308,9 @@
       <c r="H9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -10312,7 +10335,9 @@
       <c r="H10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -10337,7 +10362,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -10364,7 +10391,9 @@
       <c r="H12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -10389,7 +10418,9 @@
       <c r="H13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -10414,7 +10445,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -10441,7 +10474,9 @@
       <c r="H15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -10466,7 +10501,9 @@
       <c r="H16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -10491,7 +10528,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10512,7 +10551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A70D3C-0BC5-2A46-9E56-0CDA371EBA40}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10541,7 +10580,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFAB29-CEDB-244C-B2ED-7CC134D61215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67787C26-2B93-FE4A-821C-92A68E13B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="88">
   <si>
     <t>Question</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Prepare bug metrics</t>
+  </si>
+  <si>
+    <t>Deploy app, test and debug</t>
+  </si>
+  <si>
+    <t>Test deployed app and debug</t>
   </si>
 </sst>
 </file>
@@ -10063,11 +10069,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481EF7EE-837A-C748-882A-7F6FC7BBE450}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10551,11 +10557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A70D3C-0BC5-2A46-9E56-0CDA371EBA40}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10612,7 +10618,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -10625,7 +10633,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -10638,7 +10648,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -10653,7 +10665,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -10666,7 +10680,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -10679,7 +10695,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -10694,7 +10712,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -10707,7 +10727,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -10720,7 +10742,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -10735,7 +10759,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -10748,7 +10774,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -10761,7 +10789,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -10776,7 +10806,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -10789,7 +10821,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -10802,7 +10836,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67787C26-2B93-FE4A-821C-92A68E13B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13613D04-3C98-0D4C-AD40-5157C190B1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="88">
   <si>
     <t>Question</t>
   </si>
@@ -10558,10 +10558,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17:D21"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10621,7 +10621,9 @@
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -10636,7 +10638,9 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10651,7 +10655,9 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10668,7 +10674,9 @@
       <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10683,7 +10691,9 @@
       <c r="C7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10698,7 +10708,9 @@
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10715,7 +10727,9 @@
       <c r="C9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10730,7 +10744,9 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10745,7 +10761,9 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10762,7 +10780,9 @@
       <c r="C12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -10777,7 +10797,9 @@
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -10792,7 +10814,9 @@
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10809,7 +10833,9 @@
       <c r="C15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10824,7 +10850,9 @@
       <c r="C16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10839,7 +10867,9 @@
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13613D04-3C98-0D4C-AD40-5157C190B1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60BF15-E49F-384F-AE90-50F10BA7FEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Week 7" sheetId="3" r:id="rId3"/>
     <sheet name="Week 8" sheetId="4" r:id="rId4"/>
     <sheet name="Week 9" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 10" sheetId="6" r:id="rId6"/>
+    <sheet name="Week 11" sheetId="7" r:id="rId7"/>
+    <sheet name="Week 12" sheetId="8" r:id="rId8"/>
+    <sheet name="Week 13" sheetId="9" r:id="rId9"/>
+    <sheet name="Week 14" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="94">
   <si>
     <t>Question</t>
   </si>
@@ -290,9 +295,6 @@
     <t>Complete testcases + clear round 1 function</t>
   </si>
   <si>
-    <t>Week: 14 Oct to 21 Oct</t>
-  </si>
-  <si>
     <t>Clear round 2 function and combine it</t>
   </si>
   <si>
@@ -306,6 +308,27 @@
   </si>
   <si>
     <t>Test deployed app and debug</t>
+  </si>
+  <si>
+    <t>Prepare app demo and progress update deliverables</t>
+  </si>
+  <si>
+    <t>Week: 14 Oct to 20 Oct</t>
+  </si>
+  <si>
+    <t>Week: 21 Oct to 27 Oct</t>
+  </si>
+  <si>
+    <t>Week: 28 Oct to 3 Nov</t>
+  </si>
+  <si>
+    <t>Week: 4 Nov to 10 Nov</t>
+  </si>
+  <si>
+    <t>Week: 11 Nov to 17 Nov</t>
+  </si>
+  <si>
+    <t>Week: 18 Nov to 24 Nov</t>
   </si>
 </sst>
 </file>
@@ -5151,6 +5174,284 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D329D56-B4E6-A741-8F1C-1B236FB18199}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
@@ -10070,10 +10371,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10081,7 +10382,7 @@
     <col min="1" max="9" width="25.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -10098,7 +10399,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">
@@ -10123,7 +10424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -10152,7 +10453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -10176,10 +10477,10 @@
         <v>80</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -10206,7 +10507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -10235,7 +10536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -10259,10 +10560,10 @@
         <v>79</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -10289,7 +10590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -10318,7 +10619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -10342,10 +10643,10 @@
         <v>80</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -10372,7 +10673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -10401,7 +10702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -10425,10 +10726,10 @@
         <v>81</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -10455,7 +10756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -10484,7 +10785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -10508,10 +10809,10 @@
         <v>81</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -10561,7 +10862,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10577,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -10619,11 +10920,375 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F80F15-7EDB-A24D-9E12-CEF767B2E501}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -10635,12 +11300,8 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10652,12 +11313,8 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10671,12 +11328,8 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10688,12 +11341,8 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10705,12 +11354,8 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10724,12 +11369,8 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10741,12 +11382,8 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10758,12 +11395,8 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10777,12 +11410,8 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -10794,12 +11423,8 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -10811,12 +11436,8 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10830,12 +11451,8 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10847,12 +11464,8 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10864,12 +11477,842 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A34FEB-DAD5-9143-886E-3EB69BEEF73E}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F311D3-DB5D-434C-A138-D6E762210AAD}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B36927-73C5-5B47-AF35-F1F069D84D34}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60BF15-E49F-384F-AE90-50F10BA7FEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AB7B1-F04F-7845-9F7E-1104D72011D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="95">
   <si>
     <t>Question</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Week: 18 Nov to 24 Nov</t>
+  </si>
+  <si>
+    <t>App Demo &amp; Progress Update</t>
   </si>
 </sst>
 </file>
@@ -10859,10 +10862,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10928,7 +10931,9 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10947,7 +10952,9 @@
       <c r="E4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -10966,7 +10973,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10987,7 +10996,9 @@
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -11006,7 +11017,9 @@
       <c r="E7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -11025,7 +11038,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -11046,7 +11061,9 @@
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -11065,7 +11082,9 @@
       <c r="E10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -11084,7 +11103,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -11105,7 +11126,9 @@
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -11124,7 +11147,9 @@
       <c r="E13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -11143,7 +11168,9 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -11164,7 +11191,9 @@
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -11183,7 +11212,9 @@
       <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -11202,7 +11233,9 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS212/G5T7/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AB7B1-F04F-7845-9F7E-1104D72011D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF79695-D9F2-084C-9FE1-D5F60CEA7227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="96">
   <si>
     <t>Question</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>App Demo &amp; Progress Update</t>
+  </si>
+  <si>
+    <t>Plan for Iteration 3 tasks and its allocation</t>
   </si>
 </sst>
 </file>
@@ -10862,10 +10865,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10934,7 +10937,9 @@
       <c r="F3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -10955,7 +10960,9 @@
       <c r="F4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -10976,7 +10983,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -10999,7 +11008,9 @@
       <c r="F6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -11020,7 +11031,9 @@
       <c r="F7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -11041,7 +11054,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -11064,7 +11079,9 @@
       <c r="F9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -11085,7 +11102,9 @@
       <c r="F10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -11106,7 +11125,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -11129,7 +11150,9 @@
       <c r="F12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -11150,7 +11173,9 @@
       <c r="F13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -11171,7 +11196,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -11194,7 +11221,9 @@
       <c r="F15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -11215,7 +11244,9 @@
       <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -11236,7 +11267,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS212/G5T7/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF79695-D9F2-084C-9FE1-D5F60CEA7227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F39DE-AF1E-9540-B402-88D450661B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="5180" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="96">
   <si>
     <t>Question</t>
   </si>
@@ -10865,10 +10865,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10940,7 +10940,9 @@
       <c r="G3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -10963,7 +10965,9 @@
       <c r="G4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -10986,7 +10990,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11011,7 +11017,9 @@
       <c r="G6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11034,7 +11042,9 @@
       <c r="G7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11057,7 +11067,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11082,7 +11094,9 @@
       <c r="G9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11105,7 +11119,9 @@
       <c r="G10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11128,7 +11144,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11153,7 +11171,9 @@
       <c r="G12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11176,7 +11196,9 @@
       <c r="G13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11199,7 +11221,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11224,7 +11248,9 @@
       <c r="G15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11247,7 +11273,9 @@
       <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11270,7 +11298,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F39DE-AF1E-9540-B402-88D450661B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012E6382-2D63-A04C-B275-6019BEAE552E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="5180" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="98">
   <si>
     <t>Question</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>Plan for Iteration 3 tasks and its allocation</t>
+  </si>
+  <si>
+    <t>Clear round function (round 2)</t>
+  </si>
+  <si>
+    <t>Plan json checker functions' logic flow</t>
   </si>
 </sst>
 </file>
@@ -10868,7 +10874,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10943,7 +10949,9 @@
       <c r="H3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -10968,7 +10976,9 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -10993,7 +11003,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -11020,7 +11032,9 @@
       <c r="H6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -11045,7 +11059,9 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -11070,7 +11086,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -11097,7 +11115,9 @@
       <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -11122,7 +11142,9 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -11147,7 +11169,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -11174,7 +11198,9 @@
       <c r="H12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -11199,7 +11225,9 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -11224,7 +11252,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -11251,7 +11281,9 @@
       <c r="H15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -11276,7 +11308,9 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -11301,7 +11335,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012E6382-2D63-A04C-B275-6019BEAE552E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF2D4D-B0CF-7B49-AA34-B9043E16C752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="100">
   <si>
     <t>Question</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Plan json checker functions' logic flow</t>
+  </si>
+  <si>
+    <t>Determine critical path for Iteration 3</t>
+  </si>
+  <si>
+    <t>Combine clear round function</t>
   </si>
 </sst>
 </file>
@@ -10870,11 +10876,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A70D3C-0BC5-2A46-9E56-0CDA371EBA40}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11358,11 +11364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F80F15-7EDB-A24D-9E12-CEF767B2E501}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11419,7 +11425,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -11432,7 +11440,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -11445,7 +11455,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -11460,7 +11472,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -11473,7 +11487,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -11486,7 +11502,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -11501,7 +11519,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -11514,7 +11534,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -11527,7 +11549,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -11542,7 +11566,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -11555,7 +11581,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -11568,7 +11596,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -11583,7 +11613,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -11596,7 +11628,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -11609,7 +11643,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF2D4D-B0CF-7B49-AA34-B9043E16C752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8193A0F0-B90C-9141-931F-BCFAE3214242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Combine clear round function</t>
+  </si>
+  <si>
+    <t>View bidding function</t>
   </si>
 </sst>
 </file>
@@ -10880,7 +10883,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11365,10 +11368,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11428,7 +11431,9 @@
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -11443,7 +11448,9 @@
       <c r="C4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11458,7 +11465,9 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11475,7 +11484,9 @@
       <c r="C6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11490,7 +11501,9 @@
       <c r="C7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11505,7 +11518,9 @@
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -11522,7 +11537,9 @@
       <c r="C9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -11537,7 +11554,9 @@
       <c r="C10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -11552,7 +11571,9 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -11569,7 +11590,9 @@
       <c r="C12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -11584,7 +11607,9 @@
       <c r="C13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -11599,7 +11624,9 @@
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -11616,7 +11643,9 @@
       <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -11631,7 +11660,9 @@
       <c r="C16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -11646,7 +11677,9 @@
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8193A0F0-B90C-9141-931F-BCFAE3214242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D91FB-695E-8349-AED2-6B011997AB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -11371,7 +11371,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11434,7 +11434,9 @@
       <c r="D3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11451,7 +11453,9 @@
       <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -11468,7 +11472,9 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -11487,7 +11493,9 @@
       <c r="D6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -11504,7 +11512,9 @@
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -11521,7 +11531,9 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -11540,7 +11552,9 @@
       <c r="D9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -11557,7 +11571,9 @@
       <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -11574,7 +11590,9 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -11593,7 +11611,9 @@
       <c r="D12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -11610,7 +11630,9 @@
       <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -11627,7 +11649,9 @@
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -11646,7 +11670,9 @@
       <c r="D15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -11663,7 +11689,9 @@
       <c r="D16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -11680,7 +11708,9 @@
       <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D91FB-695E-8349-AED2-6B011997AB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029398A-648B-DD4B-97B5-84602E46A35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -350,6 +350,15 @@
   </si>
   <si>
     <t>View bidding function</t>
+  </si>
+  <si>
+    <t>Start round, stop round json checker</t>
+  </si>
+  <si>
+    <t>Dump table, user, bid, section, bid status json checker</t>
+  </si>
+  <si>
+    <t>Plan and allocate functions to the team to test</t>
   </si>
 </sst>
 </file>
@@ -11368,10 +11377,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11437,7 +11446,9 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -11456,7 +11467,9 @@
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -11475,7 +11488,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -11496,7 +11511,9 @@
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -11515,7 +11532,9 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -11534,7 +11553,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -11555,7 +11576,9 @@
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -11574,7 +11597,9 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -11593,7 +11618,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -11614,7 +11641,9 @@
       <c r="E12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -11633,7 +11662,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -11652,7 +11683,9 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -11673,7 +11706,9 @@
       <c r="E15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -11692,7 +11727,9 @@
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -11711,7 +11748,9 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029398A-648B-DD4B-97B5-84602E46A35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6840954-063F-154A-9175-C596A888FD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -11377,10 +11377,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11449,7 +11449,9 @@
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -11470,7 +11472,9 @@
       <c r="F4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -11491,7 +11495,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -11514,7 +11520,9 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -11535,7 +11543,9 @@
       <c r="F7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -11556,7 +11566,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -11579,7 +11591,9 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -11600,7 +11614,9 @@
       <c r="F10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -11621,7 +11637,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -11644,7 +11662,9 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -11665,7 +11685,9 @@
       <c r="F13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -11686,7 +11708,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -11709,7 +11733,9 @@
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -11730,7 +11756,9 @@
       <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -11751,7 +11779,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6840954-063F-154A-9175-C596A888FD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E5751-8CD2-C64A-B92F-30C0C36E6A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11377,10 +11377,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11521,7 +11521,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -11541,10 +11541,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -11592,7 +11592,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -11612,10 +11612,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E5751-8CD2-C64A-B92F-30C0C36E6A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4C6EB-9ED2-A940-86EB-307A44521BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="110">
   <si>
     <t>Question</t>
   </si>
@@ -359,6 +359,24 @@
   </si>
   <si>
     <t>Plan and allocate functions to the team to test</t>
+  </si>
+  <si>
+    <t>Commits done the day before were accidentally reverted</t>
+  </si>
+  <si>
+    <t>Dump, start/clear round, drop bid testcases</t>
+  </si>
+  <si>
+    <t>Dump, bootstrap, place bid testcases</t>
+  </si>
+  <si>
+    <t>Start/clear round, drop section, bootstrap testcases</t>
+  </si>
+  <si>
+    <t>Drop bid, drop section, login testcases</t>
+  </si>
+  <si>
+    <t>Dump, drop bid, place bid testcases</t>
   </si>
 </sst>
 </file>
@@ -11377,10 +11395,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11452,7 +11470,9 @@
       <c r="G3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11475,7 +11495,9 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11498,7 +11520,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11523,7 +11547,9 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11546,7 +11572,9 @@
       <c r="G7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11569,7 +11597,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11594,7 +11624,9 @@
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11617,7 +11649,9 @@
       <c r="G10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11640,7 +11674,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11665,7 +11701,9 @@
       <c r="G12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11688,7 +11726,9 @@
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11711,7 +11751,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11736,7 +11778,9 @@
       <c r="G15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11759,7 +11803,9 @@
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -11782,7 +11828,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4C6EB-9ED2-A940-86EB-307A44521BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC520E-67E1-EC4E-A06E-20E1E220BA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Dump, drop bid, place bid testcases</t>
+  </si>
+  <si>
+    <t>Debugging Session</t>
+  </si>
+  <si>
+    <t>Run testcases + regression testing</t>
   </si>
 </sst>
 </file>
@@ -11395,10 +11401,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11473,7 +11479,9 @@
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -11498,7 +11506,9 @@
       <c r="H4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -11523,7 +11533,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -11550,7 +11562,9 @@
       <c r="H6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -11575,7 +11589,9 @@
       <c r="H7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -11600,7 +11616,9 @@
       <c r="H8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -11627,7 +11645,9 @@
       <c r="H9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -11652,7 +11672,9 @@
       <c r="H10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -11677,7 +11699,9 @@
       <c r="H11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -11704,7 +11728,9 @@
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -11729,7 +11755,9 @@
       <c r="H13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -11754,7 +11782,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -11781,7 +11811,9 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -11806,7 +11838,9 @@
       <c r="H16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -11831,7 +11865,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC520E-67E1-EC4E-A06E-20E1E220BA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8B980-F9EA-0341-BF66-DC50FC939C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -11400,11 +11400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F80F15-7EDB-A24D-9E12-CEF767B2E501}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11888,11 +11888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A34FEB-DAD5-9143-886E-3EB69BEEF73E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11949,7 +11949,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -11962,7 +11964,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -11975,7 +11979,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -11990,7 +11996,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -12003,7 +12011,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -12016,7 +12026,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -12031,7 +12043,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -12044,7 +12058,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -12057,7 +12073,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -12072,7 +12090,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -12085,7 +12105,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -12098,7 +12120,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -12113,7 +12137,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -12126,7 +12152,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -12139,7 +12167,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS212/G5T7/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7447390-B0C3-9C46-B186-BE0B8A7C8C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B8766-A393-EF4E-95DB-E0DE7B4105D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -11910,10 +11910,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichen/Documents/GitHub/SECRET-BIOS/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS212/G5T7/SECRET-BIOS/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B8766-A393-EF4E-95DB-E0DE7B4105D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1EA32-045E-5140-AE7F-2E4C80DE3C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="115">
   <si>
     <t>Question</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Prepare for User Acceptance Test</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
   </si>
 </sst>
 </file>
@@ -11910,10 +11913,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11979,7 +11982,9 @@
       <c r="E3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -11998,7 +12003,9 @@
       <c r="E4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -12017,7 +12024,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -12038,7 +12047,9 @@
       <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -12057,7 +12068,9 @@
       <c r="E7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -12076,7 +12089,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -12097,7 +12112,9 @@
       <c r="E9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -12116,7 +12133,9 @@
       <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -12135,7 +12154,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -12156,7 +12177,9 @@
       <c r="E12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -12175,7 +12198,9 @@
       <c r="E13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -12194,7 +12219,9 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -12215,7 +12242,9 @@
       <c r="E15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -12234,7 +12263,9 @@
       <c r="E16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -12253,7 +12284,9 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F089F-638D-4470-B6FD-E51FE2DEC98B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB2F72-DE6D-4199-889D-8F6525B5F73C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -11928,10 +11928,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G17"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12003,7 +12003,9 @@
       <c r="G3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12026,7 +12028,9 @@
       <c r="G4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12074,7 +12078,9 @@
       <c r="G6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12097,7 +12103,9 @@
       <c r="G7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12120,7 +12128,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12145,7 +12155,9 @@
       <c r="G9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12168,7 +12180,9 @@
       <c r="G10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12191,7 +12205,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12216,7 +12232,9 @@
       <c r="G12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12239,7 +12257,9 @@
       <c r="G13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12262,7 +12282,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12287,7 +12309,9 @@
       <c r="G15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12310,7 +12334,9 @@
       <c r="G16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12333,7 +12359,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB2F72-DE6D-4199-889D-8F6525B5F73C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F8725-B777-460E-8740-1D409055DEE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -11928,10 +11928,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12006,7 +12006,9 @@
       <c r="H3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -12031,7 +12033,9 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -12054,7 +12058,9 @@
         <v>21</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -12081,7 +12087,9 @@
       <c r="H6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -12106,7 +12114,9 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -12131,7 +12141,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -12158,7 +12170,9 @@
       <c r="H9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -12183,7 +12197,9 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -12208,7 +12224,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -12235,7 +12253,9 @@
       <c r="H12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -12260,7 +12280,9 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -12285,7 +12307,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -12312,7 +12336,9 @@
       <c r="H15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -12337,7 +12363,9 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -12362,7 +12390,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F8725-B777-460E-8740-1D409055DEE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB2F72-DE6D-4199-889D-8F6525B5F73C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -11928,10 +11928,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12006,9 +12006,7 @@
       <c r="H3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -12033,9 +12031,7 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -12058,9 +12054,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -12087,9 +12081,7 @@
       <c r="H6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -12114,9 +12106,7 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -12141,9 +12131,7 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -12170,9 +12158,7 @@
       <c r="H9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -12197,9 +12183,7 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -12224,9 +12208,7 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -12253,9 +12235,7 @@
       <c r="H12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -12280,9 +12260,7 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -12307,9 +12285,7 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -12336,9 +12312,7 @@
       <c r="H15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -12363,9 +12337,7 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -12390,9 +12362,7 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB2F72-DE6D-4199-889D-8F6525B5F73C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87546359-DA2A-407A-9745-05B4D2915633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -11931,7 +11931,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12006,7 +12006,9 @@
       <c r="H3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -12031,7 +12033,9 @@
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -12054,7 +12058,9 @@
         <v>21</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -12081,7 +12087,9 @@
       <c r="H6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -12106,7 +12114,9 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -12131,7 +12141,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -12158,7 +12170,9 @@
       <c r="H9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -12183,7 +12197,9 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -12208,7 +12224,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -12235,7 +12253,9 @@
       <c r="H12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -12260,7 +12280,9 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -12285,7 +12307,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -12312,7 +12336,9 @@
       <c r="H15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -12337,7 +12363,9 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -12362,7 +12390,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87546359-DA2A-407A-9745-05B4D2915633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E28ABE-00C5-4189-BAF1-896F460610CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -11927,7 +11927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A34FEB-DAD5-9143-886E-3EB69BEEF73E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12417,11 +12417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F311D3-DB5D-434C-A138-D6E762210AAD}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:I1"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12478,7 +12478,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -12491,7 +12493,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -12504,7 +12508,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -12519,7 +12525,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -12532,7 +12540,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -12545,7 +12555,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -12560,7 +12572,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -12573,7 +12587,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -12586,7 +12602,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -12601,7 +12619,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -12614,7 +12634,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -12627,7 +12649,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -12642,7 +12666,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -12655,7 +12681,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -12668,7 +12696,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E28ABE-00C5-4189-BAF1-896F460610CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AF385-ED14-4372-9E98-F60761520476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -12421,7 +12421,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12481,7 +12481,9 @@
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -12496,7 +12498,9 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -12511,7 +12515,9 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -12528,7 +12534,9 @@
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -12543,7 +12551,9 @@
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -12558,7 +12568,9 @@
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -12575,7 +12587,9 @@
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -12590,7 +12604,9 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -12605,7 +12621,9 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -12622,7 +12640,9 @@
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -12637,7 +12657,9 @@
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -12652,7 +12674,9 @@
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -12669,7 +12693,9 @@
       <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -12684,7 +12710,9 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -12699,7 +12727,9 @@
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AF385-ED14-4372-9E98-F60761520476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B072EA5-7D5A-4B4A-85B2-5B51F5CDE6C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -12417,11 +12417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F311D3-DB5D-434C-A138-D6E762210AAD}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D17"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12484,7 +12484,9 @@
       <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -12501,7 +12503,9 @@
       <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -12518,7 +12522,9 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -12537,7 +12543,9 @@
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -12554,7 +12562,9 @@
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -12571,7 +12581,9 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -12590,7 +12602,9 @@
       <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -12607,7 +12621,9 @@
       <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -12624,7 +12640,9 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -12643,7 +12661,9 @@
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -12660,7 +12680,9 @@
       <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -12677,7 +12699,9 @@
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -12696,7 +12720,9 @@
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -12713,7 +12739,9 @@
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -12730,7 +12758,9 @@
       <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B072EA5-7D5A-4B4A-85B2-5B51F5CDE6C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513EF96-43BE-4095-B517-0B87CB5A094A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -12421,7 +12421,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12487,7 +12487,9 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -12506,7 +12508,9 @@
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -12525,7 +12529,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -12546,7 +12552,9 @@
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -12565,7 +12573,9 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -12584,7 +12594,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -12605,7 +12617,9 @@
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -12624,7 +12638,9 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -12643,7 +12659,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -12664,7 +12682,9 @@
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -12683,7 +12703,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -12702,7 +12724,9 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -12723,7 +12747,9 @@
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -12742,7 +12768,9 @@
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -12761,7 +12789,9 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513EF96-43BE-4095-B517-0B87CB5A094A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7B564-A190-4745-9D31-45A95D4EE7FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Plan for Iteration 4 tasks and its allocation</t>
+  </si>
+  <si>
+    <t>Prepare additional testcases, run testcases + regression testing</t>
   </si>
 </sst>
 </file>
@@ -12418,10 +12421,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12490,7 +12493,9 @@
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -12511,7 +12516,9 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -12532,7 +12539,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -12555,7 +12564,9 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -12576,7 +12587,9 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -12597,7 +12610,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -12620,11 +12635,13 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -12641,7 +12658,9 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -12662,7 +12681,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -12685,7 +12706,9 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -12706,7 +12729,9 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -12727,7 +12752,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -12750,11 +12777,13 @@
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -12771,7 +12800,9 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -12792,7 +12823,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7B564-A190-4745-9D31-45A95D4EE7FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50F791-B0A9-45DA-B05A-1A4AB35F5780}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="118">
   <si>
     <t>Question</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>Prepare additional testcases, run testcases + regression testing</t>
+  </si>
+  <si>
+    <t>Fix all bugs from UAT and testcases</t>
   </si>
 </sst>
 </file>
@@ -12424,7 +12427,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12496,7 +12499,9 @@
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12519,7 +12524,9 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12542,7 +12549,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12567,7 +12576,9 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12590,7 +12601,9 @@
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12613,10 +12626,12 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -12638,7 +12653,9 @@
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12661,7 +12678,9 @@
       <c r="G10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12684,7 +12703,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12709,7 +12730,9 @@
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12732,7 +12755,9 @@
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12755,10 +12780,12 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -12780,7 +12807,9 @@
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12803,7 +12832,9 @@
       <c r="G16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12826,7 +12857,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50F791-B0A9-45DA-B05A-1A4AB35F5780}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE6E62-672E-4CB3-9FF1-A698DA0072AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="120">
   <si>
     <t>Question</t>
   </si>
@@ -397,10 +397,18 @@
     <t>Plan for Iteration 4 tasks and its allocation</t>
   </si>
   <si>
-    <t>Prepare additional testcases, run testcases + regression testing</t>
+    <t>Fix all bugs from UAT and testcases</t>
   </si>
   <si>
-    <t>Fix all bugs from UAT and testcases</t>
+    <t>Run testcases + regression testing, Fix all bugs from UAT and testcases</t>
+  </si>
+  <si>
+    <t>Prepare additional testcases, 
+Fix all bugs from UAT and testcases</t>
+  </si>
+  <si>
+    <t>Prepare additional testcases, Run testcases + regression testing
+Fix all bugs from UAT and testcases</t>
   </si>
 </sst>
 </file>
@@ -12424,10 +12432,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12525,7 +12533,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -12602,7 +12610,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -12654,7 +12662,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7"/>
     </row>
@@ -12676,7 +12684,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>117</v>
@@ -12735,7 +12743,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -12756,7 +12764,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -12808,11 +12816,11 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -12830,10 +12838,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I16" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE6E62-672E-4CB3-9FF1-A698DA0072AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201308B4-A697-442B-A587-A8EFD10716EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="123">
   <si>
     <t>Question</t>
   </si>
@@ -409,6 +409,15 @@
   <si>
     <t>Prepare additional testcases, Run testcases + regression testing
 Fix all bugs from UAT and testcases</t>
+  </si>
+  <si>
+    <t>Deploy app</t>
+  </si>
+  <si>
+    <t>Test app on web server + debugging, prepare bug metrics</t>
+  </si>
+  <si>
+    <t>Prepare bug metrics, deploy app, Test app on web server + debugging, prepare bug metrics</t>
   </si>
 </sst>
 </file>
@@ -12435,7 +12444,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12510,7 +12519,9 @@
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -12535,7 +12546,9 @@
       <c r="H4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -12560,7 +12573,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -12587,7 +12602,9 @@
       <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -12612,7 +12629,9 @@
       <c r="H7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -12637,9 +12656,11 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -12664,7 +12685,9 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -12689,7 +12712,9 @@
       <c r="H10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -12714,9 +12739,11 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -12741,7 +12768,9 @@
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -12766,7 +12795,9 @@
       <c r="H13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -12791,9 +12822,11 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -12818,7 +12851,9 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -12843,7 +12878,9 @@
       <c r="H16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -12868,7 +12905,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201308B4-A697-442B-A587-A8EFD10716EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9670B0-8E61-4852-B1AC-0666BCD27177}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Prepare bug metrics, deploy app, Test app on web server + debugging, prepare bug metrics</t>
+  </si>
+  <si>
+    <t>Prepare for final submission and presentation slides</t>
   </si>
 </sst>
 </file>
@@ -12440,7 +12443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F311D3-DB5D-434C-A138-D6E762210AAD}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12932,11 +12935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B36927-73C5-5B47-AF35-F1F069D84D34}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12993,7 +12996,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -13001,12 +13006,14 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -13019,7 +13026,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -13034,7 +13043,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -13042,12 +13053,14 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -13060,7 +13073,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -13068,14 +13083,16 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -13088,7 +13105,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -13101,7 +13120,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -13116,7 +13137,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -13124,12 +13147,14 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -13142,7 +13167,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -13150,14 +13177,16 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -13165,12 +13194,14 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -13183,7 +13214,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9670B0-8E61-4852-B1AC-0666BCD27177}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8FD75-EEF9-438A-8BC7-28C029F05778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
     <t>Prepare bug metrics, deploy app, Test app on web server + debugging, prepare bug metrics</t>
   </si>
   <si>
-    <t>Prepare for final submission and presentation slides</t>
+    <t>Debug + update tescases</t>
   </si>
 </sst>
 </file>
@@ -12936,10 +12936,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13012,7 +13012,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -13106,7 +13106,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -13200,7 +13200,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8FD75-EEF9-438A-8BC7-28C029F05778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6E4430-C3C2-4F32-A79B-C77BC471C5F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="126">
   <si>
     <t>Question</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Debug + update tescases</t>
+  </si>
+  <si>
+    <t>Update testcases, debug and prepare bug metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy app </t>
   </si>
 </sst>
 </file>
@@ -12936,10 +12942,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12999,7 +13005,9 @@
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -13014,7 +13022,9 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -13029,7 +13039,9 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -13046,7 +13058,9 @@
       <c r="C6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -13061,7 +13075,9 @@
       <c r="C7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -13076,7 +13092,9 @@
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -13093,7 +13111,9 @@
       <c r="C9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -13108,7 +13128,9 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -13123,7 +13145,9 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -13140,7 +13164,9 @@
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -13155,7 +13181,9 @@
       <c r="C13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -13170,7 +13198,9 @@
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -13187,7 +13217,9 @@
       <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -13202,7 +13234,9 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -13217,7 +13251,9 @@
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6E4430-C3C2-4F32-A79B-C77BC471C5F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA83701-F342-49A7-A526-07B552FA7FE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>Prepare bug metrics, deploy app, Test app on web server + debugging, prepare bug metrics</t>
-  </si>
-  <si>
-    <t>Debug + update tescases</t>
   </si>
   <si>
     <t>Update testcases, debug and prepare bug metrics</t>
@@ -12945,7 +12942,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12995,7 +12992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -13008,7 +13005,9 @@
       <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -13025,7 +13024,9 @@
       <c r="D4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -13042,13 +13043,15 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -13061,7 +13064,9 @@
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13073,12 +13078,14 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13095,7 +13102,9 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13112,9 +13121,11 @@
         <v>121</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -13126,12 +13137,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -13148,7 +13161,9 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -13165,9 +13180,11 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -13179,12 +13196,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -13201,7 +13220,9 @@
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -13218,9 +13239,11 @@
         <v>122</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -13232,12 +13255,14 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -13254,7 +13279,9 @@
       <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA83701-F342-49A7-A526-07B552FA7FE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D3312-36E8-4FDA-8DA7-A2912AD5A54C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -12942,7 +12942,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13008,7 +13008,9 @@
       <c r="E3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -13027,7 +13029,9 @@
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -13046,7 +13050,9 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -13067,7 +13073,9 @@
       <c r="E6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -13086,7 +13094,9 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -13105,7 +13115,9 @@
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -13126,7 +13138,9 @@
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -13145,7 +13159,9 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -13164,7 +13180,9 @@
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -13185,7 +13203,9 @@
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -13204,7 +13224,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -13223,7 +13245,9 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -13244,7 +13268,9 @@
       <c r="E15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -13263,7 +13289,9 @@
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -13282,7 +13310,9 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D3312-36E8-4FDA-8DA7-A2912AD5A54C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C28F87-EEE6-4740-84BF-CA0083418C18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Week 11" sheetId="7" r:id="rId7"/>
     <sheet name="Week 12" sheetId="8" r:id="rId8"/>
     <sheet name="Week 13" sheetId="9" r:id="rId9"/>
-    <sheet name="Week 14" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -326,9 +325,6 @@
   </si>
   <si>
     <t>Week: 11 Nov to 17 Nov</t>
-  </si>
-  <si>
-    <t>Week: 18 Nov to 24 Nov</t>
   </si>
   <si>
     <t>App Demo &amp; Progress Update</t>
@@ -5272,288 +5268,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D329D56-B4E6-A741-8F1C-1B236FB18199}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;8 SMU Classification: Restricted&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
@@ -11046,10 +10760,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -11070,10 +10784,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -11129,10 +10843,10 @@
         <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -11153,16 +10867,16 @@
         <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11212,10 +10926,10 @@
         <v>87</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -11236,16 +10950,16 @@
         <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11295,10 +11009,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -11319,16 +11033,16 @@
         <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11378,10 +11092,10 @@
         <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -11402,16 +11116,16 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11529,7 +11243,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -11538,13 +11252,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11553,7 +11267,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
@@ -11562,13 +11276,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>84</v>
@@ -11609,10 +11323,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -11624,10 +11338,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11636,7 +11350,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>22</v>
@@ -11648,13 +11362,13 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11678,7 +11392,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>21</v>
@@ -11692,10 +11406,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -11707,10 +11421,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11719,7 +11433,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -11731,13 +11445,13 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11761,7 +11475,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>21</v>
@@ -11775,25 +11489,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11802,25 +11516,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11858,25 +11572,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11885,25 +11599,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12024,16 +11738,16 @@
         <v>84</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -12048,16 +11762,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -12099,22 +11813,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -12126,19 +11840,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>22</v>
@@ -12182,22 +11896,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -12209,19 +11923,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>22</v>
@@ -12265,22 +11979,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -12292,19 +12006,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
@@ -12348,22 +12062,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -12375,19 +12089,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
@@ -12526,7 +12240,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12550,7 +12264,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>22</v>
@@ -12609,7 +12323,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12633,10 +12347,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12692,7 +12406,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12716,10 +12430,10 @@
         <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12775,7 +12489,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12513,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -12858,7 +12572,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12882,10 +12596,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,7 +12656,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13006,12 +12720,14 @@
         <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -13024,7 +12740,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -13032,7 +12748,9 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -13053,7 +12771,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -13065,18 +12785,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -13089,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -13097,7 +12819,9 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -13118,7 +12842,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -13130,10 +12856,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -13141,7 +12867,9 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -13151,7 +12879,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -13162,7 +12890,9 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -13183,7 +12913,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -13198,7 +12930,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -13206,7 +12938,9 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -13216,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>22</v>
@@ -13227,7 +12961,9 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -13248,7 +12984,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -13260,18 +12998,20 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -13281,10 +13021,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
@@ -13292,7 +13032,9 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -13313,7 +13055,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C28F87-EEE6-4740-84BF-CA0083418C18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D3312-36E8-4FDA-8DA7-A2912AD5A54C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Week 11" sheetId="7" r:id="rId7"/>
     <sheet name="Week 12" sheetId="8" r:id="rId8"/>
     <sheet name="Week 13" sheetId="9" r:id="rId9"/>
+    <sheet name="Week 14" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -325,6 +326,9 @@
   </si>
   <si>
     <t>Week: 11 Nov to 17 Nov</t>
+  </si>
+  <si>
+    <t>Week: 18 Nov to 24 Nov</t>
   </si>
   <si>
     <t>App Demo &amp; Progress Update</t>
@@ -5268,6 +5272,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D329D56-B4E6-A741-8F1C-1B236FB18199}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8 SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
@@ -10760,10 +11046,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -10784,10 +11070,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -10843,10 +11129,10 @@
         <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -10867,16 +11153,16 @@
         <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -10926,10 +11212,10 @@
         <v>87</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -10950,16 +11236,16 @@
         <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11009,10 +11295,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -11033,16 +11319,16 @@
         <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11092,10 +11378,10 @@
         <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -11116,16 +11402,16 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11243,7 +11529,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -11252,13 +11538,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11267,7 +11553,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
@@ -11276,13 +11562,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>84</v>
@@ -11323,10 +11609,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -11338,10 +11624,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11350,7 +11636,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>22</v>
@@ -11362,13 +11648,13 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11392,7 +11678,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>21</v>
@@ -11406,10 +11692,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -11421,10 +11707,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11433,7 +11719,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -11445,13 +11731,13 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11475,7 +11761,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>21</v>
@@ -11489,25 +11775,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11516,25 +11802,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11572,25 +11858,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11599,25 +11885,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11738,16 +12024,16 @@
         <v>84</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -11762,16 +12048,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -11813,22 +12099,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -11840,19 +12126,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>22</v>
@@ -11896,22 +12182,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -11923,19 +12209,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>22</v>
@@ -11979,22 +12265,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -12006,19 +12292,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
@@ -12062,22 +12348,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -12089,19 +12375,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
@@ -12240,7 +12526,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12264,7 +12550,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>22</v>
@@ -12323,7 +12609,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12347,10 +12633,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12406,7 +12692,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12430,10 +12716,10 @@
         <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12489,7 +12775,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12513,7 +12799,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -12572,7 +12858,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12596,10 +12882,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12656,7 +12942,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12720,14 +13006,12 @@
         <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -12740,7 +13024,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -12748,9 +13032,7 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -12771,9 +13053,7 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -12785,20 +13065,18 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -12811,7 +13089,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -12819,9 +13097,7 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -12842,9 +13118,7 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -12856,10 +13130,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -12867,9 +13141,7 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -12879,7 +13151,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -12890,9 +13162,7 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -12913,9 +13183,7 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -12930,7 +13198,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -12938,9 +13206,7 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -12950,7 +13216,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>22</v>
@@ -12961,9 +13227,7 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -12984,9 +13248,7 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -12998,20 +13260,18 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -13021,10 +13281,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
@@ -13032,9 +13292,7 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -13055,9 +13313,7 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D3312-36E8-4FDA-8DA7-A2912AD5A54C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E785EC-B3CE-4371-81F1-33C6D152F6DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Week 11" sheetId="7" r:id="rId7"/>
     <sheet name="Week 12" sheetId="8" r:id="rId8"/>
     <sheet name="Week 13" sheetId="9" r:id="rId9"/>
-    <sheet name="Week 14" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -326,9 +325,6 @@
   </si>
   <si>
     <t>Week: 11 Nov to 17 Nov</t>
-  </si>
-  <si>
-    <t>Week: 18 Nov to 24 Nov</t>
   </si>
   <si>
     <t>App Demo &amp; Progress Update</t>
@@ -5272,288 +5268,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D329D56-B4E6-A741-8F1C-1B236FB18199}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;8 SMU Classification: Restricted&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C4FA2-0B07-204A-901F-21D0E14895D7}">
   <dimension ref="A1:I1001"/>
@@ -11046,10 +10760,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -11070,10 +10784,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -11129,10 +10843,10 @@
         <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -11153,16 +10867,16 @@
         <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11212,10 +10926,10 @@
         <v>87</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -11236,16 +10950,16 @@
         <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11295,10 +11009,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -11319,16 +11033,16 @@
         <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11378,10 +11092,10 @@
         <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -11402,16 +11116,16 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11529,7 +11243,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -11538,13 +11252,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11553,7 +11267,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
@@ -11562,13 +11276,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>84</v>
@@ -11609,10 +11323,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -11624,10 +11338,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11636,7 +11350,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>22</v>
@@ -11648,13 +11362,13 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11678,7 +11392,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>21</v>
@@ -11692,10 +11406,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -11707,10 +11421,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11719,7 +11433,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -11731,13 +11445,13 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11761,7 +11475,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>21</v>
@@ -11775,25 +11489,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11802,25 +11516,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11858,25 +11572,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -11885,25 +11599,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12024,16 +11738,16 @@
         <v>84</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>22</v>
@@ -12048,16 +11762,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
@@ -12099,22 +11813,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -12126,19 +11840,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>22</v>
@@ -12182,22 +11896,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
@@ -12209,19 +11923,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>22</v>
@@ -12265,22 +11979,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>22</v>
@@ -12292,19 +12006,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>22</v>
@@ -12348,22 +12062,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -12375,19 +12089,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>22</v>
@@ -12526,7 +12240,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12550,7 +12264,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>22</v>
@@ -12609,7 +12323,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12633,10 +12347,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12692,7 +12406,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12716,10 +12430,10 @@
         <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12775,7 +12489,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12513,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>22</v>
@@ -12858,7 +12572,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12882,10 +12596,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,7 +12656,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F17"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13006,12 +12720,14 @@
         <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -13024,7 +12740,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -13032,7 +12748,9 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -13053,7 +12771,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -13065,18 +12785,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -13089,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -13097,7 +12819,9 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -13118,7 +12842,9 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -13130,10 +12856,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -13141,7 +12867,9 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -13151,7 +12879,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>22</v>
@@ -13162,7 +12890,9 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -13183,7 +12913,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -13198,7 +12930,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -13206,7 +12938,9 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -13216,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>22</v>
@@ -13227,7 +12961,9 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -13248,7 +12984,9 @@
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -13260,18 +12998,20 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -13281,10 +13021,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
@@ -13292,7 +13032,9 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -13313,7 +13055,9 @@
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E785EC-B3CE-4371-81F1-33C6D152F6DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB711-2FD4-4DB2-861C-73F2DABC2F66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deploy app </t>
+  </si>
+  <si>
+    <t>Prepare for final submission and presentation slides</t>
   </si>
 </sst>
 </file>
@@ -12656,7 +12659,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12728,7 +12731,9 @@
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12751,7 +12756,9 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12774,7 +12781,9 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12808,9 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12822,7 +12833,9 @@
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12845,7 +12858,9 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12870,10 +12885,12 @@
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -12893,7 +12910,9 @@
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12916,7 +12935,9 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12941,7 +12962,9 @@
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -12964,7 +12987,9 @@
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12987,7 +13012,9 @@
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13012,7 +13039,9 @@
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13035,7 +13064,9 @@
       <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -13058,7 +13089,9 @@
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SECRET-BIOS\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB711-2FD4-4DB2-861C-73F2DABC2F66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F788357-838C-4884-8683-0644340DDE1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="126">
   <si>
     <t>Question</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Prepare for final submission and presentation slides</t>
+  </si>
+  <si>
+    <t>Final Submission</t>
   </si>
 </sst>
 </file>
@@ -12659,7 +12662,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12734,7 +12737,9 @@
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -12759,7 +12764,9 @@
       <c r="H4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -12784,7 +12791,9 @@
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -12811,7 +12820,9 @@
       <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -12836,7 +12847,9 @@
       <c r="H7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -12861,7 +12874,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -12888,7 +12903,9 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -12913,7 +12930,9 @@
       <c r="H10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -12938,7 +12957,9 @@
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -12965,7 +12986,9 @@
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -12990,7 +13013,9 @@
       <c r="H13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -13015,7 +13040,9 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -13042,7 +13069,9 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -13067,7 +13096,9 @@
       <c r="H16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -13092,7 +13123,9 @@
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
